--- a/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9141941713325148</v>
+        <v>0.9141941713325142</v>
       </c>
       <c r="D2">
         <v>1.027584159931058</v>
       </c>
       <c r="E2">
-        <v>0.9329528586281148</v>
+        <v>0.9329528586281143</v>
       </c>
       <c r="F2">
-        <v>0.9391079638267434</v>
+        <v>0.9391079638267428</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.045544569418811</v>
       </c>
       <c r="J2">
-        <v>0.9392836436464025</v>
+        <v>0.9392836436464019</v>
       </c>
       <c r="K2">
         <v>1.038672127470827</v>
       </c>
       <c r="L2">
-        <v>0.9454326528029308</v>
+        <v>0.9454326528029303</v>
       </c>
       <c r="M2">
-        <v>0.9514862717127216</v>
+        <v>0.951486271712721</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9291668098310781</v>
+        <v>0.9291668098310796</v>
       </c>
       <c r="D3">
         <v>1.030806041473917</v>
       </c>
       <c r="E3">
-        <v>0.9457975835640225</v>
+        <v>0.9457975835640237</v>
       </c>
       <c r="F3">
-        <v>0.9531727570333329</v>
+        <v>0.9531727570333342</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.047485099999936</v>
       </c>
       <c r="J3">
-        <v>0.9517941816303946</v>
+        <v>0.9517941816303959</v>
       </c>
       <c r="K3">
         <v>1.04105936102991</v>
       </c>
       <c r="L3">
-        <v>0.9571744192153989</v>
+        <v>0.9571744192154003</v>
       </c>
       <c r="M3">
-        <v>0.96444206556815</v>
+        <v>0.9644420655681509</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9382736674024658</v>
+        <v>0.9382736674024669</v>
       </c>
       <c r="D4">
-        <v>1.032799746753635</v>
+        <v>1.032799746753636</v>
       </c>
       <c r="E4">
-        <v>0.9536217519086696</v>
+        <v>0.9536217519086707</v>
       </c>
       <c r="F4">
-        <v>0.9617366188286607</v>
+        <v>0.9617366188286611</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.048655067786255</v>
       </c>
       <c r="J4">
-        <v>0.9593999328094744</v>
+        <v>0.9593999328094754</v>
       </c>
       <c r="K4">
         <v>1.042517790454785</v>
       </c>
       <c r="L4">
-        <v>0.9643141412037567</v>
+        <v>0.9643141412037577</v>
       </c>
       <c r="M4">
-        <v>0.9723198926225841</v>
+        <v>0.9723198926225849</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9419789204126562</v>
+        <v>0.9419789204126567</v>
       </c>
       <c r="D5">
-        <v>1.033617629344595</v>
+        <v>1.033617629344596</v>
       </c>
       <c r="E5">
-        <v>0.9568074143385892</v>
+        <v>0.9568074143385897</v>
       </c>
       <c r="F5">
-        <v>0.965222094353217</v>
+        <v>0.9652220943532173</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.049127879989012</v>
       </c>
       <c r="J5">
-        <v>0.9624932894939581</v>
+        <v>0.9624932894939587</v>
       </c>
       <c r="K5">
         <v>1.043111701614087</v>
       </c>
       <c r="L5">
-        <v>0.9672181749823443</v>
+        <v>0.9672181749823447</v>
       </c>
       <c r="M5">
-        <v>0.9755235392926914</v>
+        <v>0.9755235392926918</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9425942267573324</v>
+        <v>0.942594226757332</v>
       </c>
       <c r="D6">
         <v>1.033753806405533</v>
       </c>
       <c r="E6">
-        <v>0.9573365580137787</v>
+        <v>0.9573365580137788</v>
       </c>
       <c r="F6">
-        <v>0.9658009438335908</v>
+        <v>0.9658009438335912</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.049206188497017</v>
       </c>
       <c r="J6">
-        <v>0.9630069070798706</v>
+        <v>0.9630069070798707</v>
       </c>
       <c r="K6">
         <v>1.043210332531128</v>
@@ -600,7 +600,7 @@
         <v>0.9677003676715283</v>
       </c>
       <c r="M6">
-        <v>0.9760554293449478</v>
+        <v>0.9760554293449482</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9383236427621346</v>
+        <v>0.9383236427621341</v>
       </c>
       <c r="D7">
         <v>1.032810753161699</v>
       </c>
       <c r="E7">
-        <v>0.9536647106531517</v>
+        <v>0.9536647106531513</v>
       </c>
       <c r="F7">
-        <v>0.9617836265991854</v>
+        <v>0.9617836265991851</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.048661458599287</v>
       </c>
       <c r="J7">
-        <v>0.9594416600212462</v>
+        <v>0.9594416600212458</v>
       </c>
       <c r="K7">
-        <v>1.04252580009786</v>
+        <v>1.042525800097861</v>
       </c>
       <c r="L7">
-        <v>0.9643533138437043</v>
+        <v>0.9643533138437037</v>
       </c>
       <c r="M7">
-        <v>0.9723631098798816</v>
+        <v>0.9723631098798817</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,10 +655,10 @@
         <v>1.028692877796777</v>
       </c>
       <c r="E8">
-        <v>0.9374033784912762</v>
+        <v>0.937403378491276</v>
       </c>
       <c r="F8">
-        <v>0.9439816163150528</v>
+        <v>0.9439816163150526</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1.046219099354676</v>
       </c>
       <c r="J8">
-        <v>0.9436217028309095</v>
+        <v>0.9436217028309093</v>
       </c>
       <c r="K8">
         <v>1.039497721269898</v>
@@ -676,7 +676,7 @@
         <v>0.9495037755025986</v>
       </c>
       <c r="M8">
-        <v>0.9559779462135978</v>
+        <v>0.9559779462135974</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,7 +687,7 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8806154760438915</v>
+        <v>0.8806154760438917</v>
       </c>
       <c r="D9">
         <v>1.020651361903069</v>
@@ -696,7 +696,7 @@
         <v>0.9042475937177992</v>
       </c>
       <c r="F9">
-        <v>0.9076871942570713</v>
+        <v>0.9076871942570715</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.041173641156433</v>
       </c>
       <c r="J9">
-        <v>0.9112238806878954</v>
+        <v>0.9112238806878957</v>
       </c>
       <c r="K9">
-        <v>1.033418040723199</v>
+        <v>1.0334180407232</v>
       </c>
       <c r="L9">
         <v>0.9191120263197526</v>
       </c>
       <c r="M9">
-        <v>0.9224794391375838</v>
+        <v>0.922479439137584</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.8492238502355529</v>
       </c>
       <c r="D10">
-        <v>1.014591710066327</v>
+        <v>1.014591710066326</v>
       </c>
       <c r="E10">
-        <v>0.8775650003557149</v>
+        <v>0.8775650003557147</v>
       </c>
       <c r="F10">
-        <v>0.8785479927832018</v>
+        <v>0.8785479927832022</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -749,10 +749,10 @@
         <v>1.028702411532228</v>
       </c>
       <c r="L10">
-        <v>0.8945630432131155</v>
+        <v>0.8945630432131153</v>
       </c>
       <c r="M10">
-        <v>0.8955209801581449</v>
+        <v>0.8955209801581451</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8335781936334803</v>
+        <v>0.8335781936334787</v>
       </c>
       <c r="D11">
-        <v>1.011739744800681</v>
+        <v>1.011739744800682</v>
       </c>
       <c r="E11">
-        <v>0.8643315393802662</v>
+        <v>0.8643315393802649</v>
       </c>
       <c r="F11">
-        <v>0.8641373480662682</v>
+        <v>0.8641373480662675</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035176319821452</v>
+        <v>1.035176319821453</v>
       </c>
       <c r="J11">
-        <v>0.8719906490815443</v>
+        <v>0.8719906490815431</v>
       </c>
       <c r="K11">
-        <v>1.026443611448074</v>
+        <v>1.026443611448075</v>
       </c>
       <c r="L11">
-        <v>0.8823624987204584</v>
+        <v>0.882362498720457</v>
       </c>
       <c r="M11">
-        <v>0.882173714980084</v>
+        <v>0.8821737149800832</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8273516480342314</v>
+        <v>0.8273516480342327</v>
       </c>
       <c r="D12">
         <v>1.010637464648142</v>
       </c>
       <c r="E12">
-        <v>0.8590783426591553</v>
+        <v>0.8590783426591566</v>
       </c>
       <c r="F12">
-        <v>0.8584263380746362</v>
+        <v>0.8584263380746378</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.034403875934552</v>
       </c>
       <c r="J12">
-        <v>0.8668093141762763</v>
+        <v>0.8668093141762777</v>
       </c>
       <c r="K12">
         <v>1.025563666360331</v>
       </c>
       <c r="L12">
-        <v>0.8775150899887104</v>
+        <v>0.8775150899887117</v>
       </c>
       <c r="M12">
-        <v>0.8768818675654979</v>
+        <v>0.8768818675654994</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8287084262942762</v>
+        <v>0.8287084262942752</v>
       </c>
       <c r="D13">
         <v>1.01087603984391</v>
       </c>
       <c r="E13">
-        <v>0.8602223525563337</v>
+        <v>0.8602223525563329</v>
       </c>
       <c r="F13">
-        <v>0.859669554054058</v>
+        <v>0.8596695540540573</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.034571664167786</v>
       </c>
       <c r="J13">
-        <v>0.8679380308772874</v>
+        <v>0.8679380308772864</v>
       </c>
       <c r="K13">
         <v>1.025754452394908</v>
       </c>
       <c r="L13">
-        <v>0.8785709288326886</v>
+        <v>0.8785709288326879</v>
       </c>
       <c r="M13">
-        <v>0.8780339384305743</v>
+        <v>0.8780339384305736</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8330728041781187</v>
+        <v>0.8330728041781184</v>
       </c>
       <c r="D14">
         <v>1.011649572136928</v>
       </c>
       <c r="E14">
-        <v>0.8639048613154076</v>
+        <v>0.8639048613154073</v>
       </c>
       <c r="F14">
         <v>0.8636732721344462</v>
@@ -895,16 +895,16 @@
         <v>1.035113394786441</v>
       </c>
       <c r="J14">
-        <v>0.8715699638414439</v>
+        <v>0.8715699638414438</v>
       </c>
       <c r="K14">
         <v>1.026371773765975</v>
       </c>
       <c r="L14">
-        <v>0.8819688675404161</v>
+        <v>0.8819688675404158</v>
       </c>
       <c r="M14">
-        <v>0.8817437452774766</v>
+        <v>0.8817437452774765</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8357026567747186</v>
+        <v>0.835702656774718</v>
       </c>
       <c r="D15">
         <v>1.012120147430686</v>
       </c>
       <c r="E15">
-        <v>0.8661256861637872</v>
+        <v>0.8661256861637868</v>
       </c>
       <c r="F15">
-        <v>0.8660891502886645</v>
+        <v>0.8660891502886643</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.035441260755762</v>
       </c>
       <c r="J15">
-        <v>0.8737592950332665</v>
+        <v>0.873759295033266</v>
       </c>
       <c r="K15">
-        <v>1.026746380271052</v>
+        <v>1.026746380271051</v>
       </c>
       <c r="L15">
-        <v>0.8840175141508289</v>
+        <v>0.8840175141508285</v>
       </c>
       <c r="M15">
-        <v>0.8839819838125157</v>
+        <v>0.8839819838125152</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.850211062275534</v>
+        <v>0.8502110622755326</v>
       </c>
       <c r="D16">
         <v>1.01477553226005</v>
       </c>
       <c r="E16">
-        <v>0.8784015495729033</v>
+        <v>0.878401549572902</v>
       </c>
       <c r="F16">
-        <v>0.8794600095774683</v>
+        <v>0.8794600095774674</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.037267921250181</v>
       </c>
       <c r="J16">
-        <v>0.8858476224718018</v>
+        <v>0.8858476224718006</v>
       </c>
       <c r="K16">
         <v>1.028847128187126</v>
       </c>
       <c r="L16">
-        <v>0.8953337639491253</v>
+        <v>0.8953337639491241</v>
       </c>
       <c r="M16">
-        <v>0.896365399587115</v>
+        <v>0.8963653995871141</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8587025048376931</v>
+        <v>0.8587025048376914</v>
       </c>
       <c r="D17">
         <v>1.016375183184911</v>
       </c>
       <c r="E17">
-        <v>0.885604275123789</v>
+        <v>0.8856042751237874</v>
       </c>
       <c r="F17">
-        <v>0.8873171553780378</v>
+        <v>0.8873171553780362</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.038349569247219</v>
       </c>
       <c r="J17">
-        <v>0.892929698247135</v>
+        <v>0.8929296982471333</v>
       </c>
       <c r="K17">
         <v>1.030102061343783</v>
       </c>
       <c r="L17">
-        <v>0.9019669682701803</v>
+        <v>0.9019669682701786</v>
       </c>
       <c r="M17">
-        <v>0.9036385713164421</v>
+        <v>0.9036385713164405</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8634665146316807</v>
+        <v>0.8634665146316812</v>
       </c>
       <c r="D18">
         <v>1.017286960659866</v>
       </c>
       <c r="E18">
-        <v>0.8896507600135426</v>
+        <v>0.889650760013543</v>
       </c>
       <c r="F18">
-        <v>0.8917346975684505</v>
+        <v>0.8917346975684507</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.038959905971645</v>
       </c>
       <c r="J18">
-        <v>0.8969049423749728</v>
+        <v>0.8969049423749732</v>
       </c>
       <c r="K18">
-        <v>1.030813824276499</v>
+        <v>1.030813824276498</v>
       </c>
       <c r="L18">
-        <v>0.9056912910824735</v>
+        <v>0.9056912910824738</v>
       </c>
       <c r="M18">
-        <v>0.9077264446463036</v>
+        <v>0.9077264446463038</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8650612999722669</v>
+        <v>0.8650612999722647</v>
       </c>
       <c r="D19">
         <v>1.01759444640466</v>
       </c>
       <c r="E19">
-        <v>0.8910062050422166</v>
+        <v>0.8910062050422142</v>
       </c>
       <c r="F19">
-        <v>0.8932149413373106</v>
+        <v>0.8932149413373088</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.039164729578484</v>
       </c>
       <c r="J19">
-        <v>0.8982359650804199</v>
+        <v>0.8982359650804178</v>
       </c>
       <c r="K19">
         <v>1.031053280897348</v>
       </c>
       <c r="L19">
-        <v>0.906938457421463</v>
+        <v>0.9069384574214607</v>
       </c>
       <c r="M19">
-        <v>0.9090959939832374</v>
+        <v>0.9090959939832357</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8578115944681309</v>
+        <v>0.8578115944681307</v>
       </c>
       <c r="D20">
         <v>1.016205805852835</v>
       </c>
       <c r="E20">
-        <v>0.8848479795888538</v>
+        <v>0.8848479795888535</v>
       </c>
       <c r="F20">
-        <v>0.8864917697737468</v>
+        <v>0.8864917697737466</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.038235696796757</v>
       </c>
       <c r="J20">
-        <v>0.8921864411211322</v>
+        <v>0.8921864411211321</v>
       </c>
       <c r="K20">
         <v>1.02996955802817</v>
       </c>
       <c r="L20">
-        <v>0.9012707070071575</v>
+        <v>0.9012707070071571</v>
       </c>
       <c r="M20">
         <v>0.9028746719801277</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8318002178747074</v>
+        <v>0.8318002178747056</v>
       </c>
       <c r="D21">
         <v>1.011423063566472</v>
       </c>
       <c r="E21">
-        <v>0.8628306995899554</v>
+        <v>0.8628306995899538</v>
       </c>
       <c r="F21">
-        <v>0.8625051255724651</v>
+        <v>0.8625051255724638</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034955123441698</v>
+        <v>1.034955123441697</v>
       </c>
       <c r="J21">
-        <v>0.8705107669991539</v>
+        <v>0.8705107669991522</v>
       </c>
       <c r="K21">
-        <v>1.026191206731185</v>
+        <v>1.026191206731184</v>
       </c>
       <c r="L21">
-        <v>0.8809778321864691</v>
+        <v>0.8809778321864677</v>
       </c>
       <c r="M21">
-        <v>0.8806614131531453</v>
+        <v>0.8806614131531439</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8129369521323117</v>
+        <v>0.8129369521323125</v>
       </c>
       <c r="D22">
-        <v>1.008159172740262</v>
+        <v>1.008159172740261</v>
       </c>
       <c r="E22">
-        <v>0.8469482201534146</v>
+        <v>0.8469482201534155</v>
       </c>
       <c r="F22">
-        <v>0.8452624079371012</v>
+        <v>0.8452624079371019</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032640656704462</v>
+        <v>1.032640656704463</v>
       </c>
       <c r="J22">
-        <v>0.8548290732754886</v>
+        <v>0.8548290732754896</v>
       </c>
       <c r="K22">
         <v>1.02357070934496</v>
       </c>
       <c r="L22">
-        <v>0.8663132321832736</v>
+        <v>0.8663132321832747</v>
       </c>
       <c r="M22">
-        <v>0.8646798124520855</v>
+        <v>0.8646798124520864</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8232286998874245</v>
+        <v>0.8232286998874211</v>
       </c>
       <c r="D23">
-        <v>1.009918049862086</v>
+        <v>1.009918049862085</v>
       </c>
       <c r="E23">
-        <v>0.8556042978411773</v>
+        <v>0.8556042978411748</v>
       </c>
       <c r="F23">
-        <v>0.854652775680307</v>
+        <v>0.8546527756803043</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033895874532666</v>
+        <v>1.033895874532665</v>
       </c>
       <c r="J23">
-        <v>0.8633804913676327</v>
+        <v>0.86338049136763</v>
       </c>
       <c r="K23">
         <v>1.02498723483031</v>
       </c>
       <c r="L23">
-        <v>0.8743081271095761</v>
+        <v>0.8743081271095735</v>
       </c>
       <c r="M23">
-        <v>0.873384626838877</v>
+        <v>0.8733846268388744</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8582147350699599</v>
+        <v>0.8582147350699614</v>
       </c>
       <c r="D24">
         <v>1.016282405323199</v>
       </c>
       <c r="E24">
-        <v>0.8851901894029167</v>
+        <v>0.8851901894029179</v>
       </c>
       <c r="F24">
-        <v>0.8868652310981978</v>
+        <v>0.8868652310981991</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.038287213822194</v>
       </c>
       <c r="J24">
-        <v>0.8925227620701143</v>
+        <v>0.8925227620701158</v>
       </c>
       <c r="K24">
-        <v>1.030029492484525</v>
+        <v>1.030029492484526</v>
       </c>
       <c r="L24">
-        <v>0.9015857593112183</v>
+        <v>0.9015857593112196</v>
       </c>
       <c r="M24">
-        <v>0.9032203168843626</v>
+        <v>0.9032203168843637</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8914364526626061</v>
+        <v>0.8914364526626055</v>
       </c>
       <c r="D25">
-        <v>1.022837804891963</v>
+        <v>1.022837804891962</v>
       </c>
       <c r="E25">
-        <v>0.9134812934280825</v>
+        <v>0.9134812934280819</v>
       </c>
       <c r="F25">
-        <v>0.9177894200918532</v>
+        <v>0.9177894200918524</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.042580070116023</v>
       </c>
       <c r="J25">
-        <v>0.920264580556752</v>
+        <v>0.9202645805567515</v>
       </c>
       <c r="K25">
-        <v>1.035091643900032</v>
+        <v>1.035091643900031</v>
       </c>
       <c r="L25">
-        <v>0.9275896794936258</v>
+        <v>0.9275896794936254</v>
       </c>
       <c r="M25">
-        <v>0.9318137846693983</v>
+        <v>0.9318137846693975</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9141941713325142</v>
+        <v>0.9141941713325148</v>
       </c>
       <c r="D2">
         <v>1.027584159931058</v>
       </c>
       <c r="E2">
-        <v>0.9329528586281143</v>
+        <v>0.9329528586281148</v>
       </c>
       <c r="F2">
-        <v>0.9391079638267428</v>
+        <v>0.9391079638267434</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.045544569418811</v>
       </c>
       <c r="J2">
-        <v>0.9392836436464019</v>
+        <v>0.9392836436464025</v>
       </c>
       <c r="K2">
         <v>1.038672127470827</v>
       </c>
       <c r="L2">
-        <v>0.9454326528029303</v>
+        <v>0.9454326528029308</v>
       </c>
       <c r="M2">
-        <v>0.951486271712721</v>
+        <v>0.9514862717127216</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9291668098310796</v>
+        <v>0.9291668098310781</v>
       </c>
       <c r="D3">
         <v>1.030806041473917</v>
       </c>
       <c r="E3">
-        <v>0.9457975835640237</v>
+        <v>0.9457975835640225</v>
       </c>
       <c r="F3">
-        <v>0.9531727570333342</v>
+        <v>0.9531727570333329</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.047485099999936</v>
       </c>
       <c r="J3">
-        <v>0.9517941816303959</v>
+        <v>0.9517941816303946</v>
       </c>
       <c r="K3">
         <v>1.04105936102991</v>
       </c>
       <c r="L3">
-        <v>0.9571744192154003</v>
+        <v>0.9571744192153989</v>
       </c>
       <c r="M3">
-        <v>0.9644420655681509</v>
+        <v>0.96444206556815</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9382736674024669</v>
+        <v>0.9382736674024658</v>
       </c>
       <c r="D4">
-        <v>1.032799746753636</v>
+        <v>1.032799746753635</v>
       </c>
       <c r="E4">
-        <v>0.9536217519086707</v>
+        <v>0.9536217519086696</v>
       </c>
       <c r="F4">
-        <v>0.9617366188286611</v>
+        <v>0.9617366188286607</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.048655067786255</v>
       </c>
       <c r="J4">
-        <v>0.9593999328094754</v>
+        <v>0.9593999328094744</v>
       </c>
       <c r="K4">
         <v>1.042517790454785</v>
       </c>
       <c r="L4">
-        <v>0.9643141412037577</v>
+        <v>0.9643141412037567</v>
       </c>
       <c r="M4">
-        <v>0.9723198926225849</v>
+        <v>0.9723198926225841</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9419789204126567</v>
+        <v>0.9419789204126562</v>
       </c>
       <c r="D5">
-        <v>1.033617629344596</v>
+        <v>1.033617629344595</v>
       </c>
       <c r="E5">
-        <v>0.9568074143385897</v>
+        <v>0.9568074143385892</v>
       </c>
       <c r="F5">
-        <v>0.9652220943532173</v>
+        <v>0.965222094353217</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.049127879989012</v>
       </c>
       <c r="J5">
-        <v>0.9624932894939587</v>
+        <v>0.9624932894939581</v>
       </c>
       <c r="K5">
         <v>1.043111701614087</v>
       </c>
       <c r="L5">
-        <v>0.9672181749823447</v>
+        <v>0.9672181749823443</v>
       </c>
       <c r="M5">
-        <v>0.9755235392926918</v>
+        <v>0.9755235392926914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.942594226757332</v>
+        <v>0.9425942267573324</v>
       </c>
       <c r="D6">
         <v>1.033753806405533</v>
       </c>
       <c r="E6">
-        <v>0.9573365580137788</v>
+        <v>0.9573365580137787</v>
       </c>
       <c r="F6">
-        <v>0.9658009438335912</v>
+        <v>0.9658009438335908</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.049206188497017</v>
       </c>
       <c r="J6">
-        <v>0.9630069070798707</v>
+        <v>0.9630069070798706</v>
       </c>
       <c r="K6">
         <v>1.043210332531128</v>
@@ -600,7 +600,7 @@
         <v>0.9677003676715283</v>
       </c>
       <c r="M6">
-        <v>0.9760554293449482</v>
+        <v>0.9760554293449478</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9383236427621341</v>
+        <v>0.9383236427621346</v>
       </c>
       <c r="D7">
         <v>1.032810753161699</v>
       </c>
       <c r="E7">
-        <v>0.9536647106531513</v>
+        <v>0.9536647106531517</v>
       </c>
       <c r="F7">
-        <v>0.9617836265991851</v>
+        <v>0.9617836265991854</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.048661458599287</v>
       </c>
       <c r="J7">
-        <v>0.9594416600212458</v>
+        <v>0.9594416600212462</v>
       </c>
       <c r="K7">
-        <v>1.042525800097861</v>
+        <v>1.04252580009786</v>
       </c>
       <c r="L7">
-        <v>0.9643533138437037</v>
+        <v>0.9643533138437043</v>
       </c>
       <c r="M7">
-        <v>0.9723631098798817</v>
+        <v>0.9723631098798816</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,10 +655,10 @@
         <v>1.028692877796777</v>
       </c>
       <c r="E8">
-        <v>0.937403378491276</v>
+        <v>0.9374033784912762</v>
       </c>
       <c r="F8">
-        <v>0.9439816163150526</v>
+        <v>0.9439816163150528</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1.046219099354676</v>
       </c>
       <c r="J8">
-        <v>0.9436217028309093</v>
+        <v>0.9436217028309095</v>
       </c>
       <c r="K8">
         <v>1.039497721269898</v>
@@ -676,7 +676,7 @@
         <v>0.9495037755025986</v>
       </c>
       <c r="M8">
-        <v>0.9559779462135974</v>
+        <v>0.9559779462135978</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,7 +687,7 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8806154760438917</v>
+        <v>0.8806154760438915</v>
       </c>
       <c r="D9">
         <v>1.020651361903069</v>
@@ -696,7 +696,7 @@
         <v>0.9042475937177992</v>
       </c>
       <c r="F9">
-        <v>0.9076871942570715</v>
+        <v>0.9076871942570713</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.041173641156433</v>
       </c>
       <c r="J9">
-        <v>0.9112238806878957</v>
+        <v>0.9112238806878954</v>
       </c>
       <c r="K9">
-        <v>1.0334180407232</v>
+        <v>1.033418040723199</v>
       </c>
       <c r="L9">
         <v>0.9191120263197526</v>
       </c>
       <c r="M9">
-        <v>0.922479439137584</v>
+        <v>0.9224794391375838</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.8492238502355529</v>
       </c>
       <c r="D10">
-        <v>1.014591710066326</v>
+        <v>1.014591710066327</v>
       </c>
       <c r="E10">
-        <v>0.8775650003557147</v>
+        <v>0.8775650003557149</v>
       </c>
       <c r="F10">
-        <v>0.8785479927832022</v>
+        <v>0.8785479927832018</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -749,10 +749,10 @@
         <v>1.028702411532228</v>
       </c>
       <c r="L10">
-        <v>0.8945630432131153</v>
+        <v>0.8945630432131155</v>
       </c>
       <c r="M10">
-        <v>0.8955209801581451</v>
+        <v>0.8955209801581449</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8335781936334787</v>
+        <v>0.8335781936334803</v>
       </c>
       <c r="D11">
-        <v>1.011739744800682</v>
+        <v>1.011739744800681</v>
       </c>
       <c r="E11">
-        <v>0.8643315393802649</v>
+        <v>0.8643315393802662</v>
       </c>
       <c r="F11">
-        <v>0.8641373480662675</v>
+        <v>0.8641373480662682</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035176319821453</v>
+        <v>1.035176319821452</v>
       </c>
       <c r="J11">
-        <v>0.8719906490815431</v>
+        <v>0.8719906490815443</v>
       </c>
       <c r="K11">
-        <v>1.026443611448075</v>
+        <v>1.026443611448074</v>
       </c>
       <c r="L11">
-        <v>0.882362498720457</v>
+        <v>0.8823624987204584</v>
       </c>
       <c r="M11">
-        <v>0.8821737149800832</v>
+        <v>0.882173714980084</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8273516480342327</v>
+        <v>0.8273516480342314</v>
       </c>
       <c r="D12">
         <v>1.010637464648142</v>
       </c>
       <c r="E12">
-        <v>0.8590783426591566</v>
+        <v>0.8590783426591553</v>
       </c>
       <c r="F12">
-        <v>0.8584263380746378</v>
+        <v>0.8584263380746362</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.034403875934552</v>
       </c>
       <c r="J12">
-        <v>0.8668093141762777</v>
+        <v>0.8668093141762763</v>
       </c>
       <c r="K12">
         <v>1.025563666360331</v>
       </c>
       <c r="L12">
-        <v>0.8775150899887117</v>
+        <v>0.8775150899887104</v>
       </c>
       <c r="M12">
-        <v>0.8768818675654994</v>
+        <v>0.8768818675654979</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8287084262942752</v>
+        <v>0.8287084262942762</v>
       </c>
       <c r="D13">
         <v>1.01087603984391</v>
       </c>
       <c r="E13">
-        <v>0.8602223525563329</v>
+        <v>0.8602223525563337</v>
       </c>
       <c r="F13">
-        <v>0.8596695540540573</v>
+        <v>0.859669554054058</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.034571664167786</v>
       </c>
       <c r="J13">
-        <v>0.8679380308772864</v>
+        <v>0.8679380308772874</v>
       </c>
       <c r="K13">
         <v>1.025754452394908</v>
       </c>
       <c r="L13">
-        <v>0.8785709288326879</v>
+        <v>0.8785709288326886</v>
       </c>
       <c r="M13">
-        <v>0.8780339384305736</v>
+        <v>0.8780339384305743</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8330728041781184</v>
+        <v>0.8330728041781187</v>
       </c>
       <c r="D14">
         <v>1.011649572136928</v>
       </c>
       <c r="E14">
-        <v>0.8639048613154073</v>
+        <v>0.8639048613154076</v>
       </c>
       <c r="F14">
         <v>0.8636732721344462</v>
@@ -895,16 +895,16 @@
         <v>1.035113394786441</v>
       </c>
       <c r="J14">
-        <v>0.8715699638414438</v>
+        <v>0.8715699638414439</v>
       </c>
       <c r="K14">
         <v>1.026371773765975</v>
       </c>
       <c r="L14">
-        <v>0.8819688675404158</v>
+        <v>0.8819688675404161</v>
       </c>
       <c r="M14">
-        <v>0.8817437452774765</v>
+        <v>0.8817437452774766</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.835702656774718</v>
+        <v>0.8357026567747186</v>
       </c>
       <c r="D15">
         <v>1.012120147430686</v>
       </c>
       <c r="E15">
-        <v>0.8661256861637868</v>
+        <v>0.8661256861637872</v>
       </c>
       <c r="F15">
-        <v>0.8660891502886643</v>
+        <v>0.8660891502886645</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.035441260755762</v>
       </c>
       <c r="J15">
-        <v>0.873759295033266</v>
+        <v>0.8737592950332665</v>
       </c>
       <c r="K15">
-        <v>1.026746380271051</v>
+        <v>1.026746380271052</v>
       </c>
       <c r="L15">
-        <v>0.8840175141508285</v>
+        <v>0.8840175141508289</v>
       </c>
       <c r="M15">
-        <v>0.8839819838125152</v>
+        <v>0.8839819838125157</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8502110622755326</v>
+        <v>0.850211062275534</v>
       </c>
       <c r="D16">
         <v>1.01477553226005</v>
       </c>
       <c r="E16">
-        <v>0.878401549572902</v>
+        <v>0.8784015495729033</v>
       </c>
       <c r="F16">
-        <v>0.8794600095774674</v>
+        <v>0.8794600095774683</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.037267921250181</v>
       </c>
       <c r="J16">
-        <v>0.8858476224718006</v>
+        <v>0.8858476224718018</v>
       </c>
       <c r="K16">
         <v>1.028847128187126</v>
       </c>
       <c r="L16">
-        <v>0.8953337639491241</v>
+        <v>0.8953337639491253</v>
       </c>
       <c r="M16">
-        <v>0.8963653995871141</v>
+        <v>0.896365399587115</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8587025048376914</v>
+        <v>0.8587025048376931</v>
       </c>
       <c r="D17">
         <v>1.016375183184911</v>
       </c>
       <c r="E17">
-        <v>0.8856042751237874</v>
+        <v>0.885604275123789</v>
       </c>
       <c r="F17">
-        <v>0.8873171553780362</v>
+        <v>0.8873171553780378</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.038349569247219</v>
       </c>
       <c r="J17">
-        <v>0.8929296982471333</v>
+        <v>0.892929698247135</v>
       </c>
       <c r="K17">
         <v>1.030102061343783</v>
       </c>
       <c r="L17">
-        <v>0.9019669682701786</v>
+        <v>0.9019669682701803</v>
       </c>
       <c r="M17">
-        <v>0.9036385713164405</v>
+        <v>0.9036385713164421</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8634665146316812</v>
+        <v>0.8634665146316807</v>
       </c>
       <c r="D18">
         <v>1.017286960659866</v>
       </c>
       <c r="E18">
-        <v>0.889650760013543</v>
+        <v>0.8896507600135426</v>
       </c>
       <c r="F18">
-        <v>0.8917346975684507</v>
+        <v>0.8917346975684505</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.038959905971645</v>
       </c>
       <c r="J18">
-        <v>0.8969049423749732</v>
+        <v>0.8969049423749728</v>
       </c>
       <c r="K18">
-        <v>1.030813824276498</v>
+        <v>1.030813824276499</v>
       </c>
       <c r="L18">
-        <v>0.9056912910824738</v>
+        <v>0.9056912910824735</v>
       </c>
       <c r="M18">
-        <v>0.9077264446463038</v>
+        <v>0.9077264446463036</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8650612999722647</v>
+        <v>0.8650612999722669</v>
       </c>
       <c r="D19">
         <v>1.01759444640466</v>
       </c>
       <c r="E19">
-        <v>0.8910062050422142</v>
+        <v>0.8910062050422166</v>
       </c>
       <c r="F19">
-        <v>0.8932149413373088</v>
+        <v>0.8932149413373106</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.039164729578484</v>
       </c>
       <c r="J19">
-        <v>0.8982359650804178</v>
+        <v>0.8982359650804199</v>
       </c>
       <c r="K19">
         <v>1.031053280897348</v>
       </c>
       <c r="L19">
-        <v>0.9069384574214607</v>
+        <v>0.906938457421463</v>
       </c>
       <c r="M19">
-        <v>0.9090959939832357</v>
+        <v>0.9090959939832374</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8578115944681307</v>
+        <v>0.8578115944681309</v>
       </c>
       <c r="D20">
         <v>1.016205805852835</v>
       </c>
       <c r="E20">
-        <v>0.8848479795888535</v>
+        <v>0.8848479795888538</v>
       </c>
       <c r="F20">
-        <v>0.8864917697737466</v>
+        <v>0.8864917697737468</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,13 +1123,13 @@
         <v>1.038235696796757</v>
       </c>
       <c r="J20">
-        <v>0.8921864411211321</v>
+        <v>0.8921864411211322</v>
       </c>
       <c r="K20">
         <v>1.02996955802817</v>
       </c>
       <c r="L20">
-        <v>0.9012707070071571</v>
+        <v>0.9012707070071575</v>
       </c>
       <c r="M20">
         <v>0.9028746719801277</v>
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8318002178747056</v>
+        <v>0.8318002178747074</v>
       </c>
       <c r="D21">
         <v>1.011423063566472</v>
       </c>
       <c r="E21">
-        <v>0.8628306995899538</v>
+        <v>0.8628306995899554</v>
       </c>
       <c r="F21">
-        <v>0.8625051255724638</v>
+        <v>0.8625051255724651</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034955123441697</v>
+        <v>1.034955123441698</v>
       </c>
       <c r="J21">
-        <v>0.8705107669991522</v>
+        <v>0.8705107669991539</v>
       </c>
       <c r="K21">
-        <v>1.026191206731184</v>
+        <v>1.026191206731185</v>
       </c>
       <c r="L21">
-        <v>0.8809778321864677</v>
+        <v>0.8809778321864691</v>
       </c>
       <c r="M21">
-        <v>0.8806614131531439</v>
+        <v>0.8806614131531453</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8129369521323125</v>
+        <v>0.8129369521323117</v>
       </c>
       <c r="D22">
-        <v>1.008159172740261</v>
+        <v>1.008159172740262</v>
       </c>
       <c r="E22">
-        <v>0.8469482201534155</v>
+        <v>0.8469482201534146</v>
       </c>
       <c r="F22">
-        <v>0.8452624079371019</v>
+        <v>0.8452624079371012</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032640656704463</v>
+        <v>1.032640656704462</v>
       </c>
       <c r="J22">
-        <v>0.8548290732754896</v>
+        <v>0.8548290732754886</v>
       </c>
       <c r="K22">
         <v>1.02357070934496</v>
       </c>
       <c r="L22">
-        <v>0.8663132321832747</v>
+        <v>0.8663132321832736</v>
       </c>
       <c r="M22">
-        <v>0.8646798124520864</v>
+        <v>0.8646798124520855</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8232286998874211</v>
+        <v>0.8232286998874245</v>
       </c>
       <c r="D23">
-        <v>1.009918049862085</v>
+        <v>1.009918049862086</v>
       </c>
       <c r="E23">
-        <v>0.8556042978411748</v>
+        <v>0.8556042978411773</v>
       </c>
       <c r="F23">
-        <v>0.8546527756803043</v>
+        <v>0.854652775680307</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033895874532665</v>
+        <v>1.033895874532666</v>
       </c>
       <c r="J23">
-        <v>0.86338049136763</v>
+        <v>0.8633804913676327</v>
       </c>
       <c r="K23">
         <v>1.02498723483031</v>
       </c>
       <c r="L23">
-        <v>0.8743081271095735</v>
+        <v>0.8743081271095761</v>
       </c>
       <c r="M23">
-        <v>0.8733846268388744</v>
+        <v>0.873384626838877</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8582147350699614</v>
+        <v>0.8582147350699599</v>
       </c>
       <c r="D24">
         <v>1.016282405323199</v>
       </c>
       <c r="E24">
-        <v>0.8851901894029179</v>
+        <v>0.8851901894029167</v>
       </c>
       <c r="F24">
-        <v>0.8868652310981991</v>
+        <v>0.8868652310981978</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.038287213822194</v>
       </c>
       <c r="J24">
-        <v>0.8925227620701158</v>
+        <v>0.8925227620701143</v>
       </c>
       <c r="K24">
-        <v>1.030029492484526</v>
+        <v>1.030029492484525</v>
       </c>
       <c r="L24">
-        <v>0.9015857593112196</v>
+        <v>0.9015857593112183</v>
       </c>
       <c r="M24">
-        <v>0.9032203168843637</v>
+        <v>0.9032203168843626</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8914364526626055</v>
+        <v>0.8914364526626061</v>
       </c>
       <c r="D25">
-        <v>1.022837804891962</v>
+        <v>1.022837804891963</v>
       </c>
       <c r="E25">
-        <v>0.9134812934280819</v>
+        <v>0.9134812934280825</v>
       </c>
       <c r="F25">
-        <v>0.9177894200918524</v>
+        <v>0.9177894200918532</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.042580070116023</v>
       </c>
       <c r="J25">
-        <v>0.9202645805567515</v>
+        <v>0.920264580556752</v>
       </c>
       <c r="K25">
-        <v>1.035091643900031</v>
+        <v>1.035091643900032</v>
       </c>
       <c r="L25">
-        <v>0.9275896794936254</v>
+        <v>0.9275896794936258</v>
       </c>
       <c r="M25">
-        <v>0.9318137846693975</v>
+        <v>0.9318137846693983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9141941713325148</v>
+        <v>0.9143366852884149</v>
       </c>
       <c r="D2">
-        <v>1.027584159931058</v>
+        <v>1.027593552758338</v>
       </c>
       <c r="E2">
-        <v>0.9329528586281148</v>
+        <v>0.9330781067524535</v>
       </c>
       <c r="F2">
-        <v>0.9391079638267434</v>
+        <v>0.9392252522896264</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045544569418811</v>
+        <v>1.045556144309967</v>
       </c>
       <c r="J2">
-        <v>0.9392836436464025</v>
+        <v>0.9394206854477143</v>
       </c>
       <c r="K2">
-        <v>1.038672127470827</v>
+        <v>1.038681398094917</v>
       </c>
       <c r="L2">
-        <v>0.9454326528029308</v>
+        <v>0.9455558186317984</v>
       </c>
       <c r="M2">
-        <v>0.9514862717127216</v>
+        <v>0.951601642905784</v>
+      </c>
+      <c r="N2">
+        <v>0.9590965830313012</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9291668098310781</v>
+        <v>0.9292840974300267</v>
       </c>
       <c r="D3">
-        <v>1.030806041473917</v>
+        <v>1.030813707727125</v>
       </c>
       <c r="E3">
-        <v>0.9457975835640225</v>
+        <v>0.9459009238207511</v>
       </c>
       <c r="F3">
-        <v>0.9531727570333329</v>
+        <v>0.9532692553251148</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047485099999936</v>
+        <v>1.047494637624389</v>
       </c>
       <c r="J3">
-        <v>0.9517941816303946</v>
+        <v>0.9519075557727086</v>
       </c>
       <c r="K3">
-        <v>1.04105936102991</v>
+        <v>1.041066936327243</v>
       </c>
       <c r="L3">
-        <v>0.9571744192153989</v>
+        <v>0.9572762381034389</v>
       </c>
       <c r="M3">
-        <v>0.96444206556815</v>
+        <v>0.9645371709260894</v>
+      </c>
+      <c r="N3">
+        <v>0.9679005466898909</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9382736674024658</v>
+        <v>0.9383764700073597</v>
       </c>
       <c r="D4">
-        <v>1.032799746753635</v>
+        <v>1.032806434650204</v>
       </c>
       <c r="E4">
-        <v>0.9536217519086696</v>
+        <v>0.953712473909754</v>
       </c>
       <c r="F4">
-        <v>0.9617366188286607</v>
+        <v>0.9618212090009012</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048655067786255</v>
+        <v>1.048663440116657</v>
       </c>
       <c r="J4">
-        <v>0.9593999328094744</v>
+        <v>0.9594996065372901</v>
       </c>
       <c r="K4">
-        <v>1.042517790454785</v>
+        <v>1.042524403823988</v>
       </c>
       <c r="L4">
-        <v>0.9643141412037567</v>
+        <v>0.9644036304092606</v>
       </c>
       <c r="M4">
-        <v>0.9723198926225841</v>
+        <v>0.9724033575370604</v>
+      </c>
+      <c r="N4">
+        <v>0.9732471768154801</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9419789204126562</v>
+        <v>0.9420759974942441</v>
       </c>
       <c r="D5">
-        <v>1.033617629344595</v>
+        <v>1.033623933346581</v>
       </c>
       <c r="E5">
-        <v>0.9568074143385892</v>
+        <v>0.9568931413996592</v>
       </c>
       <c r="F5">
-        <v>0.965222094353217</v>
+        <v>0.9653019848317768</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049127879989012</v>
+        <v>1.049135792830846</v>
       </c>
       <c r="J5">
-        <v>0.9624932894939581</v>
+        <v>0.9625875250642184</v>
       </c>
       <c r="K5">
-        <v>1.043111701614087</v>
+        <v>1.043117937247662</v>
       </c>
       <c r="L5">
-        <v>0.9672181749823443</v>
+        <v>0.9673027762076616</v>
       </c>
       <c r="M5">
-        <v>0.9755235392926914</v>
+        <v>0.9756024033288809</v>
+      </c>
+      <c r="N5">
+        <v>0.9754202582329874</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9425942267573324</v>
+        <v>0.9426903619985668</v>
       </c>
       <c r="D6">
-        <v>1.033753806405533</v>
+        <v>1.033760047415204</v>
       </c>
       <c r="E6">
-        <v>0.9573365580137787</v>
+        <v>0.9574214630345587</v>
       </c>
       <c r="F6">
-        <v>0.9658009438335908</v>
+        <v>0.9658800616495518</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049206188497017</v>
+        <v>1.049214025820207</v>
       </c>
       <c r="J6">
-        <v>0.9630069070798706</v>
+        <v>0.9631002468337645</v>
       </c>
       <c r="K6">
-        <v>1.043210332531128</v>
+        <v>1.043216506166565</v>
       </c>
       <c r="L6">
-        <v>0.9677003676715283</v>
+        <v>0.9677841640565186</v>
       </c>
       <c r="M6">
-        <v>0.9760554293449478</v>
+        <v>0.9761335365875832</v>
+      </c>
+      <c r="N6">
+        <v>0.975780985957045</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9383236427621346</v>
+        <v>0.9384263675178461</v>
       </c>
       <c r="D7">
-        <v>1.032810753161699</v>
+        <v>1.032817435827552</v>
       </c>
       <c r="E7">
-        <v>0.9536647106531517</v>
+        <v>0.9537553647656544</v>
       </c>
       <c r="F7">
-        <v>0.9617836265991854</v>
+        <v>0.9618681528410019</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048661458599287</v>
+        <v>1.048669824677552</v>
       </c>
       <c r="J7">
-        <v>0.9594416600212462</v>
+        <v>0.9595412598942238</v>
       </c>
       <c r="K7">
-        <v>1.04252580009786</v>
+        <v>1.042532408321401</v>
       </c>
       <c r="L7">
-        <v>0.9643533138437043</v>
+        <v>0.9644427366423852</v>
       </c>
       <c r="M7">
-        <v>0.9723631098798816</v>
+        <v>0.9724465122343933</v>
+      </c>
+      <c r="N7">
+        <v>0.9732764960860536</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9193852908142753</v>
+        <v>0.9195188457927705</v>
       </c>
       <c r="D8">
-        <v>1.028692877796777</v>
+        <v>1.028701654316031</v>
       </c>
       <c r="E8">
-        <v>0.9374033784912762</v>
+        <v>0.9375208563555391</v>
       </c>
       <c r="F8">
-        <v>0.9439816163150528</v>
+        <v>0.9440915148115198</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046219099354676</v>
+        <v>1.046229949754786</v>
       </c>
       <c r="J8">
-        <v>0.9436217028309095</v>
+        <v>0.9437503666980408</v>
       </c>
       <c r="K8">
-        <v>1.039497721269898</v>
+        <v>1.039506387041796</v>
       </c>
       <c r="L8">
-        <v>0.9495037755025986</v>
+        <v>0.9496193784623745</v>
       </c>
       <c r="M8">
-        <v>0.9559779462135978</v>
+        <v>0.9560861218809171</v>
+      </c>
+      <c r="N8">
+        <v>0.9621505486607336</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8806154760438915</v>
+        <v>0.8808225276081039</v>
       </c>
       <c r="D9">
-        <v>1.020651361903069</v>
+        <v>1.020665278691852</v>
       </c>
       <c r="E9">
-        <v>0.9042475937177992</v>
+        <v>0.9044284654949425</v>
       </c>
       <c r="F9">
-        <v>0.9076871942570713</v>
+        <v>0.9078578486582194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041173641156433</v>
+        <v>1.041190452762209</v>
       </c>
       <c r="J9">
-        <v>0.9112238806878954</v>
+        <v>0.9114204332375715</v>
       </c>
       <c r="K9">
-        <v>1.033418040723199</v>
+        <v>1.033431743240128</v>
       </c>
       <c r="L9">
-        <v>0.9191120263197526</v>
+        <v>0.9192890839982664</v>
       </c>
       <c r="M9">
-        <v>0.9224794391375838</v>
+        <v>0.9226465307989231</v>
+      </c>
+      <c r="N9">
+        <v>0.9393218125396723</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8492238502355529</v>
+        <v>0.8495050282700386</v>
       </c>
       <c r="D10">
-        <v>1.014591710066327</v>
+        <v>1.014610948975406</v>
       </c>
       <c r="E10">
-        <v>0.8775650003557149</v>
+        <v>0.8778089865743002</v>
       </c>
       <c r="F10">
-        <v>0.8785479927832018</v>
+        <v>0.8787800215423236</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037142730928935</v>
+        <v>1.037165559584394</v>
       </c>
       <c r="J10">
-        <v>0.8850245763726833</v>
+        <v>0.8852878624578984</v>
       </c>
       <c r="K10">
-        <v>1.028702411532228</v>
+        <v>1.028721315898579</v>
       </c>
       <c r="L10">
-        <v>0.8945630432131155</v>
+        <v>0.894800803392093</v>
       </c>
       <c r="M10">
-        <v>0.8955209801581449</v>
+        <v>0.8957471057890558</v>
+      </c>
+      <c r="N10">
+        <v>0.9208439819033493</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8335781936334803</v>
+        <v>0.833903334452044</v>
       </c>
       <c r="D11">
-        <v>1.011739744800681</v>
+        <v>1.011762175366253</v>
       </c>
       <c r="E11">
-        <v>0.8643315393802662</v>
+        <v>0.8646125836592918</v>
       </c>
       <c r="F11">
-        <v>0.8641373480662682</v>
+        <v>0.8644057324536586</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035176319821452</v>
+        <v>1.035202703578501</v>
       </c>
       <c r="J11">
-        <v>0.8719906490815443</v>
+        <v>0.8722928215805943</v>
       </c>
       <c r="K11">
-        <v>1.026443611448074</v>
+        <v>1.026465631702646</v>
       </c>
       <c r="L11">
-        <v>0.8823624987204584</v>
+        <v>0.8826357227338705</v>
       </c>
       <c r="M11">
-        <v>0.882173714980084</v>
+        <v>0.8824346266422763</v>
+      </c>
+      <c r="N11">
+        <v>0.9116534718354646</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8273516480342314</v>
+        <v>0.8276959424940106</v>
       </c>
       <c r="D12">
-        <v>1.010637464648142</v>
+        <v>1.010661290328762</v>
       </c>
       <c r="E12">
-        <v>0.8590783426591553</v>
+        <v>0.859375450941435</v>
       </c>
       <c r="F12">
-        <v>0.8584263380746362</v>
+        <v>0.8587105427044899</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034403875934552</v>
+        <v>1.034431803999936</v>
       </c>
       <c r="J12">
-        <v>0.8668093141762763</v>
+        <v>0.8671282880713842</v>
       </c>
       <c r="K12">
-        <v>1.025563666360331</v>
+        <v>1.025587048043409</v>
       </c>
       <c r="L12">
-        <v>0.8775150899887104</v>
+        <v>0.8778036524797574</v>
       </c>
       <c r="M12">
-        <v>0.8768818675654979</v>
+        <v>0.877157880367508</v>
+      </c>
+      <c r="N12">
+        <v>0.9080012437062278</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8287084262942762</v>
+        <v>0.8290484582553429</v>
       </c>
       <c r="D13">
-        <v>1.01087603984391</v>
+        <v>1.010899554875371</v>
       </c>
       <c r="E13">
-        <v>0.8602223525563337</v>
+        <v>0.8605158900431923</v>
       </c>
       <c r="F13">
-        <v>0.859669554054058</v>
+        <v>0.8599502391470155</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034571664167786</v>
+        <v>1.034599248819068</v>
       </c>
       <c r="J13">
-        <v>0.8679380308772874</v>
+        <v>0.8682532727007211</v>
       </c>
       <c r="K13">
-        <v>1.025754452394908</v>
+        <v>1.025777530954753</v>
       </c>
       <c r="L13">
-        <v>0.8785709288326886</v>
+        <v>0.8788560834740915</v>
       </c>
       <c r="M13">
-        <v>0.8780339384305743</v>
+        <v>0.8783065934368085</v>
+      </c>
+      <c r="N13">
+        <v>0.9087967784011484</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8330728041781187</v>
+        <v>0.8333994615942233</v>
       </c>
       <c r="D14">
-        <v>1.011649572136928</v>
+        <v>1.011672113088526</v>
       </c>
       <c r="E14">
-        <v>0.8639048613154076</v>
+        <v>0.8641871793062363</v>
       </c>
       <c r="F14">
-        <v>0.8636732721344462</v>
+        <v>0.8639429096475297</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035113394786441</v>
+        <v>1.03513990093083</v>
       </c>
       <c r="J14">
-        <v>0.8715699638414439</v>
+        <v>0.8718734696554893</v>
       </c>
       <c r="K14">
-        <v>1.026371773765975</v>
+        <v>1.02639390175212</v>
       </c>
       <c r="L14">
-        <v>0.8819688675404161</v>
+        <v>0.8822433084567735</v>
       </c>
       <c r="M14">
-        <v>0.8817437452774766</v>
+        <v>0.8820058538600413</v>
+      </c>
+      <c r="N14">
+        <v>0.91135690635463</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8357026567747186</v>
+        <v>0.8360214928768722</v>
       </c>
       <c r="D15">
-        <v>1.012120147430686</v>
+        <v>1.012142119273473</v>
       </c>
       <c r="E15">
-        <v>0.8661256861637872</v>
+        <v>0.8664014321546948</v>
       </c>
       <c r="F15">
-        <v>0.8660891502886645</v>
+        <v>0.8663523244281079</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035441260755762</v>
+        <v>1.035467135537782</v>
       </c>
       <c r="J15">
-        <v>0.8737592950332665</v>
+        <v>0.8740559191315158</v>
       </c>
       <c r="K15">
-        <v>1.026746380271052</v>
+        <v>1.026767952812055</v>
       </c>
       <c r="L15">
-        <v>0.8840175141508289</v>
+        <v>0.8842856748156018</v>
       </c>
       <c r="M15">
-        <v>0.8839819838125157</v>
+        <v>0.8842379174814532</v>
+      </c>
+      <c r="N15">
+        <v>0.9129003495624228</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.850211062275534</v>
+        <v>0.8504896450695294</v>
       </c>
       <c r="D16">
-        <v>1.01477553226005</v>
+        <v>1.01479458336652</v>
       </c>
       <c r="E16">
-        <v>0.8784015495729033</v>
+        <v>0.8786433397225569</v>
       </c>
       <c r="F16">
-        <v>0.8794600095774683</v>
+        <v>0.8796898905979582</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037267921250181</v>
+        <v>1.037290539634571</v>
       </c>
       <c r="J16">
-        <v>0.8858476224718018</v>
+        <v>0.886108597991797</v>
       </c>
       <c r="K16">
-        <v>1.028847128187126</v>
+        <v>1.028865849141209</v>
       </c>
       <c r="L16">
-        <v>0.8953337639491253</v>
+        <v>0.8955694187587476</v>
       </c>
       <c r="M16">
-        <v>0.896365399587115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8965894662956539</v>
+      </c>
+      <c r="N16">
+        <v>0.9214244349129453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8587025048376931</v>
+        <v>0.8589595426587194</v>
       </c>
       <c r="D17">
-        <v>1.016375183184911</v>
+        <v>1.01639267861925</v>
       </c>
       <c r="E17">
-        <v>0.885604275123789</v>
+        <v>0.8858277966122324</v>
       </c>
       <c r="F17">
-        <v>0.8873171553780378</v>
+        <v>0.8875292016417184</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038349569247219</v>
+        <v>1.038370440594947</v>
       </c>
       <c r="J17">
-        <v>0.892929698247135</v>
+        <v>0.8931714231120047</v>
       </c>
       <c r="K17">
-        <v>1.030102061343783</v>
+        <v>1.03011926264037</v>
       </c>
       <c r="L17">
-        <v>0.9019669682701803</v>
+        <v>0.9021850911406042</v>
       </c>
       <c r="M17">
-        <v>0.9036385713164421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9038455225439304</v>
+      </c>
+      <c r="N17">
+        <v>0.9264193411768449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8634665146316807</v>
+        <v>0.8637120370819434</v>
       </c>
       <c r="D18">
-        <v>1.017286960659866</v>
+        <v>1.017303627462079</v>
       </c>
       <c r="E18">
-        <v>0.8896507600135426</v>
+        <v>0.8898644894067261</v>
       </c>
       <c r="F18">
-        <v>0.8917346975684505</v>
+        <v>0.8919372088755601</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038959905971645</v>
+        <v>1.038979842672031</v>
       </c>
       <c r="J18">
-        <v>0.8969049423749728</v>
+        <v>0.8971363258857153</v>
       </c>
       <c r="K18">
-        <v>1.030813824276499</v>
+        <v>1.030830215839041</v>
       </c>
       <c r="L18">
-        <v>0.9056912910824735</v>
+        <v>0.9059000030876182</v>
       </c>
       <c r="M18">
-        <v>0.9077264446463036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9079242315244264</v>
+      </c>
+      <c r="N18">
+        <v>0.9292231440674433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8650612999722669</v>
+        <v>0.8653030534972339</v>
       </c>
       <c r="D19">
-        <v>1.01759444640466</v>
+        <v>1.017610842487547</v>
       </c>
       <c r="E19">
-        <v>0.8910062050422166</v>
+        <v>0.8912167252594061</v>
       </c>
       <c r="F19">
-        <v>0.8932149413373106</v>
+        <v>0.8934143316577365</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039164729578484</v>
+        <v>1.039184360265194</v>
       </c>
       <c r="J19">
-        <v>0.8982359650804199</v>
+        <v>0.8984639557297909</v>
       </c>
       <c r="K19">
-        <v>1.031053280897348</v>
+        <v>1.031069407866971</v>
       </c>
       <c r="L19">
-        <v>0.906938457421463</v>
+        <v>0.9071440830239804</v>
       </c>
       <c r="M19">
-        <v>0.9090959939832374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9092907789804483</v>
+      </c>
+      <c r="N19">
+        <v>0.9301619352676856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8578115944681309</v>
+        <v>0.8580708298452847</v>
       </c>
       <c r="D20">
-        <v>1.016205805852835</v>
+        <v>1.016223459661198</v>
       </c>
       <c r="E20">
-        <v>0.8848479795888538</v>
+        <v>0.885073367548325</v>
       </c>
       <c r="F20">
-        <v>0.8864917697737468</v>
+        <v>0.8867056354909558</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038235696796757</v>
+        <v>1.038256746446061</v>
       </c>
       <c r="J20">
-        <v>0.8921864411211322</v>
+        <v>0.8924301352841832</v>
       </c>
       <c r="K20">
-        <v>1.02996955802817</v>
+        <v>1.029986914063016</v>
       </c>
       <c r="L20">
-        <v>0.9012707070071575</v>
+        <v>0.9014906225754612</v>
       </c>
       <c r="M20">
-        <v>0.9028746719801277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9030833708138427</v>
+      </c>
+      <c r="N20">
+        <v>0.9258951142886659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8318002178747074</v>
+        <v>0.8321307232338935</v>
       </c>
       <c r="D21">
-        <v>1.011423063566472</v>
+        <v>1.011445884658119</v>
       </c>
       <c r="E21">
-        <v>0.8628306995899554</v>
+        <v>0.863116247904267</v>
       </c>
       <c r="F21">
-        <v>0.8625051255724651</v>
+        <v>0.8627779421897236</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034955123441698</v>
+        <v>1.034981940027762</v>
       </c>
       <c r="J21">
-        <v>0.8705107669991539</v>
+        <v>0.8708176534042305</v>
       </c>
       <c r="K21">
-        <v>1.026191206731185</v>
+        <v>1.026213608112072</v>
       </c>
       <c r="L21">
-        <v>0.8809778321864691</v>
+        <v>0.8812553587865357</v>
       </c>
       <c r="M21">
-        <v>0.8806614131531453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8809265576579447</v>
+      </c>
+      <c r="N21">
+        <v>0.9106102408417065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8129369521323117</v>
+        <v>0.8133299411442019</v>
       </c>
       <c r="D22">
-        <v>1.008159172740262</v>
+        <v>1.008186552049145</v>
       </c>
       <c r="E22">
-        <v>0.8469482201534146</v>
+        <v>0.8472859604599594</v>
       </c>
       <c r="F22">
-        <v>0.8452624079371012</v>
+        <v>0.8455867688387084</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032640656704462</v>
+        <v>1.032672496761252</v>
       </c>
       <c r="J22">
-        <v>0.8548290732754886</v>
+        <v>0.8551904183129371</v>
       </c>
       <c r="K22">
-        <v>1.02357070934496</v>
+        <v>1.023597557729099</v>
       </c>
       <c r="L22">
-        <v>0.8663132321832736</v>
+        <v>0.8666405106372977</v>
       </c>
       <c r="M22">
-        <v>0.8646798124520855</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8649940702892975</v>
+      </c>
+      <c r="N22">
+        <v>0.8995606544807175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8232286998874245</v>
+        <v>0.8235862675899036</v>
       </c>
       <c r="D23">
-        <v>1.009918049862086</v>
+        <v>1.009942843428974</v>
       </c>
       <c r="E23">
-        <v>0.8556042978411773</v>
+        <v>0.8559125106012017</v>
       </c>
       <c r="F23">
-        <v>0.854652775680307</v>
+        <v>0.8549479356097012</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033895874532666</v>
+        <v>1.033924870992015</v>
       </c>
       <c r="J23">
-        <v>0.8633804913676327</v>
+        <v>0.8637110621061118</v>
       </c>
       <c r="K23">
-        <v>1.02498723483031</v>
+        <v>1.025011560867906</v>
       </c>
       <c r="L23">
-        <v>0.8743081271095761</v>
+        <v>0.8746072814837974</v>
       </c>
       <c r="M23">
-        <v>0.873384626838877</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8736710852799625</v>
+      </c>
+      <c r="N23">
+        <v>0.9055848560663156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8582147350699599</v>
+        <v>0.8584729742826469</v>
       </c>
       <c r="D24">
-        <v>1.016282405323199</v>
+        <v>1.016299987330594</v>
       </c>
       <c r="E24">
-        <v>0.8851901894029167</v>
+        <v>0.8854147313684396</v>
       </c>
       <c r="F24">
-        <v>0.8868652310981978</v>
+        <v>0.887078272054706</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038287213822194</v>
+        <v>1.038308182649112</v>
       </c>
       <c r="J24">
-        <v>0.8925227620701143</v>
+        <v>0.8927655637045837</v>
       </c>
       <c r="K24">
-        <v>1.030029492484525</v>
+        <v>1.030046778367639</v>
       </c>
       <c r="L24">
-        <v>0.9015857593112183</v>
+        <v>0.9018048623671262</v>
       </c>
       <c r="M24">
-        <v>0.9032203168843626</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9034282235699982</v>
+      </c>
+      <c r="N24">
+        <v>0.9261323246246138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8914364526626061</v>
+        <v>0.8916213201507482</v>
       </c>
       <c r="D25">
-        <v>1.022837804891963</v>
+        <v>1.022850151873536</v>
       </c>
       <c r="E25">
-        <v>0.9134812934280825</v>
+        <v>0.9136431160097253</v>
       </c>
       <c r="F25">
-        <v>0.9177894200918532</v>
+        <v>0.9179417124423649</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042580070116023</v>
+        <v>1.042595079532423</v>
       </c>
       <c r="J25">
-        <v>0.920264580556752</v>
+        <v>0.9204408372548014</v>
       </c>
       <c r="K25">
-        <v>1.035091643900032</v>
+        <v>1.035103809926019</v>
       </c>
       <c r="L25">
-        <v>0.9275896794936258</v>
+        <v>0.9277483272476426</v>
       </c>
       <c r="M25">
-        <v>0.9318137846693983</v>
+        <v>0.9319631257738979</v>
+      </c>
+      <c r="N25">
+        <v>0.9456961505777369</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9143366852884149</v>
+        <v>1.010537876446373</v>
       </c>
       <c r="D2">
-        <v>1.027593552758338</v>
+        <v>1.051105941949195</v>
       </c>
       <c r="E2">
-        <v>0.9330781067524535</v>
+        <v>1.027370574433617</v>
       </c>
       <c r="F2">
-        <v>0.9392252522896264</v>
+        <v>1.044141600753289</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045556144309967</v>
+        <v>1.061199440965299</v>
       </c>
       <c r="J2">
-        <v>0.9394206854477143</v>
+        <v>1.032407905758912</v>
       </c>
       <c r="K2">
-        <v>1.038681398094917</v>
+        <v>1.061896406071653</v>
       </c>
       <c r="L2">
-        <v>0.9455558186317984</v>
+        <v>1.038461321532933</v>
       </c>
       <c r="M2">
-        <v>0.951601642905784</v>
+        <v>1.055018408589948</v>
       </c>
       <c r="N2">
-        <v>0.9590965830313012</v>
+        <v>1.033874043403931</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9292840974300267</v>
+        <v>1.018590481692766</v>
       </c>
       <c r="D3">
-        <v>1.030813707727125</v>
+        <v>1.056170310737396</v>
       </c>
       <c r="E3">
-        <v>0.9459009238207511</v>
+        <v>1.034055888863958</v>
       </c>
       <c r="F3">
-        <v>0.9532692553251148</v>
+        <v>1.050637310124231</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047494637624389</v>
+        <v>1.063606340596601</v>
       </c>
       <c r="J3">
-        <v>0.9519075557727086</v>
+        <v>1.038586868994195</v>
       </c>
       <c r="K3">
-        <v>1.041066936327243</v>
+        <v>1.066131595503956</v>
       </c>
       <c r="L3">
-        <v>0.9572762381034389</v>
+        <v>1.044270800450776</v>
       </c>
       <c r="M3">
-        <v>0.9645371709260894</v>
+        <v>1.060660817409893</v>
       </c>
       <c r="N3">
-        <v>0.9679005466898909</v>
+        <v>1.040061781475746</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9383764700073597</v>
+        <v>1.023641603347957</v>
       </c>
       <c r="D4">
-        <v>1.032806434650204</v>
+        <v>1.059349119050551</v>
       </c>
       <c r="E4">
-        <v>0.953712473909754</v>
+        <v>1.038255553244765</v>
       </c>
       <c r="F4">
-        <v>0.9618212090009012</v>
+        <v>1.054717894482368</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048663440116657</v>
+        <v>1.065101048160482</v>
       </c>
       <c r="J4">
-        <v>0.9594996065372901</v>
+        <v>1.042459296481401</v>
       </c>
       <c r="K4">
-        <v>1.042524403823988</v>
+        <v>1.068780371760964</v>
       </c>
       <c r="L4">
-        <v>0.9644036304092606</v>
+        <v>1.047913191621837</v>
       </c>
       <c r="M4">
-        <v>0.9724033575370604</v>
+        <v>1.064197902328449</v>
       </c>
       <c r="N4">
-        <v>0.9732471768154801</v>
+        <v>1.043939708254157</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9420759974942441</v>
+        <v>1.025729161224643</v>
       </c>
       <c r="D5">
-        <v>1.033623933346581</v>
+        <v>1.060663154771606</v>
       </c>
       <c r="E5">
-        <v>0.9568931413996592</v>
+        <v>1.039992575122942</v>
       </c>
       <c r="F5">
-        <v>0.9653019848317768</v>
+        <v>1.056405615336677</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049135792830846</v>
+        <v>1.065715063117842</v>
       </c>
       <c r="J5">
-        <v>0.9625875250642184</v>
+        <v>1.044058814676889</v>
       </c>
       <c r="K5">
-        <v>1.043117937247662</v>
+        <v>1.069873027929899</v>
       </c>
       <c r="L5">
-        <v>0.9673027762076616</v>
+        <v>1.049418028165624</v>
       </c>
       <c r="M5">
-        <v>0.9756024033288809</v>
+        <v>1.065659050263865</v>
       </c>
       <c r="N5">
-        <v>0.9754202582329874</v>
+        <v>1.045541497948949</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9426903619985668</v>
+        <v>1.026077625685755</v>
       </c>
       <c r="D6">
-        <v>1.033760047415204</v>
+        <v>1.060882509566776</v>
       </c>
       <c r="E6">
-        <v>0.9574214630345587</v>
+        <v>1.040282602976651</v>
       </c>
       <c r="F6">
-        <v>0.9658800616495518</v>
+        <v>1.056687407094288</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049214025820207</v>
+        <v>1.065817334846813</v>
       </c>
       <c r="J6">
-        <v>0.9631002468337645</v>
+        <v>1.044325758098757</v>
       </c>
       <c r="K6">
-        <v>1.043216506166565</v>
+        <v>1.070055293842263</v>
       </c>
       <c r="L6">
-        <v>0.9677841640565186</v>
+        <v>1.049669189083131</v>
       </c>
       <c r="M6">
-        <v>0.9761335365875832</v>
+        <v>1.065902907407598</v>
       </c>
       <c r="N6">
-        <v>0.975780985957045</v>
+        <v>1.045808820461096</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9384263675178461</v>
+        <v>1.023669635778031</v>
       </c>
       <c r="D7">
-        <v>1.032817435827552</v>
+        <v>1.059366763549103</v>
       </c>
       <c r="E7">
-        <v>0.9537553647656544</v>
+        <v>1.038278873339606</v>
       </c>
       <c r="F7">
-        <v>0.9618681528410019</v>
+        <v>1.054740552956255</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048669824677552</v>
+        <v>1.065109308258951</v>
       </c>
       <c r="J7">
-        <v>0.9595412598942238</v>
+        <v>1.042480779022888</v>
       </c>
       <c r="K7">
-        <v>1.042532408321401</v>
+        <v>1.06879505263416</v>
       </c>
       <c r="L7">
-        <v>0.9644427366423852</v>
+        <v>1.047933401238176</v>
       </c>
       <c r="M7">
-        <v>0.9724465122343933</v>
+        <v>1.064217525997885</v>
       </c>
       <c r="N7">
-        <v>0.9732764960860536</v>
+        <v>1.043961221303317</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9195188457927705</v>
+        <v>1.013293720681375</v>
       </c>
       <c r="D8">
-        <v>1.028701654316031</v>
+        <v>1.052838532721281</v>
       </c>
       <c r="E8">
-        <v>0.9375208563555391</v>
+        <v>1.029657099878609</v>
       </c>
       <c r="F8">
-        <v>0.9440915148115198</v>
+        <v>1.0463632358395</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046229949754786</v>
+        <v>1.062026262400921</v>
       </c>
       <c r="J8">
-        <v>0.9437503666980408</v>
+        <v>1.034523204653471</v>
       </c>
       <c r="K8">
-        <v>1.039506387041796</v>
+        <v>1.06334735609677</v>
       </c>
       <c r="L8">
-        <v>0.9496193784623745</v>
+        <v>1.04044979030662</v>
       </c>
       <c r="M8">
-        <v>0.9560861218809171</v>
+        <v>1.056949779833431</v>
       </c>
       <c r="N8">
-        <v>0.9621505486607336</v>
+        <v>1.035992346265549</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8808225276081039</v>
+        <v>0.9936764493455813</v>
       </c>
       <c r="D9">
-        <v>1.020665278691852</v>
+        <v>1.040524773024648</v>
       </c>
       <c r="E9">
-        <v>0.9044284654949425</v>
+        <v>1.013413466287976</v>
       </c>
       <c r="F9">
-        <v>0.9078578486582194</v>
+        <v>1.030583254711846</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041190452762209</v>
+        <v>1.056080488907811</v>
       </c>
       <c r="J9">
-        <v>0.9114204332375715</v>
+        <v>1.019454501792743</v>
       </c>
       <c r="K9">
-        <v>1.033431743240128</v>
+        <v>1.052992882805316</v>
       </c>
       <c r="L9">
-        <v>0.9192890839982664</v>
+        <v>1.026292604407846</v>
       </c>
       <c r="M9">
-        <v>0.9226465307989231</v>
+        <v>1.043198889150347</v>
       </c>
       <c r="N9">
-        <v>0.9393218125396723</v>
+        <v>1.020902244118355</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8495050282700386</v>
+        <v>0.9795228284537477</v>
       </c>
       <c r="D10">
-        <v>1.014610948975406</v>
+        <v>1.031678878020191</v>
       </c>
       <c r="E10">
-        <v>0.8778089865743002</v>
+        <v>1.001743716229818</v>
       </c>
       <c r="F10">
-        <v>0.8787800215423236</v>
+        <v>1.019253252333553</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037165559584394</v>
+        <v>1.051719921372725</v>
       </c>
       <c r="J10">
-        <v>0.8852878624578984</v>
+        <v>1.008573123003634</v>
       </c>
       <c r="K10">
-        <v>1.028721315898579</v>
+        <v>1.045498785220542</v>
       </c>
       <c r="L10">
-        <v>0.894800803392093</v>
+        <v>1.016081558551806</v>
       </c>
       <c r="M10">
-        <v>0.8957471057890558</v>
+        <v>1.033283372152261</v>
       </c>
       <c r="N10">
-        <v>0.9208439819033493</v>
+        <v>1.010005412523253</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.833903334452044</v>
+        <v>0.9730914264202976</v>
       </c>
       <c r="D11">
-        <v>1.011762175366253</v>
+        <v>1.027673234591266</v>
       </c>
       <c r="E11">
-        <v>0.8646125836592918</v>
+        <v>0.9964556639044143</v>
       </c>
       <c r="F11">
-        <v>0.8644057324536586</v>
+        <v>1.014121916353847</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035202703578501</v>
+        <v>1.049723967448647</v>
       </c>
       <c r="J11">
-        <v>0.8722928215805943</v>
+        <v>1.00362811960613</v>
       </c>
       <c r="K11">
-        <v>1.026465631702646</v>
+        <v>1.04209148618305</v>
       </c>
       <c r="L11">
-        <v>0.8826357227338705</v>
+        <v>1.011444732185613</v>
       </c>
       <c r="M11">
-        <v>0.8824346266422763</v>
+        <v>1.028782339067716</v>
       </c>
       <c r="N11">
-        <v>0.9116534718354646</v>
+        <v>1.005053386653725</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8276959424940106</v>
+        <v>0.9706522528218984</v>
       </c>
       <c r="D12">
-        <v>1.010661290328762</v>
+        <v>1.026156614270778</v>
       </c>
       <c r="E12">
-        <v>0.859375450941435</v>
+        <v>0.994452600449075</v>
       </c>
       <c r="F12">
-        <v>0.8587105427044899</v>
+        <v>1.012178745941504</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034431803999936</v>
+        <v>1.048965024563831</v>
       </c>
       <c r="J12">
-        <v>0.8671282880713842</v>
+        <v>1.00175277302103</v>
       </c>
       <c r="K12">
-        <v>1.025587048043409</v>
+        <v>1.040799284865547</v>
       </c>
       <c r="L12">
-        <v>0.8778036524797574</v>
+        <v>1.009686857221239</v>
       </c>
       <c r="M12">
-        <v>0.877157880367508</v>
+        <v>1.027076281648642</v>
       </c>
       <c r="N12">
-        <v>0.9080012437062278</v>
+        <v>1.003175376861369</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8290484582553429</v>
+        <v>0.9711778227281654</v>
       </c>
       <c r="D13">
-        <v>1.010899554875371</v>
+        <v>1.026483277594017</v>
       </c>
       <c r="E13">
-        <v>0.8605158900431923</v>
+        <v>0.9948840846206076</v>
       </c>
       <c r="F13">
-        <v>0.8599502391470155</v>
+        <v>1.012597302487015</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034599248819068</v>
+        <v>1.049128638806556</v>
       </c>
       <c r="J13">
-        <v>0.8682532727007211</v>
+        <v>1.002156847554185</v>
       </c>
       <c r="K13">
-        <v>1.025777530954753</v>
+        <v>1.041077707767653</v>
       </c>
       <c r="L13">
-        <v>0.8788560834740915</v>
+        <v>1.010065592410006</v>
       </c>
       <c r="M13">
-        <v>0.8783065934368085</v>
+        <v>1.02744383584062</v>
       </c>
       <c r="N13">
-        <v>0.9087967784011484</v>
+        <v>1.003580025226709</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8333994615942233</v>
+        <v>0.9728908590493512</v>
       </c>
       <c r="D14">
-        <v>1.011672113088526</v>
+        <v>1.027548471798152</v>
       </c>
       <c r="E14">
-        <v>0.8641871793062363</v>
+        <v>0.9962909047773716</v>
       </c>
       <c r="F14">
-        <v>0.8639429096475297</v>
+        <v>1.013962072177628</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03513990093083</v>
+        <v>1.049661599693399</v>
       </c>
       <c r="J14">
-        <v>0.8718734696554893</v>
+        <v>1.003473911374018</v>
       </c>
       <c r="K14">
-        <v>1.02639390175212</v>
+        <v>1.041985228397422</v>
       </c>
       <c r="L14">
-        <v>0.8822433084567735</v>
+        <v>1.011300171019031</v>
       </c>
       <c r="M14">
-        <v>0.8820058538600413</v>
+        <v>1.028642031761277</v>
       </c>
       <c r="N14">
-        <v>0.91135690635463</v>
+        <v>1.004898959428235</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8360214928768722</v>
+        <v>0.9739395020837677</v>
       </c>
       <c r="D15">
-        <v>1.012142119273473</v>
+        <v>1.028200886335632</v>
       </c>
       <c r="E15">
-        <v>0.8664014321546948</v>
+        <v>0.9971524311767308</v>
       </c>
       <c r="F15">
-        <v>0.8663523244281079</v>
+        <v>1.014797920541928</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035467135537782</v>
+        <v>1.04998760411364</v>
       </c>
       <c r="J15">
-        <v>0.8740559191315158</v>
+        <v>1.004280176026373</v>
       </c>
       <c r="K15">
-        <v>1.026767952812055</v>
+        <v>1.042540789044094</v>
       </c>
       <c r="L15">
-        <v>0.8842856748156018</v>
+        <v>1.012056021515712</v>
       </c>
       <c r="M15">
-        <v>0.8842379174814532</v>
+        <v>1.02937565486688</v>
       </c>
       <c r="N15">
-        <v>0.9129003495624228</v>
+        <v>1.005706369068877</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8504896450695294</v>
+        <v>0.9799428879792712</v>
       </c>
       <c r="D16">
-        <v>1.01479458336652</v>
+        <v>1.031940827638155</v>
       </c>
       <c r="E16">
-        <v>0.8786433397225569</v>
+        <v>1.002089424955954</v>
       </c>
       <c r="F16">
-        <v>0.8796898905979582</v>
+        <v>1.019588782154879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037290539634571</v>
+        <v>1.051850003084255</v>
       </c>
       <c r="J16">
-        <v>0.886108597991797</v>
+        <v>1.00889610355373</v>
       </c>
       <c r="K16">
-        <v>1.028865849141209</v>
+        <v>1.045721316340739</v>
       </c>
       <c r="L16">
-        <v>0.8955694187587476</v>
+        <v>1.016384489239552</v>
       </c>
       <c r="M16">
-        <v>0.8965894662956539</v>
+        <v>1.03357747210144</v>
       </c>
       <c r="N16">
-        <v>0.9214244349129453</v>
+        <v>1.010328851742777</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8589595426587194</v>
+        <v>0.9836244268027289</v>
       </c>
       <c r="D17">
-        <v>1.01639267861925</v>
+        <v>1.03423825810328</v>
       </c>
       <c r="E17">
-        <v>0.8858277966122324</v>
+        <v>1.005121011338401</v>
       </c>
       <c r="F17">
-        <v>0.8875292016417184</v>
+        <v>1.0225314315876</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038370440594947</v>
+        <v>1.052988471889962</v>
       </c>
       <c r="J17">
-        <v>0.8931714231120047</v>
+        <v>1.011726771703695</v>
       </c>
       <c r="K17">
-        <v>1.03011926264037</v>
+        <v>1.047671466072385</v>
       </c>
       <c r="L17">
-        <v>0.9021850911406042</v>
+        <v>1.019039842534228</v>
       </c>
       <c r="M17">
-        <v>0.9038455225439304</v>
+        <v>1.036155609138086</v>
       </c>
       <c r="N17">
-        <v>0.9264193411768449</v>
+        <v>1.013163539766197</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8637120370819434</v>
+        <v>0.9857429476278453</v>
       </c>
       <c r="D18">
-        <v>1.017303627462079</v>
+        <v>1.035561574150594</v>
       </c>
       <c r="E18">
-        <v>0.8898644894067261</v>
+        <v>1.006866876766063</v>
       </c>
       <c r="F18">
-        <v>0.8919372088755601</v>
+        <v>1.024226330143848</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038979842672031</v>
+        <v>1.05364222162399</v>
       </c>
       <c r="J18">
-        <v>0.8971363258857153</v>
+        <v>1.013355604099589</v>
       </c>
       <c r="K18">
-        <v>1.030830215839041</v>
+        <v>1.048793458463905</v>
       </c>
       <c r="L18">
-        <v>0.9059000030876182</v>
+        <v>1.02056812243105</v>
       </c>
       <c r="M18">
-        <v>0.9079242315244264</v>
+        <v>1.037639590084959</v>
       </c>
       <c r="N18">
-        <v>0.9292231440674433</v>
+        <v>1.014794685290924</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8653030534972339</v>
+        <v>0.9864605476112849</v>
       </c>
       <c r="D19">
-        <v>1.017610842487547</v>
+        <v>1.036010019853882</v>
       </c>
       <c r="E19">
-        <v>0.8912167252594061</v>
+        <v>1.007458470738327</v>
       </c>
       <c r="F19">
-        <v>0.8934143316577365</v>
+        <v>1.024800693199248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039184360265194</v>
+        <v>1.053863424707927</v>
       </c>
       <c r="J19">
-        <v>0.8984639557297909</v>
+        <v>1.01390731860204</v>
       </c>
       <c r="K19">
-        <v>1.031069407866971</v>
+        <v>1.049173462157321</v>
       </c>
       <c r="L19">
-        <v>0.9071440830239804</v>
+        <v>1.021085831809546</v>
       </c>
       <c r="M19">
-        <v>0.9092907789804483</v>
+        <v>1.038142314566429</v>
       </c>
       <c r="N19">
-        <v>0.9301619352676856</v>
+        <v>1.01534718329125</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8580708298452847</v>
+        <v>0.9832324498139627</v>
       </c>
       <c r="D20">
-        <v>1.016223459661198</v>
+        <v>1.033993513026994</v>
       </c>
       <c r="E20">
-        <v>0.885073367548325</v>
+        <v>1.00479809256664</v>
       </c>
       <c r="F20">
-        <v>0.8867056354909558</v>
+        <v>1.022217959330992</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038256746446061</v>
+        <v>1.05286739956715</v>
       </c>
       <c r="J20">
-        <v>0.8924301352841832</v>
+        <v>1.011425392799385</v>
       </c>
       <c r="K20">
-        <v>1.029986914063016</v>
+        <v>1.047463851286019</v>
       </c>
       <c r="L20">
-        <v>0.9014906225754612</v>
+        <v>1.01875709474375</v>
       </c>
       <c r="M20">
-        <v>0.9030833708138427</v>
+        <v>1.035881068025275</v>
       </c>
       <c r="N20">
-        <v>0.9258951142886659</v>
+        <v>1.012861732869274</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8321307232338935</v>
+        <v>0.9723878419434023</v>
       </c>
       <c r="D21">
-        <v>1.011445884658119</v>
+        <v>1.027235613187196</v>
       </c>
       <c r="E21">
-        <v>0.863116247904267</v>
+        <v>0.995877734617406</v>
       </c>
       <c r="F21">
-        <v>0.8627779421897236</v>
+        <v>1.013561236294452</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034981940027762</v>
+        <v>1.049505152532884</v>
       </c>
       <c r="J21">
-        <v>0.8708176534042305</v>
+        <v>1.003087163790469</v>
       </c>
       <c r="K21">
-        <v>1.026213608112072</v>
+        <v>1.041718739053828</v>
       </c>
       <c r="L21">
-        <v>0.8812553587865357</v>
+        <v>1.010937627712608</v>
       </c>
       <c r="M21">
-        <v>0.8809265576579447</v>
+        <v>1.028290162425571</v>
       </c>
       <c r="N21">
-        <v>0.9106102408417065</v>
+        <v>1.004511662618757</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8133299411442019</v>
+        <v>0.9652756871052813</v>
       </c>
       <c r="D22">
-        <v>1.008186552049145</v>
+        <v>1.022818889353354</v>
       </c>
       <c r="E22">
-        <v>0.8472859604599594</v>
+        <v>0.9900422599085672</v>
       </c>
       <c r="F22">
-        <v>0.8455867688387084</v>
+        <v>1.007901397638551</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032672496761252</v>
+        <v>1.047288775953855</v>
       </c>
       <c r="J22">
-        <v>0.8551904183129371</v>
+        <v>0.9976194139315908</v>
       </c>
       <c r="K22">
-        <v>1.023597557729099</v>
+        <v>1.037951459811853</v>
       </c>
       <c r="L22">
-        <v>0.8666405106372977</v>
+        <v>1.005813596650368</v>
       </c>
       <c r="M22">
-        <v>0.8649940702892975</v>
+        <v>1.023317934732365</v>
       </c>
       <c r="N22">
-        <v>0.8995606544807175</v>
+        <v>0.9990361479279198</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8235862675899036</v>
+        <v>0.9690756011328437</v>
       </c>
       <c r="D23">
-        <v>1.009942843428974</v>
+        <v>1.025177074806316</v>
       </c>
       <c r="E23">
-        <v>0.8559125106012017</v>
+        <v>0.993158583044083</v>
       </c>
       <c r="F23">
-        <v>0.8549479356097012</v>
+        <v>1.010923585832908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033924870992015</v>
+        <v>1.048473931623793</v>
       </c>
       <c r="J23">
-        <v>0.8637110621061118</v>
+        <v>1.000540622518733</v>
       </c>
       <c r="K23">
-        <v>1.025011560867906</v>
+        <v>1.039964083605614</v>
       </c>
       <c r="L23">
-        <v>0.8746072814837974</v>
+        <v>1.008550813402767</v>
       </c>
       <c r="M23">
-        <v>0.8736710852799625</v>
+        <v>1.02597383355814</v>
       </c>
       <c r="N23">
-        <v>0.9055848560663156</v>
+        <v>1.001961504966323</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8584729742826469</v>
+        <v>0.9834096561711455</v>
       </c>
       <c r="D24">
-        <v>1.016299987330594</v>
+        <v>1.034104154334298</v>
       </c>
       <c r="E24">
-        <v>0.8854147313684396</v>
+        <v>1.004944074644085</v>
       </c>
       <c r="F24">
-        <v>0.887078272054706</v>
+        <v>1.022359670144863</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038308182649112</v>
+        <v>1.052922138667221</v>
       </c>
       <c r="J24">
-        <v>0.8927655637045837</v>
+        <v>1.011561641448915</v>
       </c>
       <c r="K24">
-        <v>1.030046778367639</v>
+        <v>1.047557711199283</v>
       </c>
       <c r="L24">
-        <v>0.9018048623671262</v>
+        <v>1.018884919546679</v>
       </c>
       <c r="M24">
-        <v>0.9034282235699982</v>
+        <v>1.036005182311988</v>
       </c>
       <c r="N24">
-        <v>0.9261323246246138</v>
+        <v>1.012998175007514</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8916213201507482</v>
+        <v>0.9989230833843699</v>
       </c>
       <c r="D25">
-        <v>1.022850151873536</v>
+        <v>1.043813002550477</v>
       </c>
       <c r="E25">
-        <v>0.9136431160097253</v>
+        <v>1.017750198754722</v>
       </c>
       <c r="F25">
-        <v>0.9179417124423649</v>
+        <v>1.034795418532778</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042595079532423</v>
+        <v>1.057683368951457</v>
       </c>
       <c r="J25">
-        <v>0.9204408372548014</v>
+        <v>1.023486744501356</v>
       </c>
       <c r="K25">
-        <v>1.035103809926019</v>
+        <v>1.055767224970299</v>
       </c>
       <c r="L25">
-        <v>0.9277483272476426</v>
+        <v>1.030079075900099</v>
       </c>
       <c r="M25">
-        <v>0.9319631257738979</v>
+        <v>1.046876568086772</v>
       </c>
       <c r="N25">
-        <v>0.9456961505777369</v>
+        <v>1.024940213074118</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010537876446373</v>
+        <v>0.986742214285696</v>
       </c>
       <c r="D2">
-        <v>1.051105941949195</v>
+        <v>1.032737203841681</v>
       </c>
       <c r="E2">
-        <v>1.027370574433617</v>
+        <v>0.9948059091078543</v>
       </c>
       <c r="F2">
-        <v>1.044141600753289</v>
+        <v>0.962879245512288</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061199440965299</v>
+        <v>1.045504021159872</v>
       </c>
       <c r="J2">
-        <v>1.032407905758912</v>
+        <v>1.009326825892176</v>
       </c>
       <c r="K2">
-        <v>1.061896406071653</v>
+        <v>1.043758546456574</v>
       </c>
       <c r="L2">
-        <v>1.038461321532933</v>
+        <v>1.006338083325064</v>
       </c>
       <c r="M2">
-        <v>1.055018408589948</v>
+        <v>0.9748811559305901</v>
       </c>
       <c r="N2">
-        <v>1.033874043403931</v>
+        <v>1.006570731417288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018590481692766</v>
+        <v>0.9931504936304265</v>
       </c>
       <c r="D3">
-        <v>1.056170310737396</v>
+        <v>1.036300639162101</v>
       </c>
       <c r="E3">
-        <v>1.034055888863958</v>
+        <v>1.000053625778217</v>
       </c>
       <c r="F3">
-        <v>1.050637310124231</v>
+        <v>0.972131369191209</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063606340596601</v>
+        <v>1.047628717946294</v>
       </c>
       <c r="J3">
-        <v>1.038586868994195</v>
+        <v>1.013829640841748</v>
       </c>
       <c r="K3">
-        <v>1.066131595503956</v>
+        <v>1.046489195465376</v>
       </c>
       <c r="L3">
-        <v>1.044270800450776</v>
+        <v>1.010685820498454</v>
       </c>
       <c r="M3">
-        <v>1.060660817409893</v>
+        <v>0.9831337061138407</v>
       </c>
       <c r="N3">
-        <v>1.040061781475746</v>
+        <v>1.008123241402749</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023641603347957</v>
+        <v>0.9971733112848012</v>
       </c>
       <c r="D4">
-        <v>1.059349119050551</v>
+        <v>1.038543097511313</v>
       </c>
       <c r="E4">
-        <v>1.038255553244765</v>
+        <v>1.003354119622847</v>
       </c>
       <c r="F4">
-        <v>1.054717894482368</v>
+        <v>0.9779261865242684</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065101048160482</v>
+        <v>1.048949447345278</v>
       </c>
       <c r="J4">
-        <v>1.042459296481401</v>
+        <v>1.016649601481129</v>
       </c>
       <c r="K4">
-        <v>1.068780371760964</v>
+        <v>1.048197573901783</v>
       </c>
       <c r="L4">
-        <v>1.047913191621837</v>
+        <v>1.013412231240023</v>
       </c>
       <c r="M4">
-        <v>1.064197902328449</v>
+        <v>0.9882985318531972</v>
       </c>
       <c r="N4">
-        <v>1.043939708254157</v>
+        <v>1.0090949255286</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025729161224643</v>
+        <v>0.9988364891523924</v>
       </c>
       <c r="D5">
-        <v>1.060663154771606</v>
+        <v>1.039471334070349</v>
       </c>
       <c r="E5">
-        <v>1.039992575122942</v>
+        <v>1.004720084345015</v>
       </c>
       <c r="F5">
-        <v>1.056405615336677</v>
+        <v>0.9803193358959854</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065715063117842</v>
+        <v>1.049492274096914</v>
       </c>
       <c r="J5">
-        <v>1.044058814676889</v>
+        <v>1.017813848587822</v>
       </c>
       <c r="K5">
-        <v>1.069873027929899</v>
+        <v>1.048902358994078</v>
       </c>
       <c r="L5">
-        <v>1.049418028165624</v>
+        <v>1.014538694675439</v>
       </c>
       <c r="M5">
-        <v>1.065659050263865</v>
+        <v>0.9904305100733726</v>
       </c>
       <c r="N5">
-        <v>1.045541497948949</v>
+        <v>1.009495934396565</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026077625685755</v>
+        <v>0.9991141456444843</v>
       </c>
       <c r="D6">
-        <v>1.060882509566776</v>
+        <v>1.039626357573984</v>
       </c>
       <c r="E6">
-        <v>1.040282602976651</v>
+        <v>1.004948204687005</v>
       </c>
       <c r="F6">
-        <v>1.056687407094288</v>
+        <v>0.9807187158461519</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065817334846813</v>
+        <v>1.049582704381386</v>
       </c>
       <c r="J6">
-        <v>1.044325758098757</v>
+        <v>1.018008115663514</v>
       </c>
       <c r="K6">
-        <v>1.070055293842263</v>
+        <v>1.049019925121697</v>
       </c>
       <c r="L6">
-        <v>1.049669189083131</v>
+        <v>1.014726706045308</v>
       </c>
       <c r="M6">
-        <v>1.065902907407598</v>
+        <v>0.990786244514506</v>
       </c>
       <c r="N6">
-        <v>1.045808820461096</v>
+        <v>1.00956283714904</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023669635778031</v>
+        <v>0.9971956427937276</v>
       </c>
       <c r="D7">
-        <v>1.059366763549103</v>
+        <v>1.03855555675887</v>
       </c>
       <c r="E7">
-        <v>1.038278873339606</v>
+        <v>1.003372454911871</v>
       </c>
       <c r="F7">
-        <v>1.054740552956255</v>
+        <v>0.977958329134657</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065109308258951</v>
+        <v>1.048956748694919</v>
       </c>
       <c r="J7">
-        <v>1.042480779022888</v>
+        <v>1.016665240304809</v>
       </c>
       <c r="K7">
-        <v>1.06879505263416</v>
+        <v>1.048207043243352</v>
       </c>
       <c r="L7">
-        <v>1.047933401238176</v>
+        <v>1.01342735922962</v>
       </c>
       <c r="M7">
-        <v>1.064217525997885</v>
+        <v>0.9883271706614871</v>
       </c>
       <c r="N7">
-        <v>1.043961221303317</v>
+        <v>1.009100312760159</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013293720681375</v>
+        <v>0.9889345673979396</v>
       </c>
       <c r="D8">
-        <v>1.052838532721281</v>
+        <v>1.033955014073803</v>
       </c>
       <c r="E8">
-        <v>1.029657099878609</v>
+        <v>0.996599859926099</v>
       </c>
       <c r="F8">
-        <v>1.0463632358395</v>
+        <v>0.9660476559617486</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062026262400921</v>
+        <v>1.046233613817591</v>
       </c>
       <c r="J8">
-        <v>1.034523204653471</v>
+        <v>1.010868697166899</v>
       </c>
       <c r="K8">
-        <v>1.06334735609677</v>
+        <v>1.044693877183378</v>
       </c>
       <c r="L8">
-        <v>1.04044979030662</v>
+        <v>1.007826086108562</v>
       </c>
       <c r="M8">
-        <v>1.056949779833431</v>
+        <v>0.9777080583774506</v>
       </c>
       <c r="N8">
-        <v>1.035992346265549</v>
+        <v>1.00710246473746</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9936764493455813</v>
+        <v>0.9733487267874994</v>
       </c>
       <c r="D9">
-        <v>1.040524773024648</v>
+        <v>1.025330120121644</v>
       </c>
       <c r="E9">
-        <v>1.013413466287976</v>
+        <v>0.9838765343598436</v>
       </c>
       <c r="F9">
-        <v>1.030583254711846</v>
+        <v>0.943439621155178</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056080488907811</v>
+        <v>1.040993716434208</v>
       </c>
       <c r="J9">
-        <v>1.019454501792743</v>
+        <v>0.9998790320027614</v>
       </c>
       <c r="K9">
-        <v>1.052992882805316</v>
+        <v>1.038025179587327</v>
       </c>
       <c r="L9">
-        <v>1.026292604407846</v>
+        <v>0.9972367348600175</v>
       </c>
       <c r="M9">
-        <v>1.043198889150347</v>
+        <v>0.957522235528391</v>
       </c>
       <c r="N9">
-        <v>1.020902244118355</v>
+        <v>1.003310646974499</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9795228284537477</v>
+        <v>0.9621381376823251</v>
       </c>
       <c r="D10">
-        <v>1.031678878020191</v>
+        <v>1.019179523056629</v>
       </c>
       <c r="E10">
-        <v>1.001743716229818</v>
+        <v>0.9747677066137957</v>
       </c>
       <c r="F10">
-        <v>1.019253252333553</v>
+        <v>0.9270362138911233</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051719921372725</v>
+        <v>1.037160681979374</v>
       </c>
       <c r="J10">
-        <v>1.008573123003634</v>
+        <v>0.9919388673117707</v>
       </c>
       <c r="K10">
-        <v>1.045498785220542</v>
+        <v>1.033210909978065</v>
       </c>
       <c r="L10">
-        <v>1.016081558551806</v>
+        <v>0.9896079889182139</v>
       </c>
       <c r="M10">
-        <v>1.033283372152261</v>
+        <v>0.9428608804341875</v>
       </c>
       <c r="N10">
-        <v>1.010005412523253</v>
+        <v>1.000569438755937</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9730914264202976</v>
+        <v>0.9570552255479291</v>
       </c>
       <c r="D11">
-        <v>1.027673234591266</v>
+        <v>1.016407447475262</v>
       </c>
       <c r="E11">
-        <v>0.9964556639044143</v>
+        <v>0.9706493739045586</v>
       </c>
       <c r="F11">
-        <v>1.014121916353847</v>
+        <v>0.9195516171090543</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049723967448647</v>
+        <v>1.035408930990839</v>
       </c>
       <c r="J11">
-        <v>1.00362811960613</v>
+        <v>0.9883305042168815</v>
       </c>
       <c r="K11">
-        <v>1.04209148618305</v>
+        <v>1.031026437583614</v>
       </c>
       <c r="L11">
-        <v>1.011444732185613</v>
+        <v>0.9861468705952746</v>
       </c>
       <c r="M11">
-        <v>1.028782339067716</v>
+        <v>0.9361687869705848</v>
       </c>
       <c r="N11">
-        <v>1.005053386653725</v>
+        <v>0.9993236409684214</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9706522528218984</v>
+        <v>0.9551294414802534</v>
       </c>
       <c r="D12">
-        <v>1.026156614270778</v>
+        <v>1.015360058517198</v>
       </c>
       <c r="E12">
-        <v>0.994452600449075</v>
+        <v>0.9690909301886189</v>
       </c>
       <c r="F12">
-        <v>1.012178745941504</v>
+        <v>0.9167074026916889</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048965024563831</v>
+        <v>1.034743286413616</v>
       </c>
       <c r="J12">
-        <v>1.00175277302103</v>
+        <v>0.9869621547877855</v>
       </c>
       <c r="K12">
-        <v>1.040799284865547</v>
+        <v>1.03019878416086</v>
       </c>
       <c r="L12">
-        <v>1.009686857221239</v>
+        <v>0.984835263860947</v>
       </c>
       <c r="M12">
-        <v>1.027076281648642</v>
+        <v>0.9336255089937775</v>
       </c>
       <c r="N12">
-        <v>1.003175376861369</v>
+        <v>0.9988512321373075</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9711778227281654</v>
+        <v>0.9555442978417404</v>
       </c>
       <c r="D13">
-        <v>1.026483277594017</v>
+        <v>1.015585552749205</v>
       </c>
       <c r="E13">
-        <v>0.9948840846206076</v>
+        <v>0.9694265658747026</v>
       </c>
       <c r="F13">
-        <v>1.012597302487015</v>
+        <v>0.917320517476491</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049128638806556</v>
+        <v>1.034886766821913</v>
       </c>
       <c r="J13">
-        <v>1.002156847554185</v>
+        <v>0.9872569830348095</v>
       </c>
       <c r="K13">
-        <v>1.041077707767653</v>
+        <v>1.030377075507342</v>
       </c>
       <c r="L13">
-        <v>1.010065592410006</v>
+        <v>0.9851178245368737</v>
       </c>
       <c r="M13">
-        <v>1.02744383584062</v>
+        <v>0.9341737598646961</v>
       </c>
       <c r="N13">
-        <v>1.003580025226709</v>
+        <v>0.998953017328027</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9728908590493512</v>
+        <v>0.956896831516283</v>
       </c>
       <c r="D14">
-        <v>1.027548471798152</v>
+        <v>1.016321239972305</v>
       </c>
       <c r="E14">
-        <v>0.9962909047773716</v>
+        <v>0.9705211542185066</v>
       </c>
       <c r="F14">
-        <v>1.013962072177628</v>
+        <v>0.9193178640553311</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049661599693399</v>
+        <v>1.035354221096744</v>
       </c>
       <c r="J14">
-        <v>1.003473911374018</v>
+        <v>0.9882179836723095</v>
       </c>
       <c r="K14">
-        <v>1.041985228397422</v>
+        <v>1.030958362646826</v>
       </c>
       <c r="L14">
-        <v>1.011300171019031</v>
+        <v>0.9860389974241649</v>
       </c>
       <c r="M14">
-        <v>1.028642031761277</v>
+        <v>0.9359597701640189</v>
       </c>
       <c r="N14">
-        <v>1.004898959428235</v>
+        <v>0.9992847938530923</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9739395020837677</v>
+        <v>0.9577250575536383</v>
       </c>
       <c r="D15">
-        <v>1.028200886335632</v>
+        <v>1.016772129421275</v>
       </c>
       <c r="E15">
-        <v>0.9971524311767308</v>
+        <v>0.9711916791928955</v>
       </c>
       <c r="F15">
-        <v>1.014797920541928</v>
+        <v>0.9205397806654383</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04998760411364</v>
+        <v>1.035640214999434</v>
       </c>
       <c r="J15">
-        <v>1.004280176026373</v>
+        <v>0.988806291893279</v>
       </c>
       <c r="K15">
-        <v>1.042540789044094</v>
+        <v>1.031314320391701</v>
       </c>
       <c r="L15">
-        <v>1.012056021515712</v>
+        <v>0.9866030441205703</v>
       </c>
       <c r="M15">
-        <v>1.02937565486688</v>
+        <v>0.9370523727932398</v>
       </c>
       <c r="N15">
-        <v>1.005706369068877</v>
+        <v>0.9994879050122905</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9799428879792712</v>
+        <v>0.9624703761494194</v>
       </c>
       <c r="D16">
-        <v>1.031940827638155</v>
+        <v>1.01936109127889</v>
       </c>
       <c r="E16">
-        <v>1.002089424955954</v>
+        <v>0.9750371483767112</v>
       </c>
       <c r="F16">
-        <v>1.019588782154879</v>
+        <v>0.9275243468571958</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051850003084255</v>
+        <v>1.037274907385613</v>
       </c>
       <c r="J16">
-        <v>1.00889610355373</v>
+        <v>0.9921745534805229</v>
       </c>
       <c r="K16">
-        <v>1.045721316340739</v>
+        <v>1.033353680296019</v>
       </c>
       <c r="L16">
-        <v>1.016384489239552</v>
+        <v>0.9898341794265314</v>
       </c>
       <c r="M16">
-        <v>1.03357747210144</v>
+        <v>0.9432972895405329</v>
       </c>
       <c r="N16">
-        <v>1.010328851742777</v>
+        <v>1.000650810942416</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9836244268027289</v>
+        <v>0.9653835122856311</v>
       </c>
       <c r="D17">
-        <v>1.03423825810328</v>
+        <v>1.020955034685032</v>
       </c>
       <c r="E17">
-        <v>1.005121011338401</v>
+        <v>0.9774009966729635</v>
       </c>
       <c r="F17">
-        <v>1.0225314315876</v>
+        <v>0.9317989314677548</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052988471889962</v>
+        <v>1.038274913695085</v>
       </c>
       <c r="J17">
-        <v>1.011726771703695</v>
+        <v>0.9942401684578164</v>
       </c>
       <c r="K17">
-        <v>1.047671466072385</v>
+        <v>1.034605358302733</v>
       </c>
       <c r="L17">
-        <v>1.019039842534228</v>
+        <v>0.9918172209246777</v>
       </c>
       <c r="M17">
-        <v>1.036155609138086</v>
+        <v>0.947118675715001</v>
       </c>
       <c r="N17">
-        <v>1.013163539766197</v>
+        <v>1.001363973125478</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9857429476278453</v>
+        <v>0.9670608881326449</v>
       </c>
       <c r="D18">
-        <v>1.035561574150594</v>
+        <v>1.021874356267354</v>
       </c>
       <c r="E18">
-        <v>1.006866876766063</v>
+        <v>0.9787631763960765</v>
       </c>
       <c r="F18">
-        <v>1.024226330143848</v>
+        <v>0.9342558932980468</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05364222162399</v>
+        <v>1.038849406762883</v>
       </c>
       <c r="J18">
-        <v>1.013355604099589</v>
+        <v>0.9954287674908675</v>
       </c>
       <c r="K18">
-        <v>1.048793458463905</v>
+        <v>1.035325897984983</v>
       </c>
       <c r="L18">
-        <v>1.02056812243105</v>
+        <v>0.9929588384446804</v>
       </c>
       <c r="M18">
-        <v>1.037639590084959</v>
+        <v>0.9493149156959245</v>
       </c>
       <c r="N18">
-        <v>1.014794685290924</v>
+        <v>1.001774333266821</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9864605476112849</v>
+        <v>0.9676292269091988</v>
       </c>
       <c r="D19">
-        <v>1.036010019853882</v>
+        <v>1.022186095911882</v>
       </c>
       <c r="E19">
-        <v>1.007458470738327</v>
+        <v>0.9792248982127889</v>
       </c>
       <c r="F19">
-        <v>1.024800693199248</v>
+        <v>0.9350876787803176</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053863424707927</v>
+        <v>1.039043834560133</v>
       </c>
       <c r="J19">
-        <v>1.01390731860204</v>
+        <v>0.9958313638626067</v>
       </c>
       <c r="K19">
-        <v>1.049173462157321</v>
+        <v>1.035569999651915</v>
       </c>
       <c r="L19">
-        <v>1.021085831809546</v>
+        <v>0.9933456106568445</v>
       </c>
       <c r="M19">
-        <v>1.038142314566429</v>
+        <v>0.9500583930892079</v>
       </c>
       <c r="N19">
-        <v>1.01534718329125</v>
+        <v>1.001913326158854</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9832324498139627</v>
+        <v>0.9650732390718835</v>
       </c>
       <c r="D20">
-        <v>1.033993513026994</v>
+        <v>1.020785104507562</v>
       </c>
       <c r="E20">
-        <v>1.00479809256664</v>
+        <v>0.9771491137401546</v>
       </c>
       <c r="F20">
-        <v>1.022217959330992</v>
+        <v>0.9313441121310646</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05286739956715</v>
+        <v>1.038168539786801</v>
       </c>
       <c r="J20">
-        <v>1.011425392799385</v>
+        <v>0.9940202439250398</v>
       </c>
       <c r="K20">
-        <v>1.047463851286019</v>
+        <v>1.034472060579907</v>
       </c>
       <c r="L20">
-        <v>1.01875709474375</v>
+        <v>0.9916060322089192</v>
       </c>
       <c r="M20">
-        <v>1.035881068025275</v>
+        <v>0.9467121001990243</v>
       </c>
       <c r="N20">
-        <v>1.012861732869274</v>
+        <v>1.001288043968658</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9723878419434023</v>
+        <v>0.9564996164321309</v>
       </c>
       <c r="D21">
-        <v>1.027235613187196</v>
+        <v>1.016105099418215</v>
       </c>
       <c r="E21">
-        <v>0.995877734617406</v>
+        <v>0.9701996401286638</v>
       </c>
       <c r="F21">
-        <v>1.013561236294452</v>
+        <v>0.9187315244960833</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049505152532884</v>
+        <v>1.035216990598549</v>
       </c>
       <c r="J21">
-        <v>1.003087163790469</v>
+        <v>0.9879357887192867</v>
       </c>
       <c r="K21">
-        <v>1.041718739053828</v>
+        <v>1.030787647304942</v>
       </c>
       <c r="L21">
-        <v>1.010937627712608</v>
+        <v>0.9857684725253499</v>
       </c>
       <c r="M21">
-        <v>1.028290162425571</v>
+        <v>0.9354354752367022</v>
       </c>
       <c r="N21">
-        <v>1.004511662618757</v>
+        <v>0.9991873679439456</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9652756871052813</v>
+        <v>0.950888473228613</v>
       </c>
       <c r="D22">
-        <v>1.022818889353354</v>
+        <v>1.013059267664272</v>
       </c>
       <c r="E22">
-        <v>0.9900422599085672</v>
+        <v>0.9656625660624444</v>
       </c>
       <c r="F22">
-        <v>1.007901397638551</v>
+        <v>0.9104264130677657</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047288775953855</v>
+        <v>1.033273951446301</v>
       </c>
       <c r="J22">
-        <v>0.9976194139315908</v>
+        <v>0.9839464975676629</v>
       </c>
       <c r="K22">
-        <v>1.037951459811853</v>
+        <v>1.028376382451353</v>
       </c>
       <c r="L22">
-        <v>1.005813596650368</v>
+        <v>0.9819463877283654</v>
       </c>
       <c r="M22">
-        <v>1.023317934732365</v>
+        <v>0.928008847943971</v>
       </c>
       <c r="N22">
-        <v>0.9990361479279198</v>
+        <v>0.9978101736781714</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9690756011328437</v>
+        <v>0.9538852287216969</v>
       </c>
       <c r="D23">
-        <v>1.025177074806316</v>
+        <v>1.014684223152629</v>
       </c>
       <c r="E23">
-        <v>0.993158583044083</v>
+        <v>0.9680845992582058</v>
       </c>
       <c r="F23">
-        <v>1.010923585832908</v>
+        <v>0.914867218209011</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048473931623793</v>
+        <v>1.034312692835478</v>
       </c>
       <c r="J23">
-        <v>1.000540622518733</v>
+        <v>0.9860777427208718</v>
       </c>
       <c r="K23">
-        <v>1.039964083605614</v>
+        <v>1.029664080896779</v>
       </c>
       <c r="L23">
-        <v>1.008550813402767</v>
+        <v>0.9839877880569632</v>
       </c>
       <c r="M23">
-        <v>1.02597383355814</v>
+        <v>0.9319799841828632</v>
       </c>
       <c r="N23">
-        <v>1.001961504966323</v>
+        <v>0.9985459066005551</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9834096561711455</v>
+        <v>0.9652135053205249</v>
       </c>
       <c r="D24">
-        <v>1.034104154334298</v>
+        <v>1.02086192067465</v>
       </c>
       <c r="E24">
-        <v>1.004944074644085</v>
+        <v>0.9772629799466905</v>
       </c>
       <c r="F24">
-        <v>1.022359670144863</v>
+        <v>0.9315497371897458</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052922138667221</v>
+        <v>1.038216632668072</v>
       </c>
       <c r="J24">
-        <v>1.011561641448915</v>
+        <v>0.9941196683568276</v>
       </c>
       <c r="K24">
-        <v>1.047557711199283</v>
+        <v>1.034532321482256</v>
       </c>
       <c r="L24">
-        <v>1.018884919546679</v>
+        <v>0.9917015056614875</v>
       </c>
       <c r="M24">
-        <v>1.036005182311988</v>
+        <v>0.9468959148221752</v>
       </c>
       <c r="N24">
-        <v>1.012998175007514</v>
+        <v>1.00132237037843</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9989230833843699</v>
+        <v>0.9775122174155674</v>
       </c>
       <c r="D25">
-        <v>1.043813002550477</v>
+        <v>1.027626280949478</v>
       </c>
       <c r="E25">
-        <v>1.017750198754722</v>
+        <v>0.9872685178439884</v>
       </c>
       <c r="F25">
-        <v>1.034795418532778</v>
+        <v>0.9494992325839733</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057683368951457</v>
+        <v>1.042404772894507</v>
       </c>
       <c r="J25">
-        <v>1.023486744501356</v>
+        <v>1.002820830981163</v>
       </c>
       <c r="K25">
-        <v>1.055767224970299</v>
+        <v>1.039810354220317</v>
       </c>
       <c r="L25">
-        <v>1.030079075900099</v>
+        <v>1.000067742084852</v>
       </c>
       <c r="M25">
-        <v>1.046876568086772</v>
+        <v>0.9629355944971313</v>
       </c>
       <c r="N25">
-        <v>1.024940213074118</v>
+        <v>1.004326028277157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.986742214285696</v>
+        <v>1.02572360017603</v>
       </c>
       <c r="D2">
-        <v>1.032737203841681</v>
+        <v>1.036581664324456</v>
       </c>
       <c r="E2">
-        <v>0.9948059091078543</v>
+        <v>1.026019270175057</v>
       </c>
       <c r="F2">
-        <v>0.962879245512288</v>
+        <v>1.02422791284009</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045504021159872</v>
+        <v>1.035804277293185</v>
       </c>
       <c r="J2">
-        <v>1.009326825892176</v>
+        <v>1.030891027493712</v>
       </c>
       <c r="K2">
-        <v>1.043758546456574</v>
+        <v>1.039374995436167</v>
       </c>
       <c r="L2">
-        <v>1.006338083325064</v>
+        <v>1.028843141018787</v>
       </c>
       <c r="M2">
-        <v>0.9748811559305901</v>
+        <v>1.027057031097957</v>
       </c>
       <c r="N2">
-        <v>1.006570731417288</v>
+        <v>1.014245111639921</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9931504936304265</v>
+        <v>1.026975438004378</v>
       </c>
       <c r="D3">
-        <v>1.036300639162101</v>
+        <v>1.037252778767501</v>
       </c>
       <c r="E3">
-        <v>1.000053625778217</v>
+        <v>1.027090843599717</v>
       </c>
       <c r="F3">
-        <v>0.972131369191209</v>
+        <v>1.026119928692946</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047628717946294</v>
+        <v>1.036122666004603</v>
       </c>
       <c r="J3">
-        <v>1.013829640841748</v>
+        <v>1.031780762318228</v>
       </c>
       <c r="K3">
-        <v>1.046489195465376</v>
+        <v>1.03985610845312</v>
       </c>
       <c r="L3">
-        <v>1.010685820498454</v>
+        <v>1.029721424141658</v>
       </c>
       <c r="M3">
-        <v>0.9831337061138407</v>
+        <v>1.028753143468405</v>
       </c>
       <c r="N3">
-        <v>1.008123241402749</v>
+        <v>1.014546881665385</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9971733112848012</v>
+        <v>1.02778410373823</v>
       </c>
       <c r="D4">
-        <v>1.038543097511313</v>
+        <v>1.037686136142086</v>
       </c>
       <c r="E4">
-        <v>1.003354119622847</v>
+        <v>1.027783374195255</v>
       </c>
       <c r="F4">
-        <v>0.9779261865242684</v>
+        <v>1.027342507476574</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048949447345278</v>
+        <v>1.036326640842956</v>
       </c>
       <c r="J4">
-        <v>1.016649601481129</v>
+        <v>1.032354673639352</v>
       </c>
       <c r="K4">
-        <v>1.048197573901783</v>
+        <v>1.04016584423969</v>
       </c>
       <c r="L4">
-        <v>1.013412231240023</v>
+        <v>1.03028829704306</v>
       </c>
       <c r="M4">
-        <v>0.9882985318531972</v>
+        <v>1.029848565064724</v>
       </c>
       <c r="N4">
-        <v>1.0090949255286</v>
+        <v>1.014741354752175</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9988364891523924</v>
+        <v>1.028123747221922</v>
       </c>
       <c r="D5">
-        <v>1.039471334070349</v>
+        <v>1.037868105041781</v>
       </c>
       <c r="E5">
-        <v>1.004720084345015</v>
+        <v>1.028074314502005</v>
       </c>
       <c r="F5">
-        <v>0.9803193358959854</v>
+        <v>1.027856090312354</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049492274096914</v>
+        <v>1.036411903717188</v>
       </c>
       <c r="J5">
-        <v>1.017813848587822</v>
+        <v>1.032595517368804</v>
       </c>
       <c r="K5">
-        <v>1.048902358994078</v>
+        <v>1.040295680627231</v>
       </c>
       <c r="L5">
-        <v>1.014538694675439</v>
+        <v>1.030526270392548</v>
       </c>
       <c r="M5">
-        <v>0.9904305100733726</v>
+        <v>1.030308595141527</v>
       </c>
       <c r="N5">
-        <v>1.009495934396565</v>
+        <v>1.014822922784961</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9991141456444843</v>
+        <v>1.028180756269361</v>
       </c>
       <c r="D6">
-        <v>1.039626357573984</v>
+        <v>1.037898645856174</v>
       </c>
       <c r="E6">
-        <v>1.004948204687005</v>
+        <v>1.028123153064933</v>
       </c>
       <c r="F6">
-        <v>0.9807187158461519</v>
+        <v>1.027942300689823</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049582704381386</v>
+        <v>1.036426191137607</v>
       </c>
       <c r="J6">
-        <v>1.018008115663514</v>
+        <v>1.032635931071147</v>
       </c>
       <c r="K6">
-        <v>1.049019925121697</v>
+        <v>1.040317458672908</v>
       </c>
       <c r="L6">
-        <v>1.014726706045308</v>
+        <v>1.030566207328099</v>
       </c>
       <c r="M6">
-        <v>0.990786244514506</v>
+        <v>1.030385808111558</v>
       </c>
       <c r="N6">
-        <v>1.00956283714904</v>
+        <v>1.014836607401</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9971956427937276</v>
+        <v>1.027788643320338</v>
       </c>
       <c r="D7">
-        <v>1.03855555675887</v>
+        <v>1.037688568461772</v>
       </c>
       <c r="E7">
-        <v>1.003372454911871</v>
+        <v>1.027787262533429</v>
       </c>
       <c r="F7">
-        <v>0.977958329134657</v>
+        <v>1.027349371508698</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048956748694919</v>
+        <v>1.036327782046318</v>
       </c>
       <c r="J7">
-        <v>1.016665240304809</v>
+        <v>1.032357893484316</v>
       </c>
       <c r="K7">
-        <v>1.048207043243352</v>
+        <v>1.040167580598341</v>
       </c>
       <c r="L7">
-        <v>1.01342735922962</v>
+        <v>1.030291478186317</v>
       </c>
       <c r="M7">
-        <v>0.9883271706614871</v>
+        <v>1.029854713900763</v>
       </c>
       <c r="N7">
-        <v>1.009100312760159</v>
+        <v>1.014742445407209</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9889345673979396</v>
+        <v>1.026146948812308</v>
       </c>
       <c r="D8">
-        <v>1.033955014073803</v>
+        <v>1.036808656995076</v>
       </c>
       <c r="E8">
-        <v>0.996599859926099</v>
+        <v>1.026381591479339</v>
       </c>
       <c r="F8">
-        <v>0.9660476559617486</v>
+        <v>1.024867684805415</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046233613817591</v>
+        <v>1.035912302175802</v>
       </c>
       <c r="J8">
-        <v>1.010868697166899</v>
+        <v>1.031192093979305</v>
       </c>
       <c r="K8">
-        <v>1.044693877183378</v>
+        <v>1.039537916796022</v>
       </c>
       <c r="L8">
-        <v>1.007826086108562</v>
+        <v>1.0291402601713</v>
       </c>
       <c r="M8">
-        <v>0.9777080583774506</v>
+        <v>1.027630677395117</v>
       </c>
       <c r="N8">
-        <v>1.00710246473746</v>
+        <v>1.014347261024156</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9733487267874994</v>
+        <v>1.023243441563972</v>
       </c>
       <c r="D9">
-        <v>1.025330120121644</v>
+        <v>1.035251231467727</v>
       </c>
       <c r="E9">
-        <v>0.9838765343598436</v>
+        <v>1.023897948968765</v>
       </c>
       <c r="F9">
-        <v>0.943439621155178</v>
+        <v>1.020481151839236</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040993716434208</v>
+        <v>1.035164465641507</v>
       </c>
       <c r="J9">
-        <v>0.9998790320027614</v>
+        <v>1.029123793099687</v>
       </c>
       <c r="K9">
-        <v>1.038025179587327</v>
+        <v>1.038416253760886</v>
       </c>
       <c r="L9">
-        <v>0.9972367348600175</v>
+        <v>1.027100517269082</v>
       </c>
       <c r="M9">
-        <v>0.957522235528391</v>
+        <v>1.023695199293853</v>
       </c>
       <c r="N9">
-        <v>1.003310646974499</v>
+        <v>1.013644772216539</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9621381376823251</v>
+        <v>1.02130028550333</v>
       </c>
       <c r="D10">
-        <v>1.019179523056629</v>
+        <v>1.034208260329266</v>
       </c>
       <c r="E10">
-        <v>0.9747677066137957</v>
+        <v>1.022237464803667</v>
       </c>
       <c r="F10">
-        <v>0.9270362138911233</v>
+        <v>1.017546886943639</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037160681979374</v>
+        <v>1.034655269503343</v>
       </c>
       <c r="J10">
-        <v>0.9919388673117707</v>
+        <v>1.02773525415324</v>
       </c>
       <c r="K10">
-        <v>1.033210909978065</v>
+        <v>1.037660272816626</v>
       </c>
       <c r="L10">
-        <v>0.9896079889182139</v>
+        <v>1.025732966870358</v>
       </c>
       <c r="M10">
-        <v>0.9428608804341875</v>
+        <v>1.021059738379953</v>
       </c>
       <c r="N10">
-        <v>1.000569438755937</v>
+        <v>1.013172250755952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9570552255479291</v>
+        <v>1.020457026488083</v>
       </c>
       <c r="D11">
-        <v>1.016407447475262</v>
+        <v>1.033755519915431</v>
       </c>
       <c r="E11">
-        <v>0.9706493739045586</v>
+        <v>1.021517282901658</v>
       </c>
       <c r="F11">
-        <v>0.9195516171090543</v>
+        <v>1.016273779085741</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035408930990839</v>
+        <v>1.034432240761018</v>
       </c>
       <c r="J11">
-        <v>0.9883305042168815</v>
+        <v>1.027131650972387</v>
       </c>
       <c r="K11">
-        <v>1.031026437583614</v>
+        <v>1.0373309641242</v>
       </c>
       <c r="L11">
-        <v>0.9861468705952746</v>
+        <v>1.02513891995874</v>
       </c>
       <c r="M11">
-        <v>0.9361687869705848</v>
+        <v>1.019915585300954</v>
       </c>
       <c r="N11">
-        <v>0.9993236409684214</v>
+        <v>1.012966630792475</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9551294414802534</v>
+        <v>1.020143516527129</v>
       </c>
       <c r="D12">
-        <v>1.015360058517198</v>
+        <v>1.033587181607622</v>
       </c>
       <c r="E12">
-        <v>0.9690909301886189</v>
+        <v>1.021249593062902</v>
       </c>
       <c r="F12">
-        <v>0.9167074026916889</v>
+        <v>1.015800490477908</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034743286413616</v>
+        <v>1.03434901420156</v>
       </c>
       <c r="J12">
-        <v>0.9869621547877855</v>
+        <v>1.026907086846621</v>
       </c>
       <c r="K12">
-        <v>1.03019878416086</v>
+        <v>1.037208347808953</v>
       </c>
       <c r="L12">
-        <v>0.984835263860947</v>
+        <v>1.024917976262301</v>
       </c>
       <c r="M12">
-        <v>0.9336255089937775</v>
+        <v>1.019490133438023</v>
       </c>
       <c r="N12">
-        <v>0.9988512321373075</v>
+        <v>1.012890100305962</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9555442978417404</v>
+        <v>1.020210778527949</v>
       </c>
       <c r="D13">
-        <v>1.015585552749205</v>
+        <v>1.033623298472199</v>
       </c>
       <c r="E13">
-        <v>0.9694265658747026</v>
+        <v>1.021307021764182</v>
       </c>
       <c r="F13">
-        <v>0.917320517476491</v>
+        <v>1.015902030839628</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034886766821913</v>
+        <v>1.034366883973172</v>
       </c>
       <c r="J13">
-        <v>0.9872569830348095</v>
+        <v>1.02695527294103</v>
       </c>
       <c r="K13">
-        <v>1.030377075507342</v>
+        <v>1.037234662859573</v>
       </c>
       <c r="L13">
-        <v>0.9851178245368737</v>
+        <v>1.024965382550475</v>
       </c>
       <c r="M13">
-        <v>0.9341737598646961</v>
+        <v>1.01958141547005</v>
       </c>
       <c r="N13">
-        <v>0.998953017328027</v>
+        <v>1.012906523352904</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.956896831516283</v>
+        <v>1.020431117530135</v>
       </c>
       <c r="D14">
-        <v>1.016321239972305</v>
+        <v>1.033741608499793</v>
       </c>
       <c r="E14">
-        <v>0.9705211542185066</v>
+        <v>1.021495159320778</v>
       </c>
       <c r="F14">
-        <v>0.9193178640553311</v>
+        <v>1.016234665149557</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035354221096744</v>
+        <v>1.034425369065628</v>
       </c>
       <c r="J14">
-        <v>0.9882179836723095</v>
+        <v>1.027113095784705</v>
       </c>
       <c r="K14">
-        <v>1.030958362646826</v>
+        <v>1.037320834675757</v>
       </c>
       <c r="L14">
-        <v>0.9860389974241649</v>
+        <v>1.02512066258967</v>
       </c>
       <c r="M14">
-        <v>0.9359597701640189</v>
+        <v>1.019880426836281</v>
       </c>
       <c r="N14">
-        <v>0.9992847938530923</v>
+        <v>1.012960307910888</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9577250575536383</v>
+        <v>1.020566837562112</v>
       </c>
       <c r="D15">
-        <v>1.016772129421275</v>
+        <v>1.033814480606632</v>
       </c>
       <c r="E15">
-        <v>0.9711916791928955</v>
+        <v>1.021611052790985</v>
       </c>
       <c r="F15">
-        <v>0.9205397806654383</v>
+        <v>1.016439558677023</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035640214999434</v>
+        <v>1.034461352761047</v>
       </c>
       <c r="J15">
-        <v>0.988806291893279</v>
+        <v>1.027210287923165</v>
       </c>
       <c r="K15">
-        <v>1.031314320391701</v>
+        <v>1.037373888658639</v>
       </c>
       <c r="L15">
-        <v>0.9866030441205703</v>
+        <v>1.025216297419224</v>
       </c>
       <c r="M15">
-        <v>0.9370523727932398</v>
+        <v>1.020064595887679</v>
       </c>
       <c r="N15">
-        <v>0.9994879050122905</v>
+        <v>1.012993425888041</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9624703761494194</v>
+        <v>1.021356210082457</v>
       </c>
       <c r="D16">
-        <v>1.01936109127889</v>
+        <v>1.034238283386516</v>
       </c>
       <c r="E16">
-        <v>0.9750371483767112</v>
+        <v>1.022285235612798</v>
       </c>
       <c r="F16">
-        <v>0.9275243468571958</v>
+        <v>1.017631323769244</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037274907385613</v>
+        <v>1.034670017460285</v>
       </c>
       <c r="J16">
-        <v>0.9921745534805229</v>
+        <v>1.027775263233544</v>
       </c>
       <c r="K16">
-        <v>1.033353680296019</v>
+        <v>1.037682086457771</v>
       </c>
       <c r="L16">
-        <v>0.9898341794265314</v>
+        <v>1.025772351635543</v>
       </c>
       <c r="M16">
-        <v>0.9432972895405329</v>
+        <v>1.021135608000976</v>
       </c>
       <c r="N16">
-        <v>1.000650810942416</v>
+        <v>1.013185875555553</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9653835122856311</v>
+        <v>1.021850860075368</v>
       </c>
       <c r="D17">
-        <v>1.020955034685032</v>
+        <v>1.034503821213834</v>
       </c>
       <c r="E17">
-        <v>0.9774009966729635</v>
+        <v>1.022707813088559</v>
       </c>
       <c r="F17">
-        <v>0.9317989314677548</v>
+        <v>1.018378191887179</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038274913695085</v>
+        <v>1.034800225215571</v>
       </c>
       <c r="J17">
-        <v>0.9942401684578164</v>
+        <v>1.02812902288442</v>
       </c>
       <c r="K17">
-        <v>1.034605358302733</v>
+        <v>1.037874884048934</v>
       </c>
       <c r="L17">
-        <v>0.9918172209246777</v>
+        <v>1.026120640978285</v>
       </c>
       <c r="M17">
-        <v>0.947118675715001</v>
+        <v>1.021806617219224</v>
       </c>
       <c r="N17">
-        <v>1.001363973125478</v>
+        <v>1.013306321281206</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9670608881326449</v>
+        <v>1.022139202073031</v>
       </c>
       <c r="D18">
-        <v>1.021874356267354</v>
+        <v>1.034658596266812</v>
       </c>
       <c r="E18">
-        <v>0.9787631763960765</v>
+        <v>1.022954181725723</v>
       </c>
       <c r="F18">
-        <v>0.9342558932980468</v>
+        <v>1.018813582320847</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038849406762883</v>
+        <v>1.03487592790163</v>
       </c>
       <c r="J18">
-        <v>0.9954287674908675</v>
+        <v>1.02833513785962</v>
       </c>
       <c r="K18">
-        <v>1.035325897984983</v>
+        <v>1.037987150221741</v>
       </c>
       <c r="L18">
-        <v>0.9929588384446804</v>
+        <v>1.02632361034649</v>
       </c>
       <c r="M18">
-        <v>0.9493149156959245</v>
+        <v>1.022197718901869</v>
       </c>
       <c r="N18">
-        <v>1.001774333266821</v>
+        <v>1.01337647740497</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9676292269091988</v>
+        <v>1.022237489084969</v>
       </c>
       <c r="D19">
-        <v>1.022186095911882</v>
+        <v>1.034711352158448</v>
       </c>
       <c r="E19">
-        <v>0.9792248982127889</v>
+        <v>1.023038167928619</v>
       </c>
       <c r="F19">
-        <v>0.9350876787803176</v>
+        <v>1.018961998123803</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039043834560133</v>
+        <v>1.03490169900373</v>
       </c>
       <c r="J19">
-        <v>0.9958313638626067</v>
+        <v>1.028405379378325</v>
       </c>
       <c r="K19">
-        <v>1.035569999651915</v>
+        <v>1.038025397999778</v>
       </c>
       <c r="L19">
-        <v>0.9933456106568445</v>
+        <v>1.026392786935069</v>
       </c>
       <c r="M19">
-        <v>0.9500583930892079</v>
+        <v>1.02233102628846</v>
       </c>
       <c r="N19">
-        <v>1.001913326158854</v>
+        <v>1.013400382283802</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9650732390718835</v>
+        <v>1.02179780737414</v>
       </c>
       <c r="D20">
-        <v>1.020785104507562</v>
+        <v>1.03447534276632</v>
       </c>
       <c r="E20">
-        <v>0.9771491137401546</v>
+        <v>1.022662486316031</v>
       </c>
       <c r="F20">
-        <v>0.9313441121310646</v>
+        <v>1.01829808547923</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038168539786801</v>
+        <v>1.034786280540006</v>
       </c>
       <c r="J20">
-        <v>0.9940202439250398</v>
+        <v>1.028091091343211</v>
       </c>
       <c r="K20">
-        <v>1.034472060579907</v>
+        <v>1.037854218292892</v>
       </c>
       <c r="L20">
-        <v>0.9916060322089192</v>
+        <v>1.026083291677687</v>
       </c>
       <c r="M20">
-        <v>0.9467121001990243</v>
+        <v>1.021734654037275</v>
       </c>
       <c r="N20">
-        <v>1.001288043968658</v>
+        <v>1.013293408725592</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9564996164321309</v>
+        <v>1.020366241134808</v>
       </c>
       <c r="D21">
-        <v>1.016105099418215</v>
+        <v>1.033706773856713</v>
       </c>
       <c r="E21">
-        <v>0.9701996401286638</v>
+        <v>1.021439762567866</v>
       </c>
       <c r="F21">
-        <v>0.9187315244960833</v>
+        <v>1.016136723800207</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035216990598549</v>
+        <v>1.034408157270296</v>
       </c>
       <c r="J21">
-        <v>0.9879357887192867</v>
+        <v>1.027066630841987</v>
       </c>
       <c r="K21">
-        <v>1.030787647304942</v>
+        <v>1.037295467416797</v>
       </c>
       <c r="L21">
-        <v>0.9857684725253499</v>
+        <v>1.025074944481038</v>
       </c>
       <c r="M21">
-        <v>0.9354354752367022</v>
+        <v>1.019792388325737</v>
       </c>
       <c r="N21">
-        <v>0.9991873679439456</v>
+        <v>1.012944473965129</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.950888473228613</v>
+        <v>1.019464500489519</v>
       </c>
       <c r="D22">
-        <v>1.013059267664272</v>
+        <v>1.033222557893122</v>
       </c>
       <c r="E22">
-        <v>0.9656625660624444</v>
+        <v>1.02066993099968</v>
       </c>
       <c r="F22">
-        <v>0.9104264130677657</v>
+        <v>1.014775469419329</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033273951446301</v>
+        <v>1.034168195055629</v>
       </c>
       <c r="J22">
-        <v>0.9839464975676629</v>
+        <v>1.026420432135478</v>
       </c>
       <c r="K22">
-        <v>1.028376382451353</v>
+        <v>1.036942442974824</v>
       </c>
       <c r="L22">
-        <v>0.9819463877283654</v>
+        <v>1.024439286748279</v>
       </c>
       <c r="M22">
-        <v>0.928008847943971</v>
+        <v>1.018568525776715</v>
       </c>
       <c r="N22">
-        <v>0.9978101736781714</v>
+        <v>1.01272419259779</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9538852287216969</v>
+        <v>1.019942689667876</v>
       </c>
       <c r="D23">
-        <v>1.014684223152629</v>
+        <v>1.033479343769951</v>
       </c>
       <c r="E23">
-        <v>0.9680845992582058</v>
+        <v>1.02107813502901</v>
       </c>
       <c r="F23">
-        <v>0.914867218209011</v>
+        <v>1.015497321555955</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034312692835478</v>
+        <v>1.034295614650925</v>
       </c>
       <c r="J23">
-        <v>0.9860777427208718</v>
+        <v>1.026763193102245</v>
       </c>
       <c r="K23">
-        <v>1.029664080896779</v>
+        <v>1.037129750984073</v>
       </c>
       <c r="L23">
-        <v>0.9839877880569632</v>
+        <v>1.024776420730132</v>
       </c>
       <c r="M23">
-        <v>0.9319799841828632</v>
+        <v>1.019217577693357</v>
       </c>
       <c r="N23">
-        <v>0.9985459066005551</v>
+        <v>1.012841053022618</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9652135053205249</v>
+        <v>1.021821780158686</v>
       </c>
       <c r="D24">
-        <v>1.02086192067465</v>
+        <v>1.034488211286717</v>
       </c>
       <c r="E24">
-        <v>0.9772629799466905</v>
+        <v>1.022682967884314</v>
       </c>
       <c r="F24">
-        <v>0.9315497371897458</v>
+        <v>1.01833428287253</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038216632668072</v>
+        <v>1.034792582296473</v>
       </c>
       <c r="J24">
-        <v>0.9941196683568276</v>
+        <v>1.028108231675073</v>
       </c>
       <c r="K24">
-        <v>1.034532321482256</v>
+        <v>1.037863556843681</v>
       </c>
       <c r="L24">
-        <v>0.9917015056614875</v>
+        <v>1.026100168780686</v>
       </c>
       <c r="M24">
-        <v>0.9468959148221752</v>
+        <v>1.021767171985789</v>
       </c>
       <c r="N24">
-        <v>1.00132237037843</v>
+        <v>1.013299243655824</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9775122174155674</v>
+        <v>1.023995362144953</v>
       </c>
       <c r="D25">
-        <v>1.027626280949478</v>
+        <v>1.03565468629461</v>
       </c>
       <c r="E25">
-        <v>0.9872685178439884</v>
+        <v>1.024540844887865</v>
       </c>
       <c r="F25">
-        <v>0.9494992325839733</v>
+        <v>1.021616860100078</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042404772894507</v>
+        <v>1.035359668663282</v>
       </c>
       <c r="J25">
-        <v>1.002820830981163</v>
+        <v>1.029660184669696</v>
       </c>
       <c r="K25">
-        <v>1.039810354220317</v>
+        <v>1.038707672327926</v>
       </c>
       <c r="L25">
-        <v>1.000067742084852</v>
+        <v>1.027629184054075</v>
       </c>
       <c r="M25">
-        <v>0.9629355944971313</v>
+        <v>1.024714640409229</v>
       </c>
       <c r="N25">
-        <v>1.004326028277157</v>
+        <v>1.01382711610304</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02572360017603</v>
+        <v>0.9867422142856966</v>
       </c>
       <c r="D2">
-        <v>1.036581664324456</v>
+        <v>1.032737203841682</v>
       </c>
       <c r="E2">
-        <v>1.026019270175057</v>
+        <v>0.994805909107855</v>
       </c>
       <c r="F2">
-        <v>1.02422791284009</v>
+        <v>0.9628792455122885</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035804277293185</v>
+        <v>1.045504021159873</v>
       </c>
       <c r="J2">
-        <v>1.030891027493712</v>
+        <v>1.009326825892177</v>
       </c>
       <c r="K2">
-        <v>1.039374995436167</v>
+        <v>1.043758546456574</v>
       </c>
       <c r="L2">
-        <v>1.028843141018787</v>
+        <v>1.006338083325065</v>
       </c>
       <c r="M2">
-        <v>1.027057031097957</v>
+        <v>0.9748811559305909</v>
       </c>
       <c r="N2">
-        <v>1.014245111639921</v>
+        <v>1.006570731417288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026975438004378</v>
+        <v>0.9931504936304261</v>
       </c>
       <c r="D3">
-        <v>1.037252778767501</v>
+        <v>1.036300639162101</v>
       </c>
       <c r="E3">
-        <v>1.027090843599717</v>
+        <v>1.000053625778216</v>
       </c>
       <c r="F3">
-        <v>1.026119928692946</v>
+        <v>0.9721313691912081</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036122666004603</v>
+        <v>1.047628717946294</v>
       </c>
       <c r="J3">
-        <v>1.031780762318228</v>
+        <v>1.013829640841748</v>
       </c>
       <c r="K3">
-        <v>1.03985610845312</v>
+        <v>1.046489195465375</v>
       </c>
       <c r="L3">
-        <v>1.029721424141658</v>
+        <v>1.010685820498453</v>
       </c>
       <c r="M3">
-        <v>1.028753143468405</v>
+        <v>0.9831337061138399</v>
       </c>
       <c r="N3">
-        <v>1.014546881665385</v>
+        <v>1.008123241402748</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02778410373823</v>
+        <v>0.9971733112848009</v>
       </c>
       <c r="D4">
-        <v>1.037686136142086</v>
+        <v>1.038543097511313</v>
       </c>
       <c r="E4">
-        <v>1.027783374195255</v>
+        <v>1.003354119622847</v>
       </c>
       <c r="F4">
-        <v>1.027342507476574</v>
+        <v>0.9779261865242687</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036326640842956</v>
+        <v>1.048949447345278</v>
       </c>
       <c r="J4">
-        <v>1.032354673639352</v>
+        <v>1.016649601481129</v>
       </c>
       <c r="K4">
-        <v>1.04016584423969</v>
+        <v>1.048197573901783</v>
       </c>
       <c r="L4">
-        <v>1.03028829704306</v>
+        <v>1.013412231240023</v>
       </c>
       <c r="M4">
-        <v>1.029848565064724</v>
+        <v>0.9882985318531972</v>
       </c>
       <c r="N4">
-        <v>1.014741354752175</v>
+        <v>1.0090949255286</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028123747221922</v>
+        <v>0.9988364891523931</v>
       </c>
       <c r="D5">
-        <v>1.037868105041781</v>
+        <v>1.03947133407035</v>
       </c>
       <c r="E5">
-        <v>1.028074314502005</v>
+        <v>1.004720084345016</v>
       </c>
       <c r="F5">
-        <v>1.027856090312354</v>
+        <v>0.9803193358959863</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036411903717188</v>
+        <v>1.049492274096914</v>
       </c>
       <c r="J5">
-        <v>1.032595517368804</v>
+        <v>1.017813848587823</v>
       </c>
       <c r="K5">
-        <v>1.040295680627231</v>
+        <v>1.048902358994078</v>
       </c>
       <c r="L5">
-        <v>1.030526270392548</v>
+        <v>1.01453869467544</v>
       </c>
       <c r="M5">
-        <v>1.030308595141527</v>
+        <v>0.9904305100733735</v>
       </c>
       <c r="N5">
-        <v>1.014822922784961</v>
+        <v>1.009495934396565</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028180756269361</v>
+        <v>0.9991141456444848</v>
       </c>
       <c r="D6">
-        <v>1.037898645856174</v>
+        <v>1.039626357573985</v>
       </c>
       <c r="E6">
-        <v>1.028123153064933</v>
+        <v>1.004948204687006</v>
       </c>
       <c r="F6">
-        <v>1.027942300689823</v>
+        <v>0.9807187158461524</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036426191137607</v>
+        <v>1.049582704381386</v>
       </c>
       <c r="J6">
-        <v>1.032635931071147</v>
+        <v>1.018008115663514</v>
       </c>
       <c r="K6">
-        <v>1.040317458672908</v>
+        <v>1.049019925121697</v>
       </c>
       <c r="L6">
-        <v>1.030566207328099</v>
+        <v>1.014726706045308</v>
       </c>
       <c r="M6">
-        <v>1.030385808111558</v>
+        <v>0.9907862445145066</v>
       </c>
       <c r="N6">
-        <v>1.014836607401</v>
+        <v>1.009562837149041</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027788643320338</v>
+        <v>0.9971956427937263</v>
       </c>
       <c r="D7">
-        <v>1.037688568461772</v>
+        <v>1.038555556758869</v>
       </c>
       <c r="E7">
-        <v>1.027787262533429</v>
+        <v>1.003372454911869</v>
       </c>
       <c r="F7">
-        <v>1.027349371508698</v>
+        <v>0.9779583291346551</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036327782046318</v>
+        <v>1.048956748694919</v>
       </c>
       <c r="J7">
-        <v>1.032357893484316</v>
+        <v>1.016665240304808</v>
       </c>
       <c r="K7">
-        <v>1.040167580598341</v>
+        <v>1.048207043243351</v>
       </c>
       <c r="L7">
-        <v>1.030291478186317</v>
+        <v>1.013427359229619</v>
       </c>
       <c r="M7">
-        <v>1.029854713900763</v>
+        <v>0.9883271706614853</v>
       </c>
       <c r="N7">
-        <v>1.014742445407209</v>
+        <v>1.009100312760159</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026146948812308</v>
+        <v>0.9889345673979406</v>
       </c>
       <c r="D8">
-        <v>1.036808656995076</v>
+        <v>1.033955014073803</v>
       </c>
       <c r="E8">
-        <v>1.026381591479339</v>
+        <v>0.9965998599260999</v>
       </c>
       <c r="F8">
-        <v>1.024867684805415</v>
+        <v>0.9660476559617498</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035912302175802</v>
+        <v>1.046233613817591</v>
       </c>
       <c r="J8">
-        <v>1.031192093979305</v>
+        <v>1.0108686971669</v>
       </c>
       <c r="K8">
-        <v>1.039537916796022</v>
+        <v>1.044693877183378</v>
       </c>
       <c r="L8">
-        <v>1.0291402601713</v>
+        <v>1.007826086108563</v>
       </c>
       <c r="M8">
-        <v>1.027630677395117</v>
+        <v>0.9777080583774516</v>
       </c>
       <c r="N8">
-        <v>1.014347261024156</v>
+        <v>1.00710246473746</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023243441563972</v>
+        <v>0.9733487267874992</v>
       </c>
       <c r="D9">
-        <v>1.035251231467727</v>
+        <v>1.025330120121643</v>
       </c>
       <c r="E9">
-        <v>1.023897948968765</v>
+        <v>0.9838765343598433</v>
       </c>
       <c r="F9">
-        <v>1.020481151839236</v>
+        <v>0.943439621155178</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035164465641507</v>
+        <v>1.040993716434208</v>
       </c>
       <c r="J9">
-        <v>1.029123793099687</v>
+        <v>0.9998790320027608</v>
       </c>
       <c r="K9">
-        <v>1.038416253760886</v>
+        <v>1.038025179587326</v>
       </c>
       <c r="L9">
-        <v>1.027100517269082</v>
+        <v>0.9972367348600173</v>
       </c>
       <c r="M9">
-        <v>1.023695199293853</v>
+        <v>0.957522235528391</v>
       </c>
       <c r="N9">
-        <v>1.013644772216539</v>
+        <v>1.003310646974499</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02130028550333</v>
+        <v>0.9621381376823255</v>
       </c>
       <c r="D10">
-        <v>1.034208260329266</v>
+        <v>1.019179523056629</v>
       </c>
       <c r="E10">
-        <v>1.022237464803667</v>
+        <v>0.9747677066137957</v>
       </c>
       <c r="F10">
-        <v>1.017546886943639</v>
+        <v>0.9270362138911239</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034655269503343</v>
+        <v>1.037160681979374</v>
       </c>
       <c r="J10">
-        <v>1.02773525415324</v>
+        <v>0.9919388673117709</v>
       </c>
       <c r="K10">
-        <v>1.037660272816626</v>
+        <v>1.033210909978065</v>
       </c>
       <c r="L10">
-        <v>1.025732966870358</v>
+        <v>0.989607988918214</v>
       </c>
       <c r="M10">
-        <v>1.021059738379953</v>
+        <v>0.9428608804341878</v>
       </c>
       <c r="N10">
-        <v>1.013172250755952</v>
+        <v>1.000569438755937</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020457026488083</v>
+        <v>0.9570552255479297</v>
       </c>
       <c r="D11">
-        <v>1.033755519915431</v>
+        <v>1.016407447475264</v>
       </c>
       <c r="E11">
-        <v>1.021517282901658</v>
+        <v>0.9706493739045589</v>
       </c>
       <c r="F11">
-        <v>1.016273779085741</v>
+        <v>0.9195516171090552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034432240761018</v>
+        <v>1.03540893099084</v>
       </c>
       <c r="J11">
-        <v>1.027131650972387</v>
+        <v>0.9883305042168818</v>
       </c>
       <c r="K11">
-        <v>1.0373309641242</v>
+        <v>1.031026437583615</v>
       </c>
       <c r="L11">
-        <v>1.02513891995874</v>
+        <v>0.9861468705952749</v>
       </c>
       <c r="M11">
-        <v>1.019915585300954</v>
+        <v>0.9361687869705856</v>
       </c>
       <c r="N11">
-        <v>1.012966630792475</v>
+        <v>0.9993236409684215</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020143516527129</v>
+        <v>0.9551294414802538</v>
       </c>
       <c r="D12">
-        <v>1.033587181607622</v>
+        <v>1.015360058517197</v>
       </c>
       <c r="E12">
-        <v>1.021249593062902</v>
+        <v>0.9690909301886191</v>
       </c>
       <c r="F12">
-        <v>1.015800490477908</v>
+        <v>0.9167074026916896</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03434901420156</v>
+        <v>1.034743286413616</v>
       </c>
       <c r="J12">
-        <v>1.026907086846621</v>
+        <v>0.9869621547877857</v>
       </c>
       <c r="K12">
-        <v>1.037208347808953</v>
+        <v>1.03019878416086</v>
       </c>
       <c r="L12">
-        <v>1.024917976262301</v>
+        <v>0.9848352638609474</v>
       </c>
       <c r="M12">
-        <v>1.019490133438023</v>
+        <v>0.9336255089937779</v>
       </c>
       <c r="N12">
-        <v>1.012890100305962</v>
+        <v>0.9988512321373074</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020210778527949</v>
+        <v>0.955544297841741</v>
       </c>
       <c r="D13">
-        <v>1.033623298472199</v>
+        <v>1.015585552749205</v>
       </c>
       <c r="E13">
-        <v>1.021307021764182</v>
+        <v>0.9694265658747029</v>
       </c>
       <c r="F13">
-        <v>1.015902030839628</v>
+        <v>0.9173205174764918</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034366883973172</v>
+        <v>1.034886766821913</v>
       </c>
       <c r="J13">
-        <v>1.02695527294103</v>
+        <v>0.9872569830348101</v>
       </c>
       <c r="K13">
-        <v>1.037234662859573</v>
+        <v>1.030377075507343</v>
       </c>
       <c r="L13">
-        <v>1.024965382550475</v>
+        <v>0.9851178245368739</v>
       </c>
       <c r="M13">
-        <v>1.01958141547005</v>
+        <v>0.9341737598646968</v>
       </c>
       <c r="N13">
-        <v>1.012906523352904</v>
+        <v>0.9989530173280272</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020431117530135</v>
+        <v>0.9568968315162844</v>
       </c>
       <c r="D14">
-        <v>1.033741608499793</v>
+        <v>1.016321239972307</v>
       </c>
       <c r="E14">
-        <v>1.021495159320778</v>
+        <v>0.970521154218508</v>
       </c>
       <c r="F14">
-        <v>1.016234665149557</v>
+        <v>0.9193178640553324</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034425369065628</v>
+        <v>1.035354221096744</v>
       </c>
       <c r="J14">
-        <v>1.027113095784705</v>
+        <v>0.9882179836723107</v>
       </c>
       <c r="K14">
-        <v>1.037320834675757</v>
+        <v>1.030958362646827</v>
       </c>
       <c r="L14">
-        <v>1.02512066258967</v>
+        <v>0.9860389974241663</v>
       </c>
       <c r="M14">
-        <v>1.019880426836281</v>
+        <v>0.93595977016402</v>
       </c>
       <c r="N14">
-        <v>1.012960307910888</v>
+        <v>0.9992847938530929</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020566837562112</v>
+        <v>0.9577250575536371</v>
       </c>
       <c r="D15">
-        <v>1.033814480606632</v>
+        <v>1.016772129421275</v>
       </c>
       <c r="E15">
-        <v>1.021611052790985</v>
+        <v>0.9711916791928943</v>
       </c>
       <c r="F15">
-        <v>1.016439558677023</v>
+        <v>0.9205397806654365</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034461352761047</v>
+        <v>1.035640214999434</v>
       </c>
       <c r="J15">
-        <v>1.027210287923165</v>
+        <v>0.9888062918932781</v>
       </c>
       <c r="K15">
-        <v>1.037373888658639</v>
+        <v>1.0313143203917</v>
       </c>
       <c r="L15">
-        <v>1.025216297419224</v>
+        <v>0.9866030441205691</v>
       </c>
       <c r="M15">
-        <v>1.020064595887679</v>
+        <v>0.9370523727932384</v>
       </c>
       <c r="N15">
-        <v>1.012993425888041</v>
+        <v>0.9994879050122901</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021356210082457</v>
+        <v>0.9624703761494187</v>
       </c>
       <c r="D16">
-        <v>1.034238283386516</v>
+        <v>1.019361091278889</v>
       </c>
       <c r="E16">
-        <v>1.022285235612798</v>
+        <v>0.9750371483767103</v>
       </c>
       <c r="F16">
-        <v>1.017631323769244</v>
+        <v>0.9275243468571943</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034670017460285</v>
+        <v>1.037274907385613</v>
       </c>
       <c r="J16">
-        <v>1.027775263233544</v>
+        <v>0.992174553480522</v>
       </c>
       <c r="K16">
-        <v>1.037682086457771</v>
+        <v>1.033353680296018</v>
       </c>
       <c r="L16">
-        <v>1.025772351635543</v>
+        <v>0.9898341794265306</v>
       </c>
       <c r="M16">
-        <v>1.021135608000976</v>
+        <v>0.9432972895405317</v>
       </c>
       <c r="N16">
-        <v>1.013185875555553</v>
+        <v>1.000650810942415</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021850860075368</v>
+        <v>0.9653835122856307</v>
       </c>
       <c r="D17">
-        <v>1.034503821213834</v>
+        <v>1.020955034685031</v>
       </c>
       <c r="E17">
-        <v>1.022707813088559</v>
+        <v>0.9774009966729625</v>
       </c>
       <c r="F17">
-        <v>1.018378191887179</v>
+        <v>0.9317989314677541</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034800225215571</v>
+        <v>1.038274913695085</v>
       </c>
       <c r="J17">
-        <v>1.02812902288442</v>
+        <v>0.9942401684578157</v>
       </c>
       <c r="K17">
-        <v>1.037874884048934</v>
+        <v>1.034605358302733</v>
       </c>
       <c r="L17">
-        <v>1.026120640978285</v>
+        <v>0.9918172209246768</v>
       </c>
       <c r="M17">
-        <v>1.021806617219224</v>
+        <v>0.9471186757150001</v>
       </c>
       <c r="N17">
-        <v>1.013306321281206</v>
+        <v>1.001363973125478</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022139202073031</v>
+        <v>0.9670608881326445</v>
       </c>
       <c r="D18">
-        <v>1.034658596266812</v>
+        <v>1.021874356267353</v>
       </c>
       <c r="E18">
-        <v>1.022954181725723</v>
+        <v>0.9787631763960761</v>
       </c>
       <c r="F18">
-        <v>1.018813582320847</v>
+        <v>0.9342558932980465</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03487592790163</v>
+        <v>1.038849406762883</v>
       </c>
       <c r="J18">
-        <v>1.02833513785962</v>
+        <v>0.9954287674908671</v>
       </c>
       <c r="K18">
-        <v>1.037987150221741</v>
+        <v>1.035325897984982</v>
       </c>
       <c r="L18">
-        <v>1.02632361034649</v>
+        <v>0.9929588384446798</v>
       </c>
       <c r="M18">
-        <v>1.022197718901869</v>
+        <v>0.9493149156959242</v>
       </c>
       <c r="N18">
-        <v>1.01337647740497</v>
+        <v>1.001774333266821</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022237489084969</v>
+        <v>0.9676292269091983</v>
       </c>
       <c r="D19">
-        <v>1.034711352158448</v>
+        <v>1.022186095911882</v>
       </c>
       <c r="E19">
-        <v>1.023038167928619</v>
+        <v>0.9792248982127882</v>
       </c>
       <c r="F19">
-        <v>1.018961998123803</v>
+        <v>0.9350876787803165</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03490169900373</v>
+        <v>1.039043834560133</v>
       </c>
       <c r="J19">
-        <v>1.028405379378325</v>
+        <v>0.9958313638626061</v>
       </c>
       <c r="K19">
-        <v>1.038025397999778</v>
+        <v>1.035569999651915</v>
       </c>
       <c r="L19">
-        <v>1.026392786935069</v>
+        <v>0.9933456106568437</v>
       </c>
       <c r="M19">
-        <v>1.02233102628846</v>
+        <v>0.9500583930892068</v>
       </c>
       <c r="N19">
-        <v>1.013400382283802</v>
+        <v>1.001913326158854</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02179780737414</v>
+        <v>0.9650732390718841</v>
       </c>
       <c r="D20">
-        <v>1.03447534276632</v>
+        <v>1.020785104507562</v>
       </c>
       <c r="E20">
-        <v>1.022662486316031</v>
+        <v>0.9771491137401548</v>
       </c>
       <c r="F20">
-        <v>1.01829808547923</v>
+        <v>0.9313441121310654</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034786280540006</v>
+        <v>1.038168539786801</v>
       </c>
       <c r="J20">
-        <v>1.028091091343211</v>
+        <v>0.9940202439250403</v>
       </c>
       <c r="K20">
-        <v>1.037854218292892</v>
+        <v>1.034472060579908</v>
       </c>
       <c r="L20">
-        <v>1.026083291677687</v>
+        <v>0.9916060322089196</v>
       </c>
       <c r="M20">
-        <v>1.021734654037275</v>
+        <v>0.9467121001990252</v>
       </c>
       <c r="N20">
-        <v>1.013293408725592</v>
+        <v>1.001288043968658</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020366241134808</v>
+        <v>0.9564996164321304</v>
       </c>
       <c r="D21">
-        <v>1.033706773856713</v>
+        <v>1.016105099418215</v>
       </c>
       <c r="E21">
-        <v>1.021439762567866</v>
+        <v>0.9701996401286631</v>
       </c>
       <c r="F21">
-        <v>1.016136723800207</v>
+        <v>0.918731524496083</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034408157270296</v>
+        <v>1.035216990598548</v>
       </c>
       <c r="J21">
-        <v>1.027066630841987</v>
+        <v>0.987935788719286</v>
       </c>
       <c r="K21">
-        <v>1.037295467416797</v>
+        <v>1.030787647304941</v>
       </c>
       <c r="L21">
-        <v>1.025074944481038</v>
+        <v>0.9857684725253493</v>
       </c>
       <c r="M21">
-        <v>1.019792388325737</v>
+        <v>0.9354354752367018</v>
       </c>
       <c r="N21">
-        <v>1.012944473965129</v>
+        <v>0.9991873679439452</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019464500489519</v>
+        <v>0.9508884732286133</v>
       </c>
       <c r="D22">
-        <v>1.033222557893122</v>
+        <v>1.013059267664272</v>
       </c>
       <c r="E22">
-        <v>1.02066993099968</v>
+        <v>0.9656625660624447</v>
       </c>
       <c r="F22">
-        <v>1.014775469419329</v>
+        <v>0.9104264130677657</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034168195055629</v>
+        <v>1.033273951446301</v>
       </c>
       <c r="J22">
-        <v>1.026420432135478</v>
+        <v>0.9839464975676634</v>
       </c>
       <c r="K22">
-        <v>1.036942442974824</v>
+        <v>1.028376382451353</v>
       </c>
       <c r="L22">
-        <v>1.024439286748279</v>
+        <v>0.9819463877283658</v>
       </c>
       <c r="M22">
-        <v>1.018568525776715</v>
+        <v>0.9280088479439711</v>
       </c>
       <c r="N22">
-        <v>1.01272419259779</v>
+        <v>0.9978101736781714</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019942689667876</v>
+        <v>0.9538852287216967</v>
       </c>
       <c r="D23">
-        <v>1.033479343769951</v>
+        <v>1.014684223152629</v>
       </c>
       <c r="E23">
-        <v>1.02107813502901</v>
+        <v>0.9680845992582054</v>
       </c>
       <c r="F23">
-        <v>1.015497321555955</v>
+        <v>0.9148672182090102</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034295614650925</v>
+        <v>1.034312692835478</v>
       </c>
       <c r="J23">
-        <v>1.026763193102245</v>
+        <v>0.9860777427208717</v>
       </c>
       <c r="K23">
-        <v>1.037129750984073</v>
+        <v>1.029664080896779</v>
       </c>
       <c r="L23">
-        <v>1.024776420730132</v>
+        <v>0.983987788056963</v>
       </c>
       <c r="M23">
-        <v>1.019217577693357</v>
+        <v>0.9319799841828628</v>
       </c>
       <c r="N23">
-        <v>1.012841053022618</v>
+        <v>0.998545906600555</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021821780158686</v>
+        <v>0.9652135053205256</v>
       </c>
       <c r="D24">
-        <v>1.034488211286717</v>
+        <v>1.02086192067465</v>
       </c>
       <c r="E24">
-        <v>1.022682967884314</v>
+        <v>0.9772629799466913</v>
       </c>
       <c r="F24">
-        <v>1.01833428287253</v>
+        <v>0.9315497371897475</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034792582296473</v>
+        <v>1.038216632668073</v>
       </c>
       <c r="J24">
-        <v>1.028108231675073</v>
+        <v>0.9941196683568284</v>
       </c>
       <c r="K24">
-        <v>1.037863556843681</v>
+        <v>1.034532321482257</v>
       </c>
       <c r="L24">
-        <v>1.026100168780686</v>
+        <v>0.9917015056614882</v>
       </c>
       <c r="M24">
-        <v>1.021767171985789</v>
+        <v>0.9468959148221768</v>
       </c>
       <c r="N24">
-        <v>1.013299243655824</v>
+        <v>1.00132237037843</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023995362144953</v>
+        <v>0.9775122174155672</v>
       </c>
       <c r="D25">
-        <v>1.03565468629461</v>
+        <v>1.027626280949478</v>
       </c>
       <c r="E25">
-        <v>1.024540844887865</v>
+        <v>0.9872685178439881</v>
       </c>
       <c r="F25">
-        <v>1.021616860100078</v>
+        <v>0.9494992325839728</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035359668663282</v>
+        <v>1.042404772894507</v>
       </c>
       <c r="J25">
-        <v>1.029660184669696</v>
+        <v>1.002820830981163</v>
       </c>
       <c r="K25">
-        <v>1.038707672327926</v>
+        <v>1.039810354220317</v>
       </c>
       <c r="L25">
-        <v>1.027629184054075</v>
+        <v>1.000067742084852</v>
       </c>
       <c r="M25">
-        <v>1.024714640409229</v>
+        <v>0.9629355944971307</v>
       </c>
       <c r="N25">
-        <v>1.01382711610304</v>
+        <v>1.004326028277158</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9867422142856966</v>
+        <v>1.010007061401933</v>
       </c>
       <c r="D2">
-        <v>1.032737203841682</v>
+        <v>1.045112413219753</v>
       </c>
       <c r="E2">
-        <v>0.994805909107855</v>
+        <v>1.026863129696023</v>
       </c>
       <c r="F2">
-        <v>0.9628792455122885</v>
+        <v>1.041919569453016</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045504021159873</v>
+        <v>1.056146313775152</v>
       </c>
       <c r="J2">
-        <v>1.009326825892177</v>
+        <v>1.031892527817095</v>
       </c>
       <c r="K2">
-        <v>1.043758546456574</v>
+        <v>1.05597709894084</v>
       </c>
       <c r="L2">
-        <v>1.006338083325065</v>
+        <v>1.037960486388256</v>
       </c>
       <c r="M2">
-        <v>0.9748811559305909</v>
+        <v>1.052824228868701</v>
       </c>
       <c r="N2">
-        <v>1.006570731417288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014524730017153</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050379157811607</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.050650818608648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9931504936304261</v>
+        <v>1.013357788510107</v>
       </c>
       <c r="D3">
-        <v>1.036300639162101</v>
+        <v>1.047107561766021</v>
       </c>
       <c r="E3">
-        <v>1.000053625778216</v>
+        <v>1.029394680345249</v>
       </c>
       <c r="F3">
-        <v>0.9721313691912081</v>
+        <v>1.044287383512714</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047628717946294</v>
+        <v>1.05691370059765</v>
       </c>
       <c r="J3">
-        <v>1.013829640841748</v>
+        <v>1.033490813922234</v>
       </c>
       <c r="K3">
-        <v>1.046489195465375</v>
+        <v>1.057171187352423</v>
       </c>
       <c r="L3">
-        <v>1.010685820498453</v>
+        <v>1.039664773536617</v>
       </c>
       <c r="M3">
-        <v>0.9831337061138399</v>
+        <v>1.054383303196532</v>
       </c>
       <c r="N3">
-        <v>1.008123241402748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015061554937944</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051613042979876</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.051492491634412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9971733112848009</v>
+        <v>1.015490952042618</v>
       </c>
       <c r="D4">
-        <v>1.038543097511313</v>
+        <v>1.04838209976922</v>
       </c>
       <c r="E4">
-        <v>1.003354119622847</v>
+        <v>1.031012387066214</v>
       </c>
       <c r="F4">
-        <v>0.9779261865242687</v>
+        <v>1.045801495370009</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048949447345278</v>
+        <v>1.057393420674108</v>
       </c>
       <c r="J4">
-        <v>1.016649601481129</v>
+        <v>1.034506530246241</v>
       </c>
       <c r="K4">
-        <v>1.048197573901783</v>
+        <v>1.057929662349921</v>
       </c>
       <c r="L4">
-        <v>1.013412231240023</v>
+        <v>1.04075039108332</v>
       </c>
       <c r="M4">
-        <v>0.9882985318531972</v>
+        <v>1.055376860977196</v>
       </c>
       <c r="N4">
-        <v>1.0090949255286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015402734915123</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052399365053414</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.052029661642319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9988364891523931</v>
+        <v>1.016380978479512</v>
       </c>
       <c r="D5">
-        <v>1.03947133407035</v>
+        <v>1.048918527564282</v>
       </c>
       <c r="E5">
-        <v>1.004720084345016</v>
+        <v>1.031689377050655</v>
       </c>
       <c r="F5">
-        <v>0.9803193358959863</v>
+        <v>1.046436109438134</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049492274096914</v>
+        <v>1.057593087257594</v>
       </c>
       <c r="J5">
-        <v>1.017813848587823</v>
+        <v>1.034930568165832</v>
       </c>
       <c r="K5">
-        <v>1.048902358994078</v>
+        <v>1.05824961562089</v>
       </c>
       <c r="L5">
-        <v>1.01453869467544</v>
+        <v>1.041204409802108</v>
       </c>
       <c r="M5">
-        <v>0.9904305100733735</v>
+        <v>1.055793243987533</v>
       </c>
       <c r="N5">
-        <v>1.009495934396565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01554542166934</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.052728898891874</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.052262941822769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9991141456444848</v>
+        <v>1.016531645921217</v>
       </c>
       <c r="D6">
-        <v>1.039626357573985</v>
+        <v>1.049013814615819</v>
       </c>
       <c r="E6">
-        <v>1.004948204687006</v>
+        <v>1.031804798775355</v>
       </c>
       <c r="F6">
-        <v>0.9807187158461524</v>
+        <v>1.046545211629068</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049582704381386</v>
+        <v>1.057628779841858</v>
       </c>
       <c r="J6">
-        <v>1.018008115663514</v>
+        <v>1.035003174277508</v>
       </c>
       <c r="K6">
-        <v>1.049019925121697</v>
+        <v>1.058308529432619</v>
       </c>
       <c r="L6">
-        <v>1.014726706045308</v>
+        <v>1.041282414136166</v>
       </c>
       <c r="M6">
-        <v>0.9907862445145066</v>
+        <v>1.055865711556231</v>
       </c>
       <c r="N6">
-        <v>1.009562837149041</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01557015466944</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05278625115974</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.052313200016706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971956427937263</v>
+        <v>1.015507428647772</v>
       </c>
       <c r="D7">
-        <v>1.038555556758869</v>
+        <v>1.048403831474703</v>
       </c>
       <c r="E7">
-        <v>1.003372454911869</v>
+        <v>1.031026884837488</v>
       </c>
       <c r="F7">
-        <v>0.9779583291346551</v>
+        <v>1.045817447320759</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048956748694919</v>
+        <v>1.057402510176043</v>
       </c>
       <c r="J7">
-        <v>1.016665240304808</v>
+        <v>1.034516653766409</v>
       </c>
       <c r="K7">
-        <v>1.048207043243351</v>
+        <v>1.057948343241177</v>
       </c>
       <c r="L7">
-        <v>1.013427359229619</v>
+        <v>1.040761845854995</v>
       </c>
       <c r="M7">
-        <v>0.9883271706614853</v>
+        <v>1.055389813906047</v>
       </c>
       <c r="N7">
-        <v>1.009100312760159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015406959143936</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052409616262428</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.052062654983074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9889345673979406</v>
+        <v>1.011152425798342</v>
       </c>
       <c r="D8">
-        <v>1.033955014073803</v>
+        <v>1.045807921204485</v>
       </c>
       <c r="E8">
-        <v>0.9965998599260999</v>
+        <v>1.027729654768305</v>
       </c>
       <c r="F8">
-        <v>0.9660476559617498</v>
+        <v>1.042732646997628</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046233613817591</v>
+        <v>1.056416956034559</v>
       </c>
       <c r="J8">
-        <v>1.0108686971669</v>
+        <v>1.032441992901118</v>
       </c>
       <c r="K8">
-        <v>1.044693877183378</v>
+        <v>1.056401186082547</v>
       </c>
       <c r="L8">
-        <v>1.007826086108563</v>
+        <v>1.038546667111454</v>
       </c>
       <c r="M8">
-        <v>0.9777080583774516</v>
+        <v>1.053363292497474</v>
       </c>
       <c r="N8">
-        <v>1.00710246473746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014710336039936</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050805784665165</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.050973209386792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9733487267874992</v>
+        <v>1.00319300431282</v>
       </c>
       <c r="D9">
-        <v>1.025330120121643</v>
+        <v>1.041081282790199</v>
       </c>
       <c r="E9">
-        <v>0.9838765343598433</v>
+        <v>1.021749524524708</v>
       </c>
       <c r="F9">
-        <v>0.943439621155178</v>
+        <v>1.037142663900518</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040993716434208</v>
+        <v>1.054539243363095</v>
       </c>
       <c r="J9">
-        <v>0.9998790320027608</v>
+        <v>1.028633511032055</v>
       </c>
       <c r="K9">
-        <v>1.038025179587326</v>
+        <v>1.053541240077779</v>
       </c>
       <c r="L9">
-        <v>0.9972367348600173</v>
+        <v>1.03449931822133</v>
       </c>
       <c r="M9">
-        <v>0.957522235528391</v>
+        <v>1.04966055834386</v>
       </c>
       <c r="N9">
-        <v>1.003310646974499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013430423184329</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047875354209486</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.04894798359468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9621381376823255</v>
+        <v>0.9977247562341086</v>
       </c>
       <c r="D10">
-        <v>1.019179523056629</v>
+        <v>1.037888795700506</v>
       </c>
       <c r="E10">
-        <v>0.9747677066137957</v>
+        <v>1.017699317009145</v>
       </c>
       <c r="F10">
-        <v>0.9270362138911239</v>
+        <v>1.033399373511084</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037160681979374</v>
+        <v>1.053224404877477</v>
       </c>
       <c r="J10">
-        <v>0.9919388673117709</v>
+        <v>1.026028937372433</v>
       </c>
       <c r="K10">
-        <v>1.033210909978065</v>
+        <v>1.051606071170035</v>
       </c>
       <c r="L10">
-        <v>0.989607988918214</v>
+        <v>1.031756192813043</v>
       </c>
       <c r="M10">
-        <v>0.9428608804341878</v>
+        <v>1.047190686928999</v>
       </c>
       <c r="N10">
-        <v>1.000569438755937</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012559435061959</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.045971608635059</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.04759628514222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9570552255479297</v>
+        <v>0.9956172966328687</v>
       </c>
       <c r="D11">
-        <v>1.016407447475264</v>
+        <v>1.036870984736875</v>
       </c>
       <c r="E11">
-        <v>0.9706493739045589</v>
+        <v>1.016326865669963</v>
       </c>
       <c r="F11">
-        <v>0.9195516171090552</v>
+        <v>1.032422602655123</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03540893099084</v>
+        <v>1.052848994028921</v>
       </c>
       <c r="J11">
-        <v>0.9883305042168818</v>
+        <v>1.025173544672999</v>
       </c>
       <c r="K11">
-        <v>1.031026437583615</v>
+        <v>1.051129527812976</v>
       </c>
       <c r="L11">
-        <v>0.9861468705952749</v>
+        <v>1.030947312461933</v>
       </c>
       <c r="M11">
-        <v>0.9361687869705856</v>
+        <v>1.04675792698544</v>
       </c>
       <c r="N11">
-        <v>0.9993236409684215</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012306405613479</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.046061554487632</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.047291671294328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9551294414802538</v>
+        <v>0.9949341588202595</v>
       </c>
       <c r="D12">
-        <v>1.015360058517197</v>
+        <v>1.036617440761481</v>
       </c>
       <c r="E12">
-        <v>0.9690909301886191</v>
+        <v>1.015953856036619</v>
       </c>
       <c r="F12">
-        <v>0.9167074026916896</v>
+        <v>1.03229154149683</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034743286413616</v>
+        <v>1.052777366167716</v>
       </c>
       <c r="J12">
-        <v>0.9869621547877857</v>
+        <v>1.024954472376783</v>
       </c>
       <c r="K12">
-        <v>1.03019878416086</v>
+        <v>1.051075197224859</v>
       </c>
       <c r="L12">
-        <v>0.9848352638609474</v>
+        <v>1.030781657817046</v>
       </c>
       <c r="M12">
-        <v>0.9336255089937779</v>
+        <v>1.046825176866226</v>
       </c>
       <c r="N12">
-        <v>0.9988512321373074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012258957559475</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.046438564548027</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.047253258975073</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.955544297841741</v>
+        <v>0.9953089132650622</v>
       </c>
       <c r="D13">
-        <v>1.015585552749205</v>
+        <v>1.036954832168566</v>
       </c>
       <c r="E13">
-        <v>0.9694265658747029</v>
+        <v>1.016334026216756</v>
       </c>
       <c r="F13">
-        <v>0.9173205174764918</v>
+        <v>1.032821072966148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034886766821913</v>
+        <v>1.052948415817375</v>
       </c>
       <c r="J13">
-        <v>0.9872569830348101</v>
+        <v>1.025219791178481</v>
       </c>
       <c r="K13">
-        <v>1.030377075507343</v>
+        <v>1.051364928931274</v>
       </c>
       <c r="L13">
-        <v>0.9851178245368739</v>
+        <v>1.031111836316545</v>
       </c>
       <c r="M13">
-        <v>0.9341737598646968</v>
+        <v>1.047303358682077</v>
       </c>
       <c r="N13">
-        <v>0.9989530173280272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012370798238426</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.047091391377461</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.047455650678407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9568968315162844</v>
+        <v>0.9960506295952146</v>
       </c>
       <c r="D14">
-        <v>1.016321239972307</v>
+        <v>1.037460869241942</v>
       </c>
       <c r="E14">
-        <v>0.970521154218508</v>
+        <v>1.016941102299213</v>
       </c>
       <c r="F14">
-        <v>0.9193178640553324</v>
+        <v>1.033491510006709</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035354221096744</v>
+        <v>1.053178373613217</v>
       </c>
       <c r="J14">
-        <v>0.9882179836723107</v>
+        <v>1.025624525316303</v>
       </c>
       <c r="K14">
-        <v>1.030958362646827</v>
+        <v>1.051725384010623</v>
       </c>
       <c r="L14">
-        <v>0.9860389974241663</v>
+        <v>1.031567012609424</v>
       </c>
       <c r="M14">
-        <v>0.93595977016402</v>
+        <v>1.047824484733956</v>
       </c>
       <c r="N14">
-        <v>0.9992847938530929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012521178431773</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047675596241929</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.047711897664769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9577250575536371</v>
+        <v>0.9964643235577795</v>
       </c>
       <c r="D15">
-        <v>1.016772129421275</v>
+        <v>1.037721058975086</v>
       </c>
       <c r="E15">
-        <v>0.9711916791928943</v>
+        <v>1.017259050978089</v>
       </c>
       <c r="F15">
-        <v>0.9205397806654365</v>
+        <v>1.033810261142408</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035640214999434</v>
+        <v>1.053291491044875</v>
       </c>
       <c r="J15">
-        <v>0.9888062918932781</v>
+        <v>1.025832949984072</v>
       </c>
       <c r="K15">
-        <v>1.0313143203917</v>
+        <v>1.051896848419606</v>
       </c>
       <c r="L15">
-        <v>0.9866030441205691</v>
+        <v>1.031792503039936</v>
       </c>
       <c r="M15">
-        <v>0.9370523727932384</v>
+        <v>1.048052993855482</v>
       </c>
       <c r="N15">
-        <v>0.9994879050122901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012594311501691</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.047893537538393</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.047838899417381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9624703761494187</v>
+        <v>0.9987060275586604</v>
       </c>
       <c r="D16">
-        <v>1.019361091278889</v>
+        <v>1.039017867209215</v>
       </c>
       <c r="E16">
-        <v>0.9750371483767103</v>
+        <v>1.018903391476492</v>
       </c>
       <c r="F16">
-        <v>0.9275243468571943</v>
+        <v>1.035318406304024</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037274907385613</v>
+        <v>1.053834586416381</v>
       </c>
       <c r="J16">
-        <v>0.992174553480522</v>
+        <v>1.026894128757275</v>
       </c>
       <c r="K16">
-        <v>1.033353680296018</v>
+        <v>1.052681934563502</v>
       </c>
       <c r="L16">
-        <v>0.9898341794265306</v>
+        <v>1.032903825143996</v>
       </c>
       <c r="M16">
-        <v>0.9432972895405317</v>
+        <v>1.049043076520626</v>
       </c>
       <c r="N16">
-        <v>1.000650810942415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012945143019324</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.048637603567852</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.048397083663364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9653835122856307</v>
+        <v>1.000038997782972</v>
       </c>
       <c r="D17">
-        <v>1.020955034685031</v>
+        <v>1.039748374487171</v>
       </c>
       <c r="E17">
-        <v>0.9774009966729625</v>
+        <v>1.019848326577676</v>
       </c>
       <c r="F17">
-        <v>0.9317989314677541</v>
+        <v>1.036121254898926</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038274913695085</v>
+        <v>1.0541280892054</v>
       </c>
       <c r="J17">
-        <v>0.9942401684578157</v>
+        <v>1.027495677446123</v>
       </c>
       <c r="K17">
-        <v>1.034605358302733</v>
+        <v>1.053093604305989</v>
       </c>
       <c r="L17">
-        <v>0.9918172209246768</v>
+        <v>1.033517068227601</v>
       </c>
       <c r="M17">
-        <v>0.9471186757150001</v>
+        <v>1.049524262755546</v>
       </c>
       <c r="N17">
-        <v>1.001363973125478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013135252271552</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048889692748793</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.048690688686825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9670608881326445</v>
+        <v>1.000709097315341</v>
       </c>
       <c r="D18">
-        <v>1.021874356267353</v>
+        <v>1.040036608469017</v>
       </c>
       <c r="E18">
-        <v>0.9787631763960761</v>
+        <v>1.020260693060492</v>
       </c>
       <c r="F18">
-        <v>0.9342558932980465</v>
+        <v>1.036356080241557</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038849406762883</v>
+        <v>1.05422402280404</v>
       </c>
       <c r="J18">
-        <v>0.9954287674908671</v>
+        <v>1.027745342547941</v>
       </c>
       <c r="K18">
-        <v>1.035325897984982</v>
+        <v>1.053198279363995</v>
       </c>
       <c r="L18">
-        <v>0.9929588384446798</v>
+        <v>1.033738630734432</v>
       </c>
       <c r="M18">
-        <v>0.9493149156959242</v>
+        <v>1.049575442073748</v>
       </c>
       <c r="N18">
-        <v>1.001774333266821</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01319928876247</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.048694100067116</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.048753249820871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9676292269091983</v>
+        <v>1.000775317719018</v>
       </c>
       <c r="D19">
-        <v>1.022186095911882</v>
+        <v>1.039939730915291</v>
       </c>
       <c r="E19">
-        <v>0.9792248982127882</v>
+        <v>1.020186154239657</v>
       </c>
       <c r="F19">
-        <v>0.9350876787803165</v>
+        <v>1.036075734627584</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039043834560133</v>
+        <v>1.054146557480296</v>
       </c>
       <c r="J19">
-        <v>0.9958313638626061</v>
+        <v>1.027674610305984</v>
       </c>
       <c r="K19">
-        <v>1.035569999651915</v>
+        <v>1.05304187006124</v>
       </c>
       <c r="L19">
-        <v>0.9933456106568437</v>
+        <v>1.033602588326416</v>
       </c>
       <c r="M19">
-        <v>0.9500583930892068</v>
+        <v>1.049238146896009</v>
       </c>
       <c r="N19">
-        <v>1.001913326158854</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013151272614487</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048104460044229</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.048648957564609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9650732390718841</v>
+        <v>0.9991515380124218</v>
       </c>
       <c r="D20">
-        <v>1.020785104507562</v>
+        <v>1.038749142352312</v>
       </c>
       <c r="E20">
-        <v>0.9771491137401548</v>
+        <v>1.01875956388971</v>
       </c>
       <c r="F20">
-        <v>0.9313441121310654</v>
+        <v>1.034385890824221</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038168539786801</v>
+        <v>1.053583681208283</v>
       </c>
       <c r="J20">
-        <v>0.9940202439250403</v>
+        <v>1.026715205671413</v>
       </c>
       <c r="K20">
-        <v>1.034472060579908</v>
+        <v>1.052143217111054</v>
       </c>
       <c r="L20">
-        <v>0.9916060322089196</v>
+        <v>1.032480379077833</v>
       </c>
       <c r="M20">
-        <v>0.9467121001990252</v>
+        <v>1.04784990266993</v>
       </c>
       <c r="N20">
-        <v>1.001288043968658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012791437389527</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.04648284904147</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.048017449837582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9564996164321304</v>
+        <v>0.9949940838972059</v>
       </c>
       <c r="D21">
-        <v>1.016105099418215</v>
+        <v>1.03628732933925</v>
       </c>
       <c r="E21">
-        <v>0.9701996401286631</v>
+        <v>1.0156570094073</v>
       </c>
       <c r="F21">
-        <v>0.918731524496083</v>
+        <v>1.031463158110026</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035216990598548</v>
+        <v>1.052539597163132</v>
       </c>
       <c r="J21">
-        <v>0.987935788719286</v>
+        <v>1.024702601697212</v>
       </c>
       <c r="K21">
-        <v>1.030787647304941</v>
+        <v>1.050612363742812</v>
       </c>
       <c r="L21">
-        <v>0.9857684725253493</v>
+        <v>1.030347704677953</v>
       </c>
       <c r="M21">
-        <v>0.9354354752367018</v>
+        <v>1.045872001107438</v>
       </c>
       <c r="N21">
-        <v>0.9991873679439452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012112228357478</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.044876989351071</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.046938280525522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9508884732286133</v>
+        <v>0.9923481633078887</v>
       </c>
       <c r="D22">
-        <v>1.013059267664272</v>
+        <v>1.034728320834571</v>
       </c>
       <c r="E22">
-        <v>0.9656625660624447</v>
+        <v>1.013699847344621</v>
       </c>
       <c r="F22">
-        <v>0.9104264130677657</v>
+        <v>1.029637001949005</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033273951446301</v>
+        <v>1.051870563201883</v>
       </c>
       <c r="J22">
-        <v>0.9839464975676634</v>
+        <v>1.023427916159716</v>
       </c>
       <c r="K22">
-        <v>1.028376382451353</v>
+        <v>1.049641829588386</v>
       </c>
       <c r="L22">
-        <v>0.9819463877283658</v>
+        <v>1.029004706841092</v>
       </c>
       <c r="M22">
-        <v>0.9280088479439711</v>
+        <v>1.044643352530532</v>
       </c>
       <c r="N22">
-        <v>0.9978101736781714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011682998593275</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.043904601592623</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.046238798839247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9538852287216967</v>
+        <v>0.99375145198036</v>
       </c>
       <c r="D23">
-        <v>1.014684223152629</v>
+        <v>1.035544554842786</v>
       </c>
       <c r="E23">
-        <v>0.9680845992582054</v>
+        <v>1.014735260645283</v>
       </c>
       <c r="F23">
-        <v>0.9148672182090102</v>
+        <v>1.030601231787644</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034312692835478</v>
+        <v>1.052221914830743</v>
       </c>
       <c r="J23">
-        <v>0.9860777427208717</v>
+        <v>1.0241021876089</v>
       </c>
       <c r="K23">
-        <v>1.029664080896779</v>
+        <v>1.050145996610794</v>
       </c>
       <c r="L23">
-        <v>0.983987788056963</v>
+        <v>1.029714167773534</v>
       </c>
       <c r="M23">
-        <v>0.9319799841828628</v>
+        <v>1.04529054908874</v>
       </c>
       <c r="N23">
-        <v>0.998545906600555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01190916255702</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.044416811691101</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.046585775916778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9652135053205256</v>
+        <v>0.9991832106083164</v>
       </c>
       <c r="D24">
-        <v>1.02086192067465</v>
+        <v>1.038732654195609</v>
       </c>
       <c r="E24">
-        <v>0.9772629799466913</v>
+        <v>1.018762497834412</v>
       </c>
       <c r="F24">
-        <v>0.9315497371897475</v>
+        <v>1.034357203702214</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038216632668073</v>
+        <v>1.053570987852926</v>
       </c>
       <c r="J24">
-        <v>0.9941196683568284</v>
+        <v>1.026712738463467</v>
       </c>
       <c r="K24">
-        <v>1.034532321482257</v>
+        <v>1.052112089640913</v>
       </c>
       <c r="L24">
-        <v>0.9917015056614882</v>
+        <v>1.032467944261775</v>
       </c>
       <c r="M24">
-        <v>0.9468959148221768</v>
+        <v>1.047806686207163</v>
       </c>
       <c r="N24">
-        <v>1.00132237037843</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012786347701867</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.046408152068738</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.047968476107803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9775122174155672</v>
+        <v>1.005292152288655</v>
       </c>
       <c r="D25">
-        <v>1.027626280949478</v>
+        <v>1.042341182750537</v>
       </c>
       <c r="E25">
-        <v>0.9872685178439881</v>
+        <v>1.023323808605165</v>
       </c>
       <c r="F25">
-        <v>0.9494992325839728</v>
+        <v>1.038616544180485</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042404772894507</v>
+        <v>1.055050117005883</v>
       </c>
       <c r="J25">
-        <v>1.002820830981163</v>
+        <v>1.029642717611587</v>
       </c>
       <c r="K25">
-        <v>1.039810354220317</v>
+        <v>1.054315932461597</v>
       </c>
       <c r="L25">
-        <v>1.000067742084852</v>
+        <v>1.035570528996857</v>
       </c>
       <c r="M25">
-        <v>0.9629355944971307</v>
+        <v>1.050643569380061</v>
       </c>
       <c r="N25">
-        <v>1.004326028277158</v>
+        <v>1.013770955902309</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048653333272557</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.049523844309509</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010007061401933</v>
+        <v>1.009421616110149</v>
       </c>
       <c r="D2">
-        <v>1.045112413219753</v>
+        <v>1.041911414409023</v>
       </c>
       <c r="E2">
-        <v>1.026863129696023</v>
+        <v>1.026041582233113</v>
       </c>
       <c r="F2">
-        <v>1.041919569453016</v>
+        <v>1.040329235729103</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.056146313775152</v>
+        <v>1.054782910073926</v>
       </c>
       <c r="J2">
-        <v>1.031892527817095</v>
+        <v>1.031324134204756</v>
       </c>
       <c r="K2">
-        <v>1.05597709894084</v>
+        <v>1.052816176315249</v>
       </c>
       <c r="L2">
-        <v>1.037960486388256</v>
+        <v>1.037149657145822</v>
       </c>
       <c r="M2">
-        <v>1.052824228868701</v>
+        <v>1.051253919985331</v>
       </c>
       <c r="N2">
-        <v>1.014524730017153</v>
+        <v>1.015496964048986</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050379157811607</v>
+        <v>1.049136379312881</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.050650818608648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048424479802685</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026044163552331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013357788510107</v>
+        <v>1.012705686197384</v>
       </c>
       <c r="D3">
-        <v>1.047107561766021</v>
+        <v>1.043754332553798</v>
       </c>
       <c r="E3">
-        <v>1.029394680345249</v>
+        <v>1.028505121629173</v>
       </c>
       <c r="F3">
-        <v>1.044287383512714</v>
+        <v>1.042608948520776</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05691370059765</v>
+        <v>1.055474830973433</v>
       </c>
       <c r="J3">
-        <v>1.033490813922234</v>
+        <v>1.032855873811049</v>
       </c>
       <c r="K3">
-        <v>1.057171187352423</v>
+        <v>1.05385638046219</v>
       </c>
       <c r="L3">
-        <v>1.039664773536617</v>
+        <v>1.038785816302893</v>
       </c>
       <c r="M3">
-        <v>1.054383303196532</v>
+        <v>1.052724190528473</v>
       </c>
       <c r="N3">
-        <v>1.015061554937944</v>
+        <v>1.015905815657754</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051613042979876</v>
+        <v>1.0502999852344</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.051492491634412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049157074119962</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026222425183415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015490952042618</v>
+        <v>1.014796704924853</v>
       </c>
       <c r="D4">
-        <v>1.04838209976922</v>
+        <v>1.044932144035437</v>
       </c>
       <c r="E4">
-        <v>1.031012387066214</v>
+        <v>1.030079745077915</v>
       </c>
       <c r="F4">
-        <v>1.045801495370009</v>
+        <v>1.044067117341773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057393420674108</v>
+        <v>1.055906484803712</v>
       </c>
       <c r="J4">
-        <v>1.034506530246241</v>
+        <v>1.033829336180058</v>
       </c>
       <c r="K4">
-        <v>1.057929662349921</v>
+        <v>1.054516913821978</v>
       </c>
       <c r="L4">
-        <v>1.04075039108332</v>
+        <v>1.039828198224118</v>
       </c>
       <c r="M4">
-        <v>1.055376860977196</v>
+        <v>1.053661263594212</v>
       </c>
       <c r="N4">
-        <v>1.015402734915123</v>
+        <v>1.016165696272362</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052399365053414</v>
+        <v>1.051041605463268</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.052029661642319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049625079695679</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026333341782693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016380978479512</v>
+        <v>1.015669138939423</v>
       </c>
       <c r="D5">
-        <v>1.048918527564282</v>
+        <v>1.045428184799145</v>
       </c>
       <c r="E5">
-        <v>1.031689377050655</v>
+        <v>1.03073873493679</v>
       </c>
       <c r="F5">
-        <v>1.046436109438134</v>
+        <v>1.044678363186352</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057593087257594</v>
+        <v>1.056086044210007</v>
       </c>
       <c r="J5">
-        <v>1.034930568165832</v>
+        <v>1.034235698813994</v>
       </c>
       <c r="K5">
-        <v>1.05824961562089</v>
+        <v>1.054795938059604</v>
       </c>
       <c r="L5">
-        <v>1.041204409802108</v>
+        <v>1.040264136785134</v>
       </c>
       <c r="M5">
-        <v>1.055793243987533</v>
+        <v>1.054054032241549</v>
       </c>
       <c r="N5">
-        <v>1.01554542166934</v>
+        <v>1.016274373574447</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.052728898891874</v>
+        <v>1.051352450988534</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.052262941822769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049830138772041</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026380234551224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016531645921217</v>
+        <v>1.015816742829657</v>
       </c>
       <c r="D6">
-        <v>1.049013814615819</v>
+        <v>1.04551654750701</v>
       </c>
       <c r="E6">
-        <v>1.031804798775355</v>
+        <v>1.030851022888722</v>
       </c>
       <c r="F6">
-        <v>1.046545211629068</v>
+        <v>1.044783438858232</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057628779841858</v>
+        <v>1.05611827608052</v>
       </c>
       <c r="J6">
-        <v>1.035003174277508</v>
+        <v>1.034305228087954</v>
       </c>
       <c r="K6">
-        <v>1.058308529432619</v>
+        <v>1.054847835988022</v>
       </c>
       <c r="L6">
-        <v>1.041282414136166</v>
+        <v>1.040338994236481</v>
       </c>
       <c r="M6">
-        <v>1.055865711556231</v>
+        <v>1.054122431978647</v>
       </c>
       <c r="N6">
-        <v>1.01557015466944</v>
+        <v>1.016293191634204</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05278625115974</v>
+        <v>1.051406583993225</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.052313200016706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049876312407802</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026389642458872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015507428647772</v>
+        <v>1.01482022701103</v>
       </c>
       <c r="D7">
-        <v>1.048403831474703</v>
+        <v>1.044955485507079</v>
       </c>
       <c r="E7">
-        <v>1.031026884837488</v>
+        <v>1.030099668225477</v>
       </c>
       <c r="F7">
-        <v>1.045817447320759</v>
+        <v>1.044086509714378</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057402510176043</v>
+        <v>1.055917977125569</v>
       </c>
       <c r="J7">
-        <v>1.034516653766409</v>
+        <v>1.03384632507214</v>
       </c>
       <c r="K7">
-        <v>1.057948343241177</v>
+        <v>1.05453717280975</v>
       </c>
       <c r="L7">
-        <v>1.040761845854995</v>
+        <v>1.03984501369692</v>
       </c>
       <c r="M7">
-        <v>1.055389813906047</v>
+        <v>1.053677612688094</v>
       </c>
       <c r="N7">
-        <v>1.015406959143936</v>
+        <v>1.016196655626899</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052409616262428</v>
+        <v>1.051054544489129</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052062654983074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.049661203813949</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02633904667386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011152425798342</v>
+        <v>1.010567171385638</v>
       </c>
       <c r="D8">
-        <v>1.045807921204485</v>
+        <v>1.04256252673535</v>
       </c>
       <c r="E8">
-        <v>1.027729654768305</v>
+        <v>1.026902921937806</v>
       </c>
       <c r="F8">
-        <v>1.042732646997628</v>
+        <v>1.041124418782752</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.056416956034559</v>
+        <v>1.055036536116854</v>
       </c>
       <c r="J8">
-        <v>1.032441992901118</v>
+        <v>1.031873220846223</v>
       </c>
       <c r="K8">
-        <v>1.056401186082547</v>
+        <v>1.053195248085034</v>
       </c>
       <c r="L8">
-        <v>1.038546667111454</v>
+        <v>1.037730401530208</v>
       </c>
       <c r="M8">
-        <v>1.053363292497474</v>
+        <v>1.051774721991488</v>
       </c>
       <c r="N8">
-        <v>1.014710336039936</v>
+        <v>1.015722767066988</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050805784665165</v>
+        <v>1.049548554205925</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.050973209386792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048717328738308</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026113034923084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00319300431282</v>
+        <v>1.002771610681541</v>
       </c>
       <c r="D9">
-        <v>1.041081282790199</v>
+        <v>1.038200106646516</v>
       </c>
       <c r="E9">
-        <v>1.021749524524708</v>
+        <v>1.021088646004729</v>
       </c>
       <c r="F9">
-        <v>1.037142663900518</v>
+        <v>1.035746734607712</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054539243363095</v>
+        <v>1.053339457299371</v>
       </c>
       <c r="J9">
-        <v>1.028633511032055</v>
+        <v>1.028226874436355</v>
       </c>
       <c r="K9">
-        <v>1.053541240077779</v>
+        <v>1.050702391258643</v>
       </c>
       <c r="L9">
-        <v>1.03449931822133</v>
+        <v>1.033848595679819</v>
       </c>
       <c r="M9">
-        <v>1.04966055834386</v>
+        <v>1.048285297614753</v>
       </c>
       <c r="N9">
-        <v>1.013430423184329</v>
+        <v>1.014758558581648</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047875354209486</v>
+        <v>1.046786937738835</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04894798359468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046951355380202</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025671047103241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9977247562341086</v>
+        <v>0.9974495929486772</v>
       </c>
       <c r="D10">
-        <v>1.037888795700506</v>
+        <v>1.03526678720031</v>
       </c>
       <c r="E10">
-        <v>1.017699317009145</v>
+        <v>1.01717810352108</v>
       </c>
       <c r="F10">
-        <v>1.033399373511084</v>
+        <v>1.032166282880489</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.053224404877477</v>
+        <v>1.052159743841206</v>
       </c>
       <c r="J10">
-        <v>1.026028937372433</v>
+        <v>1.025764766299464</v>
       </c>
       <c r="K10">
-        <v>1.051606071170035</v>
+        <v>1.049027203533109</v>
       </c>
       <c r="L10">
-        <v>1.031756192813043</v>
+        <v>1.031243977370569</v>
       </c>
       <c r="M10">
-        <v>1.047190686928999</v>
+        <v>1.045978077190252</v>
       </c>
       <c r="N10">
-        <v>1.012559435061959</v>
+        <v>1.014221118663185</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.045971608635059</v>
+        <v>1.045011974738071</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.04759628514222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.045785155476725</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.025369315739475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9956172966328687</v>
+        <v>0.9954374254553462</v>
       </c>
       <c r="D11">
-        <v>1.036870984736875</v>
+        <v>1.034337371456254</v>
       </c>
       <c r="E11">
-        <v>1.016326865669963</v>
+        <v>1.015884888871068</v>
       </c>
       <c r="F11">
-        <v>1.032422602655123</v>
+        <v>1.03126493091955</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052848994028921</v>
+        <v>1.05184289737827</v>
       </c>
       <c r="J11">
-        <v>1.025173544672999</v>
+        <v>1.025001252440282</v>
       </c>
       <c r="K11">
-        <v>1.051129527812976</v>
+        <v>1.048639541223657</v>
       </c>
       <c r="L11">
-        <v>1.030947312461933</v>
+        <v>1.030513330656836</v>
       </c>
       <c r="M11">
-        <v>1.04675792698544</v>
+        <v>1.04562037785844</v>
       </c>
       <c r="N11">
-        <v>1.012306405613479</v>
+        <v>1.014269293413698</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.046061554487632</v>
+        <v>1.045161767257762</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.047291671294328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.045546617848084</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025337495532489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9949341588202595</v>
+        <v>0.9947877142506486</v>
       </c>
       <c r="D12">
-        <v>1.036617440761481</v>
+        <v>1.034102559574414</v>
       </c>
       <c r="E12">
-        <v>1.015953856036619</v>
+        <v>1.015537521286003</v>
       </c>
       <c r="F12">
-        <v>1.03229154149683</v>
+        <v>1.031156630578309</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052777366167716</v>
+        <v>1.051788026382784</v>
       </c>
       <c r="J12">
-        <v>1.024954472376783</v>
+        <v>1.024814317332271</v>
       </c>
       <c r="K12">
-        <v>1.051075197224859</v>
+        <v>1.048604328471105</v>
       </c>
       <c r="L12">
-        <v>1.030781657817046</v>
+        <v>1.03037298047192</v>
       </c>
       <c r="M12">
-        <v>1.046825176866226</v>
+        <v>1.045710309710283</v>
       </c>
       <c r="N12">
-        <v>1.012258957559475</v>
+        <v>1.014338875264043</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.046438564548027</v>
+        <v>1.045557012509196</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.047253258975073</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.045521722449337</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025356048381328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9953089132650622</v>
+        <v>0.9951394062293933</v>
       </c>
       <c r="D13">
-        <v>1.036954832168566</v>
+        <v>1.034401936451579</v>
       </c>
       <c r="E13">
-        <v>1.016334026216756</v>
+        <v>1.015895125389356</v>
       </c>
       <c r="F13">
-        <v>1.032821072966148</v>
+        <v>1.03166369260905</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052948415817375</v>
+        <v>1.051940251607227</v>
       </c>
       <c r="J13">
-        <v>1.025219791178481</v>
+        <v>1.025057529942084</v>
       </c>
       <c r="K13">
-        <v>1.051364928931274</v>
+        <v>1.048856526868315</v>
       </c>
       <c r="L13">
-        <v>1.031111836316545</v>
+        <v>1.030680973327453</v>
       </c>
       <c r="M13">
-        <v>1.047303358682077</v>
+        <v>1.046166324346497</v>
       </c>
       <c r="N13">
-        <v>1.012370798238426</v>
+        <v>1.014396710890336</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.047091391377461</v>
+        <v>1.046192534354679</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.047455650678407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045697330539661</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025421631113089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9960506295952146</v>
+        <v>0.9958401023891565</v>
       </c>
       <c r="D14">
-        <v>1.037460869241942</v>
+        <v>1.034856090036306</v>
       </c>
       <c r="E14">
-        <v>1.016941102299213</v>
+        <v>1.016465339066692</v>
       </c>
       <c r="F14">
-        <v>1.033491510006709</v>
+        <v>1.032298469451767</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.053178373613217</v>
+        <v>1.052141253095812</v>
       </c>
       <c r="J14">
-        <v>1.025624525316303</v>
+        <v>1.025422870836975</v>
       </c>
       <c r="K14">
-        <v>1.051725384010623</v>
+        <v>1.049165453082822</v>
       </c>
       <c r="L14">
-        <v>1.031567012609424</v>
+        <v>1.031099853621813</v>
       </c>
       <c r="M14">
-        <v>1.047824484733956</v>
+        <v>1.046652153873483</v>
       </c>
       <c r="N14">
-        <v>1.012521178431773</v>
+        <v>1.014433126262531</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047675596241929</v>
+        <v>1.046748960306111</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.047711897664769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.045917282180476</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025489430932513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9964643235577795</v>
+        <v>0.9962318936828876</v>
       </c>
       <c r="D15">
-        <v>1.037721058975086</v>
+        <v>1.035090975147847</v>
       </c>
       <c r="E15">
-        <v>1.017259050978089</v>
+        <v>1.016764051153213</v>
       </c>
       <c r="F15">
-        <v>1.033810261142408</v>
+        <v>1.032598699707597</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053291491044875</v>
+        <v>1.052239508356617</v>
       </c>
       <c r="J15">
-        <v>1.025832949984072</v>
+        <v>1.025610231477076</v>
       </c>
       <c r="K15">
-        <v>1.051896848419606</v>
+        <v>1.049311713187025</v>
       </c>
       <c r="L15">
-        <v>1.031792503039936</v>
+        <v>1.031306387197976</v>
       </c>
       <c r="M15">
-        <v>1.048052993855482</v>
+        <v>1.046862304434857</v>
       </c>
       <c r="N15">
-        <v>1.012594311501691</v>
+        <v>1.014443691251004</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047893537538393</v>
+        <v>1.04695241521262</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.047838899417381</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.046027037989443</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025518867617938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9987060275586604</v>
+        <v>0.9983660419955315</v>
       </c>
       <c r="D16">
-        <v>1.039017867209215</v>
+        <v>1.036267627772571</v>
       </c>
       <c r="E16">
-        <v>1.018903391476492</v>
+        <v>1.018314642992863</v>
       </c>
       <c r="F16">
-        <v>1.035318406304024</v>
+        <v>1.034015258784639</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053834586416381</v>
+        <v>1.052709627805828</v>
       </c>
       <c r="J16">
-        <v>1.026894128757275</v>
+        <v>1.026567645001113</v>
       </c>
       <c r="K16">
-        <v>1.052681934563502</v>
+        <v>1.049976695211231</v>
       </c>
       <c r="L16">
-        <v>1.032903825143996</v>
+        <v>1.032325180796291</v>
       </c>
       <c r="M16">
-        <v>1.049043076520626</v>
+        <v>1.047761409460362</v>
       </c>
       <c r="N16">
-        <v>1.012945143019324</v>
+        <v>1.01448922506793</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048637603567852</v>
+        <v>1.047624543878709</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.048397083663364</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.046500611676096</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025638925126669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000038997782972</v>
+        <v>0.9996462064116758</v>
       </c>
       <c r="D17">
-        <v>1.039748374487171</v>
+        <v>1.036935818745191</v>
       </c>
       <c r="E17">
-        <v>1.019848326577676</v>
+        <v>1.019213184276463</v>
       </c>
       <c r="F17">
-        <v>1.036121254898926</v>
+        <v>1.034770788572433</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.0541280892054</v>
+        <v>1.052965388761432</v>
       </c>
       <c r="J17">
-        <v>1.027495677446123</v>
+        <v>1.027117987177786</v>
       </c>
       <c r="K17">
-        <v>1.053093604305989</v>
+        <v>1.050325805929474</v>
       </c>
       <c r="L17">
-        <v>1.033517068227601</v>
+        <v>1.032892519351397</v>
       </c>
       <c r="M17">
-        <v>1.049524262755546</v>
+        <v>1.048195441348168</v>
       </c>
       <c r="N17">
-        <v>1.013135252271552</v>
+        <v>1.01453381749558</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048889692748793</v>
+        <v>1.047839257575674</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.048690688686825</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.046750237804323</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025694926998078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000709097315341</v>
+        <v>1.000296367111932</v>
       </c>
       <c r="D18">
-        <v>1.040036608469017</v>
+        <v>1.037204234846359</v>
       </c>
       <c r="E18">
-        <v>1.020260693060492</v>
+        <v>1.019608724684969</v>
       </c>
       <c r="F18">
-        <v>1.036356080241557</v>
+        <v>1.034987756744386</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05422402280404</v>
+        <v>1.053047590712709</v>
       </c>
       <c r="J18">
-        <v>1.027745342547941</v>
+        <v>1.02734818272806</v>
       </c>
       <c r="K18">
-        <v>1.053198279363995</v>
+        <v>1.050410255713957</v>
       </c>
       <c r="L18">
-        <v>1.033738630734432</v>
+        <v>1.033097357591686</v>
       </c>
       <c r="M18">
-        <v>1.049575442073748</v>
+        <v>1.048228700497571</v>
       </c>
       <c r="N18">
-        <v>1.01319928876247</v>
+        <v>1.01454036783972</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048694100067116</v>
+        <v>1.04762927973533</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.048753249820871</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.046797356664011</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025693412008058</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000775317719018</v>
+        <v>1.00036774474999</v>
       </c>
       <c r="D19">
-        <v>1.039939730915291</v>
+        <v>1.037124281524924</v>
       </c>
       <c r="E19">
-        <v>1.020186154239657</v>
+        <v>1.019540836166286</v>
       </c>
       <c r="F19">
-        <v>1.036075734627584</v>
+        <v>1.034714199905267</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054146557480296</v>
+        <v>1.052976615907234</v>
       </c>
       <c r="J19">
-        <v>1.027674610305984</v>
+        <v>1.027282320293678</v>
       </c>
       <c r="K19">
-        <v>1.05304187006124</v>
+        <v>1.050270281101658</v>
       </c>
       <c r="L19">
-        <v>1.033602588326416</v>
+        <v>1.032967801769877</v>
       </c>
       <c r="M19">
-        <v>1.049238146896009</v>
+        <v>1.047897987519012</v>
       </c>
       <c r="N19">
-        <v>1.013151272614487</v>
+        <v>1.014494163483551</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048104460044229</v>
+        <v>1.047044502752023</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.048648957564609</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04670531342606</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025643699732187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9991515380124218</v>
+        <v>0.9988162025939117</v>
       </c>
       <c r="D20">
-        <v>1.038749142352312</v>
+        <v>1.036051203251612</v>
       </c>
       <c r="E20">
-        <v>1.01875956388971</v>
+        <v>1.018184265552676</v>
       </c>
       <c r="F20">
-        <v>1.034385890824221</v>
+        <v>1.03309809245768</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053583681208283</v>
+        <v>1.052475079788759</v>
       </c>
       <c r="J20">
-        <v>1.026715205671413</v>
+        <v>1.026392834038952</v>
       </c>
       <c r="K20">
-        <v>1.052143217111054</v>
+        <v>1.04948843321333</v>
       </c>
       <c r="L20">
-        <v>1.032480379077833</v>
+        <v>1.031914729147821</v>
       </c>
       <c r="M20">
-        <v>1.04784990266993</v>
+        <v>1.046582890926224</v>
       </c>
       <c r="N20">
-        <v>1.012791437389527</v>
+        <v>1.014291625214171</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.04648284904147</v>
+        <v>1.045480150590206</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.048017449837582</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.046156779283531</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025456695041754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9949940838972059</v>
+        <v>0.9948755117956796</v>
       </c>
       <c r="D21">
-        <v>1.03628732933925</v>
+        <v>1.033827813674263</v>
       </c>
       <c r="E21">
-        <v>1.0156570094073</v>
+        <v>1.01527247481439</v>
       </c>
       <c r="F21">
-        <v>1.031463158110026</v>
+        <v>1.030357953836337</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.052539597163132</v>
+        <v>1.051575621337921</v>
       </c>
       <c r="J21">
-        <v>1.024702601697212</v>
+        <v>1.024589059267002</v>
       </c>
       <c r="K21">
-        <v>1.050612363742812</v>
+        <v>1.048195449860692</v>
       </c>
       <c r="L21">
-        <v>1.030347704677953</v>
+        <v>1.029970169336311</v>
       </c>
       <c r="M21">
-        <v>1.045872001107438</v>
+        <v>1.044786140308118</v>
       </c>
       <c r="N21">
-        <v>1.012112228357478</v>
+        <v>1.014224843859872</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.044876989351071</v>
+        <v>1.044017608005712</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.046938280525522</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.045246112789839</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025216135938778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9923481633078887</v>
+        <v>0.9923655310511971</v>
       </c>
       <c r="D22">
-        <v>1.034728320834571</v>
+        <v>1.03241878966481</v>
       </c>
       <c r="E22">
-        <v>1.013699847344621</v>
+        <v>1.013435069331531</v>
       </c>
       <c r="F22">
-        <v>1.029637001949005</v>
+        <v>1.028646789395232</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051870563201883</v>
+        <v>1.050997275884952</v>
       </c>
       <c r="J22">
-        <v>1.023427916159716</v>
+        <v>1.023444504689693</v>
       </c>
       <c r="K22">
-        <v>1.049641829588386</v>
+        <v>1.047374265772598</v>
       </c>
       <c r="L22">
-        <v>1.029004706841092</v>
+        <v>1.028744991986976</v>
       </c>
       <c r="M22">
-        <v>1.044643352530532</v>
+        <v>1.043671335910291</v>
       </c>
       <c r="N22">
-        <v>1.011682998593275</v>
+        <v>1.014176218486035</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.043904601592623</v>
+        <v>1.043135318814875</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.046238798839247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.044650910955702</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025061777635895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.99375145198036</v>
+        <v>0.9936849480225693</v>
       </c>
       <c r="D23">
-        <v>1.035544554842786</v>
+        <v>1.033151607980385</v>
       </c>
       <c r="E23">
-        <v>1.014735260645283</v>
+        <v>1.01439769235598</v>
       </c>
       <c r="F23">
-        <v>1.030601231787644</v>
+        <v>1.0295437283089</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.052221914830743</v>
+        <v>1.05129610690661</v>
       </c>
       <c r="J23">
-        <v>1.0241021876089</v>
+        <v>1.024038580655776</v>
       </c>
       <c r="K23">
-        <v>1.050145996610794</v>
+        <v>1.047795451963319</v>
       </c>
       <c r="L23">
-        <v>1.029714167773534</v>
+        <v>1.029382889292757</v>
       </c>
       <c r="M23">
-        <v>1.04529054908874</v>
+        <v>1.044251986780541</v>
       </c>
       <c r="N23">
-        <v>1.01190916255702</v>
+        <v>1.014158490567983</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.044416811691101</v>
+        <v>1.043594863230044</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.046585775916778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.044938271062967</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025139239851413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9991832106083164</v>
+        <v>0.9988483052405425</v>
       </c>
       <c r="D24">
-        <v>1.038732654195609</v>
+        <v>1.036036324550521</v>
       </c>
       <c r="E24">
-        <v>1.018762497834412</v>
+        <v>1.018188021401788</v>
       </c>
       <c r="F24">
-        <v>1.034357203702214</v>
+        <v>1.03307013346738</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053570987852926</v>
+        <v>1.052463043551719</v>
       </c>
       <c r="J24">
-        <v>1.026712738463467</v>
+        <v>1.026390760901083</v>
       </c>
       <c r="K24">
-        <v>1.052112089640913</v>
+        <v>1.049458836111071</v>
       </c>
       <c r="L24">
-        <v>1.032467944261775</v>
+        <v>1.031903090014169</v>
       </c>
       <c r="M24">
-        <v>1.047806686207163</v>
+        <v>1.046540365774718</v>
       </c>
       <c r="N24">
-        <v>1.012786347701867</v>
+        <v>1.014284096436452</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.046408152068738</v>
+        <v>1.045405951795125</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.047968476107803</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.046106195129817</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025445284564841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005292152288655</v>
+        <v>1.004817496563265</v>
       </c>
       <c r="D25">
-        <v>1.042341182750537</v>
+        <v>1.039360112895321</v>
       </c>
       <c r="E25">
-        <v>1.023323808605165</v>
+        <v>1.022611157664938</v>
       </c>
       <c r="F25">
-        <v>1.038616544180485</v>
+        <v>1.037159072894592</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055050117005883</v>
+        <v>1.053798834768103</v>
       </c>
       <c r="J25">
-        <v>1.029642717611587</v>
+        <v>1.02918381334859</v>
       </c>
       <c r="K25">
-        <v>1.054315932461597</v>
+        <v>1.051376664254699</v>
       </c>
       <c r="L25">
-        <v>1.035570528996857</v>
+        <v>1.034868319367614</v>
       </c>
       <c r="M25">
-        <v>1.050643569380061</v>
+        <v>1.049206682976301</v>
       </c>
       <c r="N25">
-        <v>1.013770955902309</v>
+        <v>1.014982211118478</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048653333272557</v>
+        <v>1.047516145827025</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.049523844309509</v>
+        <v>1.047459044168092</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02579494551068</v>
       </c>
     </row>
   </sheetData>
